--- a/AppVehiculos/resources/SistemasVehiculos.xlsx
+++ b/AppVehiculos/resources/SistemasVehiculos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\NetBeansProjects\vehiculos2025\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChispyDev\Repositorios\Si2_2025\AppVehiculos\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D10ED3-CAE0-4A1C-815E-ACD1A1E9575E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B30D775-1D2E-48A2-BD30-0EE8CC25C3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF8BD292-BC82-4648-93FB-5EF5760864FF}"/>
+    <workbookView xWindow="22932" yWindow="-2292" windowWidth="30936" windowHeight="16776" xr2:uid="{FF8BD292-BC82-4648-93FB-5EF5760864FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contribuyente" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="659">
   <si>
     <t>Nombre</t>
   </si>
@@ -1168,844 +1168,848 @@
     <t>09706119G</t>
   </si>
   <si>
+    <t>09707275X</t>
+  </si>
+  <si>
+    <t>09710840X</t>
+  </si>
+  <si>
+    <t>09711691X</t>
+  </si>
+  <si>
+    <t>09713006Z</t>
+  </si>
+  <si>
+    <t>09713007S</t>
+  </si>
+  <si>
+    <t>09713528F</t>
+  </si>
+  <si>
+    <t>09715064W</t>
+  </si>
+  <si>
+    <t>09715167J</t>
+  </si>
+  <si>
+    <t>09715890T</t>
+  </si>
+  <si>
+    <t>09716184H</t>
+  </si>
+  <si>
+    <t>09717650N</t>
+  </si>
+  <si>
+    <t>09718644V</t>
+  </si>
+  <si>
+    <t>09720049L</t>
+  </si>
+  <si>
+    <t>09720969L</t>
+  </si>
+  <si>
+    <t>09722535K</t>
+  </si>
+  <si>
+    <t>09722591P</t>
+  </si>
+  <si>
+    <t>09722827Z</t>
+  </si>
+  <si>
+    <t>09723206W</t>
+  </si>
+  <si>
+    <t>09731953D</t>
+  </si>
+  <si>
+    <t>09733795B</t>
+  </si>
+  <si>
+    <t>09734839C</t>
+  </si>
+  <si>
+    <t>09736219C</t>
+  </si>
+  <si>
+    <t>09737592J</t>
+  </si>
+  <si>
+    <t>09737631Y</t>
+  </si>
+  <si>
+    <t>09738099Z</t>
+  </si>
+  <si>
+    <t>09752292Q</t>
+  </si>
+  <si>
+    <t>09752293V</t>
+  </si>
+  <si>
+    <t>09753101C</t>
+  </si>
+  <si>
+    <t>09754339Q</t>
+  </si>
+  <si>
+    <t>09757444Q</t>
+  </si>
+  <si>
+    <t>09757564K</t>
+  </si>
+  <si>
+    <t>09762197P</t>
+  </si>
+  <si>
+    <t>09762293N</t>
+  </si>
+  <si>
+    <t>09763856B</t>
+  </si>
+  <si>
+    <t>09768995K</t>
+  </si>
+  <si>
+    <t>09770039F</t>
+  </si>
+  <si>
+    <t>09774163Z</t>
+  </si>
+  <si>
+    <t>09774199G</t>
+  </si>
+  <si>
+    <t>09778683A</t>
+  </si>
+  <si>
+    <t>09778772T</t>
+  </si>
+  <si>
+    <t>09779269Z</t>
+  </si>
+  <si>
+    <t>09780389F</t>
+  </si>
+  <si>
+    <t>09780996Q</t>
+  </si>
+  <si>
+    <t>09781067H</t>
+  </si>
+  <si>
+    <t>09781327W</t>
+  </si>
+  <si>
+    <t>09782302B</t>
+  </si>
+  <si>
+    <t>09782419J</t>
+  </si>
+  <si>
+    <t>09783952M</t>
+  </si>
+  <si>
+    <t>09786577P</t>
+  </si>
+  <si>
+    <t>09787319Z</t>
+  </si>
+  <si>
+    <t>09789574S</t>
+  </si>
+  <si>
+    <t>09789575Q</t>
+  </si>
+  <si>
+    <t>09790982C</t>
+  </si>
+  <si>
+    <t>09791120C</t>
+  </si>
+  <si>
+    <t>09791323Q</t>
+  </si>
+  <si>
+    <t>09798076F</t>
+  </si>
+  <si>
+    <t>09798287B</t>
+  </si>
+  <si>
+    <t>09799247M</t>
+  </si>
+  <si>
+    <t>09800420M</t>
+  </si>
+  <si>
+    <t>09800921T</t>
+  </si>
+  <si>
+    <t>09801107W</t>
+  </si>
+  <si>
+    <t>09802657B</t>
+  </si>
+  <si>
+    <t>09803456M</t>
+  </si>
+  <si>
+    <t>09804256T</t>
+  </si>
+  <si>
+    <t>09804568J</t>
+  </si>
+  <si>
+    <t>09806108N</t>
+  </si>
+  <si>
+    <t>09807895M</t>
+  </si>
+  <si>
+    <t>09807896Y</t>
+  </si>
+  <si>
+    <t>09808038X</t>
+  </si>
+  <si>
+    <t>09808051T</t>
+  </si>
+  <si>
+    <t>09808061X</t>
+  </si>
+  <si>
+    <t>09808127F</t>
+  </si>
+  <si>
+    <t>10160508M</t>
+  </si>
+  <si>
+    <t>10178996R</t>
+  </si>
+  <si>
+    <t>10193861P</t>
+  </si>
+  <si>
+    <t>10198570W</t>
+  </si>
+  <si>
+    <t>11398830F</t>
+  </si>
+  <si>
+    <t>11437269J</t>
+  </si>
+  <si>
+    <t>11637421L</t>
+  </si>
+  <si>
+    <t>11662128R</t>
+  </si>
+  <si>
+    <t>11673213T</t>
+  </si>
+  <si>
+    <t>11942643P</t>
+  </si>
+  <si>
+    <t>11957847D</t>
+  </si>
+  <si>
+    <t>11959249P</t>
+  </si>
+  <si>
+    <t>11959694Q</t>
+  </si>
+  <si>
+    <t>11966672W</t>
+  </si>
+  <si>
+    <t>11971207Y</t>
+  </si>
+  <si>
+    <t>CITROEN</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>RAZOL</t>
+  </si>
+  <si>
+    <t>CASE</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>XSARA PICASSO 40</t>
+  </si>
+  <si>
+    <t>CVH</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>307 5P XRCLIM</t>
+  </si>
+  <si>
+    <t>XANTIA 19 TD X</t>
+  </si>
+  <si>
+    <t>TIGUAN</t>
+  </si>
+  <si>
+    <t>ESCORT 5 PUERTAS</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>JOHN DEERE</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>N91</t>
+  </si>
+  <si>
+    <t>G86</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>BYD</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>H75</t>
+  </si>
+  <si>
+    <t>V455</t>
+  </si>
+  <si>
+    <t>KMJWVH7HP2U456263</t>
+  </si>
+  <si>
+    <t>W0L0AHM75A2100307</t>
+  </si>
+  <si>
+    <t>YV2J4DEC02B302081</t>
+  </si>
+  <si>
+    <t>W0L0TGF48Y6106268</t>
+  </si>
+  <si>
+    <t>WBAAM11090CA03927</t>
+  </si>
+  <si>
+    <t>VF1BA1U0524627776</t>
+  </si>
+  <si>
+    <t>VSSZZZ7MZ8V506376</t>
+  </si>
+  <si>
+    <t>JN1KESY61U0005997</t>
+  </si>
+  <si>
+    <t>WVWZZZ3BZ4E288011</t>
+  </si>
+  <si>
+    <t>VF32AKFWF44528938</t>
+  </si>
+  <si>
+    <t>WAUZZZ8E76A143187</t>
+  </si>
+  <si>
+    <t>WAUZZZ8E26A279615</t>
+  </si>
+  <si>
+    <t>W0L0TGF48X5100122</t>
+  </si>
+  <si>
+    <t>XTA21214031711893</t>
+  </si>
+  <si>
+    <t>VF1DA0B0527099849</t>
+  </si>
+  <si>
+    <t>WF0AXXWPDA1D05535</t>
+  </si>
+  <si>
+    <t>WAUZZZ8E64A046303</t>
+  </si>
+  <si>
+    <t>VSSZZZ1MZ4R067053</t>
+  </si>
+  <si>
+    <t>RFVBRUC5241002446</t>
+  </si>
+  <si>
+    <t>W0L0AHL4858136249</t>
+  </si>
+  <si>
+    <t>TMAD331UAEJ001412</t>
+  </si>
+  <si>
+    <t>VSSZZZ6JZER120663</t>
+  </si>
+  <si>
+    <t>WF0FXXWPDF3Y47888</t>
+  </si>
+  <si>
+    <t>W0L0TGF6915014070</t>
+  </si>
+  <si>
+    <t>WAUZZZ4F76N044649</t>
+  </si>
+  <si>
+    <t>VSSZZZ1PZ8R049713</t>
+  </si>
+  <si>
+    <t>VTHSC1C1A6H345070</t>
+  </si>
+  <si>
+    <t>VF1SB8M0537878580</t>
+  </si>
+  <si>
+    <t>WVWZZZ1JZ3W451498</t>
+  </si>
+  <si>
+    <t>VSSZZZ6KZ2R038977</t>
+  </si>
+  <si>
+    <t>UU15SDAG548391805</t>
+  </si>
+  <si>
+    <t>WVWZZZ1KZ7B024041</t>
+  </si>
+  <si>
+    <t>WF0UXXGAJU5M80705</t>
+  </si>
+  <si>
+    <t>VSSZZZ6LZ8R121527</t>
+  </si>
+  <si>
+    <t>VF7VDWT0005WT0209</t>
+  </si>
+  <si>
+    <t>WVWZZZ1JZ3B190985</t>
+  </si>
+  <si>
+    <t>VSKJ4EDA6UY585754</t>
+  </si>
+  <si>
+    <t>SAJAF52139BJ46823</t>
+  </si>
+  <si>
+    <t>VF1JMSE0638014920</t>
+  </si>
+  <si>
+    <t>VSSZZZ1MZ4R058682</t>
+  </si>
+  <si>
+    <t>YV1LS4502N2013205</t>
+  </si>
+  <si>
+    <t>YS3FF46WX51056758</t>
+  </si>
+  <si>
+    <t>VSSZZZ1MZ5R074196</t>
+  </si>
+  <si>
+    <t>VF33CRHYB83885473</t>
+  </si>
+  <si>
+    <t>VF1FW18M552505376</t>
+  </si>
+  <si>
+    <t>VTRCG3030F0947139</t>
+  </si>
+  <si>
+    <t>VF7MFWJYB65831272</t>
+  </si>
+  <si>
+    <t>VF7N0RHYB73531591</t>
+  </si>
+  <si>
+    <t>CABALLOS</t>
+  </si>
+  <si>
+    <t>PLAZAS</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>BENAVIDES</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>MARCA</t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
+    <t>MATRICULA</t>
+  </si>
+  <si>
+    <t>BASTIDOR</t>
+  </si>
+  <si>
+    <t>EXENCION</t>
+  </si>
+  <si>
+    <t>FECHAMATRICULACION</t>
+  </si>
+  <si>
+    <t>FECHAALTA</t>
+  </si>
+  <si>
+    <t>FECHABAJA</t>
+  </si>
+  <si>
+    <t>FECHABAJATEMPORAL</t>
+  </si>
+  <si>
+    <t>NIFPROPIETARIO</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>CLIO</t>
+  </si>
+  <si>
+    <t>1261ABC</t>
+  </si>
+  <si>
+    <t>1262ABC</t>
+  </si>
+  <si>
+    <t>1263ABC</t>
+  </si>
+  <si>
+    <t>1264ABC</t>
+  </si>
+  <si>
+    <t>1284ABC</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Miguel angel</t>
+  </si>
+  <si>
+    <t>Lombas</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Marquez</t>
+  </si>
+  <si>
+    <t>Moran</t>
+  </si>
+  <si>
+    <t>Ana Belen</t>
+  </si>
+  <si>
+    <t>Jose Antonio</t>
+  </si>
+  <si>
+    <t>Ruben Dario</t>
+  </si>
+  <si>
+    <t>Rocio</t>
+  </si>
+  <si>
+    <t>Agustin</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>Martines</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Serafin</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Florez</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Encarnacion</t>
+  </si>
+  <si>
+    <t>Melcon</t>
+  </si>
+  <si>
+    <t>Concepcion</t>
+  </si>
+  <si>
+    <t>LE0010L</t>
+  </si>
+  <si>
+    <t>REP123A</t>
+  </si>
+  <si>
+    <t>LE1</t>
+  </si>
+  <si>
+    <t>M256000</t>
+  </si>
+  <si>
+    <t>O2536J</t>
+  </si>
+  <si>
+    <t>2568POR</t>
+  </si>
+  <si>
+    <t>SE2369857</t>
+  </si>
+  <si>
+    <t>SO25697</t>
+  </si>
+  <si>
+    <t>12563</t>
+  </si>
+  <si>
+    <t>abc256</t>
+  </si>
+  <si>
+    <t>3687ab</t>
+  </si>
+  <si>
+    <t>LE25417P</t>
+  </si>
+  <si>
+    <t>E2569ABD</t>
+  </si>
+  <si>
+    <t>LE2500VE</t>
+  </si>
+  <si>
+    <t>M325417</t>
+  </si>
+  <si>
+    <t>R1234RET</t>
+  </si>
+  <si>
+    <t>M125VE</t>
+  </si>
+  <si>
+    <t>M125</t>
+  </si>
+  <si>
+    <t>C2364PLA</t>
+  </si>
+  <si>
+    <t>C123LJN</t>
+  </si>
+  <si>
+    <t>C2658ABC</t>
+  </si>
+  <si>
+    <t>2365ABG</t>
+  </si>
+  <si>
+    <t>C123AWDE</t>
+  </si>
+  <si>
+    <t>LE34</t>
+  </si>
+  <si>
+    <t>O3876PP</t>
+  </si>
+  <si>
+    <t>1458236</t>
+  </si>
+  <si>
+    <t>HRTGJFG</t>
+  </si>
+  <si>
+    <t>AB23RE</t>
+  </si>
+  <si>
+    <t>LE2323RE</t>
+  </si>
+  <si>
+    <t>E1234856</t>
+  </si>
+  <si>
+    <t>EJGKIOPE</t>
+  </si>
+  <si>
+    <t>BU125000VE</t>
+  </si>
+  <si>
+    <t>BU125000</t>
+  </si>
+  <si>
+    <t>E2563TRE</t>
+  </si>
+  <si>
+    <t>H2564LPI</t>
+  </si>
+  <si>
+    <t>H123PL</t>
+  </si>
+  <si>
+    <t>H1254785</t>
+  </si>
+  <si>
+    <t>HJUIK123</t>
+  </si>
+  <si>
+    <t>H1258B</t>
+  </si>
+  <si>
+    <t>H1485LPM</t>
+  </si>
+  <si>
+    <t>REP124Z</t>
+  </si>
+  <si>
+    <t>125C</t>
+  </si>
+  <si>
+    <t>245619375215464975</t>
+  </si>
+  <si>
+    <t>365201256384510125RR</t>
+  </si>
+  <si>
+    <t>20960056133231500000</t>
+  </si>
+  <si>
+    <t>23658965274585223202</t>
+  </si>
+  <si>
+    <t>20012541150023365233</t>
+  </si>
+  <si>
+    <t>65645150865168448896</t>
+  </si>
+  <si>
+    <t>26551681807651415636</t>
+  </si>
+  <si>
+    <t>51556584221251000254</t>
+  </si>
+  <si>
+    <t>62541122421110105611</t>
+  </si>
+  <si>
+    <t>25894363435485700142</t>
+  </si>
+  <si>
+    <t>96431245148150005176</t>
+  </si>
+  <si>
+    <t>DK9032541112811220000588</t>
+  </si>
+  <si>
+    <t>LT9362541122421110105611</t>
+  </si>
+  <si>
+    <t>ES6855065688761051056105</t>
+  </si>
+  <si>
+    <t>ES7426221011628048788896</t>
+  </si>
+  <si>
+    <t>ES9712548521518742146695</t>
+  </si>
+  <si>
+    <t>ES9001826530120201560000</t>
+  </si>
+  <si>
+    <t>ES9021651651812511133551</t>
+  </si>
+  <si>
+    <t>ES6851651487910005118185</t>
+  </si>
+  <si>
+    <t>CZ9536250012804785523365</t>
+  </si>
+  <si>
+    <t>AT3122515651915640081000</t>
+  </si>
+  <si>
+    <t>215465</t>
+  </si>
+  <si>
+    <t>09706476A</t>
+  </si>
+  <si>
+    <t>09699481</t>
+  </si>
+  <si>
     <t>09706476Q</t>
-  </si>
-  <si>
-    <t>09707275X</t>
-  </si>
-  <si>
-    <t>09710840X</t>
-  </si>
-  <si>
-    <t>09711691X</t>
-  </si>
-  <si>
-    <t>09713006Z</t>
-  </si>
-  <si>
-    <t>09713007S</t>
-  </si>
-  <si>
-    <t>09713528F</t>
-  </si>
-  <si>
-    <t>09715064W</t>
-  </si>
-  <si>
-    <t>09715167J</t>
-  </si>
-  <si>
-    <t>09715890T</t>
-  </si>
-  <si>
-    <t>09716184H</t>
-  </si>
-  <si>
-    <t>09717650N</t>
-  </si>
-  <si>
-    <t>09718644V</t>
-  </si>
-  <si>
-    <t>09720049L</t>
-  </si>
-  <si>
-    <t>09720969L</t>
-  </si>
-  <si>
-    <t>09722535K</t>
-  </si>
-  <si>
-    <t>09722591P</t>
-  </si>
-  <si>
-    <t>09722827Z</t>
-  </si>
-  <si>
-    <t>09723206W</t>
-  </si>
-  <si>
-    <t>09731953D</t>
-  </si>
-  <si>
-    <t>09733795B</t>
-  </si>
-  <si>
-    <t>09734839C</t>
-  </si>
-  <si>
-    <t>09736219C</t>
-  </si>
-  <si>
-    <t>09737592J</t>
-  </si>
-  <si>
-    <t>09737631Y</t>
-  </si>
-  <si>
-    <t>09738099Z</t>
-  </si>
-  <si>
-    <t>09752292Q</t>
-  </si>
-  <si>
-    <t>09752293V</t>
-  </si>
-  <si>
-    <t>09753101C</t>
-  </si>
-  <si>
-    <t>09754339Q</t>
-  </si>
-  <si>
-    <t>09757444Q</t>
-  </si>
-  <si>
-    <t>09757564K</t>
-  </si>
-  <si>
-    <t>09762197P</t>
-  </si>
-  <si>
-    <t>09762293N</t>
-  </si>
-  <si>
-    <t>09763856B</t>
-  </si>
-  <si>
-    <t>09768995K</t>
-  </si>
-  <si>
-    <t>09770039F</t>
-  </si>
-  <si>
-    <t>09774163Z</t>
-  </si>
-  <si>
-    <t>09774199G</t>
-  </si>
-  <si>
-    <t>09778683A</t>
-  </si>
-  <si>
-    <t>09778772T</t>
-  </si>
-  <si>
-    <t>09779269Z</t>
-  </si>
-  <si>
-    <t>09780389F</t>
-  </si>
-  <si>
-    <t>09780996Q</t>
-  </si>
-  <si>
-    <t>09781067H</t>
-  </si>
-  <si>
-    <t>09781327W</t>
-  </si>
-  <si>
-    <t>09782302B</t>
-  </si>
-  <si>
-    <t>09782419J</t>
-  </si>
-  <si>
-    <t>09783952M</t>
-  </si>
-  <si>
-    <t>09786577P</t>
-  </si>
-  <si>
-    <t>09787319Z</t>
-  </si>
-  <si>
-    <t>09789574S</t>
-  </si>
-  <si>
-    <t>09789575Q</t>
-  </si>
-  <si>
-    <t>09790982C</t>
-  </si>
-  <si>
-    <t>09791120C</t>
-  </si>
-  <si>
-    <t>09791323Q</t>
-  </si>
-  <si>
-    <t>09798076F</t>
-  </si>
-  <si>
-    <t>09798287B</t>
-  </si>
-  <si>
-    <t>09799247M</t>
-  </si>
-  <si>
-    <t>09800420M</t>
-  </si>
-  <si>
-    <t>09800921T</t>
-  </si>
-  <si>
-    <t>09801107W</t>
-  </si>
-  <si>
-    <t>09802657B</t>
-  </si>
-  <si>
-    <t>09803456M</t>
-  </si>
-  <si>
-    <t>09804256T</t>
-  </si>
-  <si>
-    <t>09804568J</t>
-  </si>
-  <si>
-    <t>09806108N</t>
-  </si>
-  <si>
-    <t>09807895M</t>
-  </si>
-  <si>
-    <t>09807896Y</t>
-  </si>
-  <si>
-    <t>09808038X</t>
-  </si>
-  <si>
-    <t>09808051T</t>
-  </si>
-  <si>
-    <t>09808061X</t>
-  </si>
-  <si>
-    <t>09808127F</t>
-  </si>
-  <si>
-    <t>10160508M</t>
-  </si>
-  <si>
-    <t>10178996R</t>
-  </si>
-  <si>
-    <t>10193861P</t>
-  </si>
-  <si>
-    <t>10198570W</t>
-  </si>
-  <si>
-    <t>11398830F</t>
-  </si>
-  <si>
-    <t>11437269J</t>
-  </si>
-  <si>
-    <t>11637421L</t>
-  </si>
-  <si>
-    <t>11662128R</t>
-  </si>
-  <si>
-    <t>11673213T</t>
-  </si>
-  <si>
-    <t>11942643P</t>
-  </si>
-  <si>
-    <t>11957847D</t>
-  </si>
-  <si>
-    <t>11959249P</t>
-  </si>
-  <si>
-    <t>11959694Q</t>
-  </si>
-  <si>
-    <t>11966672W</t>
-  </si>
-  <si>
-    <t>11971207Y</t>
-  </si>
-  <si>
-    <t>CITROEN</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>RAZOL</t>
-  </si>
-  <si>
-    <t>CASE</t>
-  </si>
-  <si>
-    <t>FORD</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>XSARA PICASSO 40</t>
-  </si>
-  <si>
-    <t>CVH</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>307 5P XRCLIM</t>
-  </si>
-  <si>
-    <t>XANTIA 19 TD X</t>
-  </si>
-  <si>
-    <t>TIGUAN</t>
-  </si>
-  <si>
-    <t>ESCORT 5 PUERTAS</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>JOHN DEERE</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>C37</t>
-  </si>
-  <si>
-    <t>N91</t>
-  </si>
-  <si>
-    <t>G86</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>BYD</t>
-  </si>
-  <si>
-    <t>G23</t>
-  </si>
-  <si>
-    <t>H75</t>
-  </si>
-  <si>
-    <t>V455</t>
-  </si>
-  <si>
-    <t>KMJWVH7HP2U456263</t>
-  </si>
-  <si>
-    <t>W0L0AHM75A2100307</t>
-  </si>
-  <si>
-    <t>YV2J4DEC02B302081</t>
-  </si>
-  <si>
-    <t>W0L0TGF48Y6106268</t>
-  </si>
-  <si>
-    <t>WBAAM11090CA03927</t>
-  </si>
-  <si>
-    <t>VF1BA1U0524627776</t>
-  </si>
-  <si>
-    <t>VSSZZZ7MZ8V506376</t>
-  </si>
-  <si>
-    <t>JN1KESY61U0005997</t>
-  </si>
-  <si>
-    <t>WVWZZZ3BZ4E288011</t>
-  </si>
-  <si>
-    <t>VF32AKFWF44528938</t>
-  </si>
-  <si>
-    <t>WAUZZZ8E76A143187</t>
-  </si>
-  <si>
-    <t>WAUZZZ8E26A279615</t>
-  </si>
-  <si>
-    <t>W0L0TGF48X5100122</t>
-  </si>
-  <si>
-    <t>XTA21214031711893</t>
-  </si>
-  <si>
-    <t>VF1DA0B0527099849</t>
-  </si>
-  <si>
-    <t>WF0AXXWPDA1D05535</t>
-  </si>
-  <si>
-    <t>WAUZZZ8E64A046303</t>
-  </si>
-  <si>
-    <t>VSSZZZ1MZ4R067053</t>
-  </si>
-  <si>
-    <t>RFVBRUC5241002446</t>
-  </si>
-  <si>
-    <t>W0L0AHL4858136249</t>
-  </si>
-  <si>
-    <t>TMAD331UAEJ001412</t>
-  </si>
-  <si>
-    <t>VSSZZZ6JZER120663</t>
-  </si>
-  <si>
-    <t>WF0FXXWPDF3Y47888</t>
-  </si>
-  <si>
-    <t>W0L0TGF6915014070</t>
-  </si>
-  <si>
-    <t>WAUZZZ4F76N044649</t>
-  </si>
-  <si>
-    <t>VSSZZZ1PZ8R049713</t>
-  </si>
-  <si>
-    <t>VTHSC1C1A6H345070</t>
-  </si>
-  <si>
-    <t>VF1SB8M0537878580</t>
-  </si>
-  <si>
-    <t>WVWZZZ1JZ3W451498</t>
-  </si>
-  <si>
-    <t>VSSZZZ6KZ2R038977</t>
-  </si>
-  <si>
-    <t>UU15SDAG548391805</t>
-  </si>
-  <si>
-    <t>WVWZZZ1KZ7B024041</t>
-  </si>
-  <si>
-    <t>WF0UXXGAJU5M80705</t>
-  </si>
-  <si>
-    <t>VSSZZZ6LZ8R121527</t>
-  </si>
-  <si>
-    <t>VF7VDWT0005WT0209</t>
-  </si>
-  <si>
-    <t>WVWZZZ1JZ3B190985</t>
-  </si>
-  <si>
-    <t>VSKJ4EDA6UY585754</t>
-  </si>
-  <si>
-    <t>SAJAF52139BJ46823</t>
-  </si>
-  <si>
-    <t>VF1JMSE0638014920</t>
-  </si>
-  <si>
-    <t>VSSZZZ1MZ4R058682</t>
-  </si>
-  <si>
-    <t>YV1LS4502N2013205</t>
-  </si>
-  <si>
-    <t>YS3FF46WX51056758</t>
-  </si>
-  <si>
-    <t>VSSZZZ1MZ5R074196</t>
-  </si>
-  <si>
-    <t>VF33CRHYB83885473</t>
-  </si>
-  <si>
-    <t>VF1FW18M552505376</t>
-  </si>
-  <si>
-    <t>VTRCG3030F0947139</t>
-  </si>
-  <si>
-    <t>VF7MFWJYB65831272</t>
-  </si>
-  <si>
-    <t>VF7N0RHYB73531591</t>
-  </si>
-  <si>
-    <t>CABALLOS</t>
-  </si>
-  <si>
-    <t>PLAZAS</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>BENAVIDES</t>
-  </si>
-  <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>MARCA</t>
-  </si>
-  <si>
-    <t>MODELO</t>
-  </si>
-  <si>
-    <t>MATRICULA</t>
-  </si>
-  <si>
-    <t>BASTIDOR</t>
-  </si>
-  <si>
-    <t>EXENCION</t>
-  </si>
-  <si>
-    <t>FECHAMATRICULACION</t>
-  </si>
-  <si>
-    <t>FECHAALTA</t>
-  </si>
-  <si>
-    <t>FECHABAJA</t>
-  </si>
-  <si>
-    <t>FECHABAJATEMPORAL</t>
-  </si>
-  <si>
-    <t>NIFPROPIETARIO</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>CLIO</t>
-  </si>
-  <si>
-    <t>1261ABC</t>
-  </si>
-  <si>
-    <t>1262ABC</t>
-  </si>
-  <si>
-    <t>1263ABC</t>
-  </si>
-  <si>
-    <t>1264ABC</t>
-  </si>
-  <si>
-    <t>1284ABC</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>Sanchez</t>
-  </si>
-  <si>
-    <t>Miguel angel</t>
-  </si>
-  <si>
-    <t>Lombas</t>
-  </si>
-  <si>
-    <t>Tomas</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>Marquez</t>
-  </si>
-  <si>
-    <t>Moran</t>
-  </si>
-  <si>
-    <t>Ana Belen</t>
-  </si>
-  <si>
-    <t>Jose Antonio</t>
-  </si>
-  <si>
-    <t>Ruben Dario</t>
-  </si>
-  <si>
-    <t>Rocio</t>
-  </si>
-  <si>
-    <t>Agustin</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
-    <t>Martines</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Serafin</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Florez</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>Encarnacion</t>
-  </si>
-  <si>
-    <t>Melcon</t>
-  </si>
-  <si>
-    <t>Concepcion</t>
-  </si>
-  <si>
-    <t>LE0010L</t>
-  </si>
-  <si>
-    <t>REP123A</t>
-  </si>
-  <si>
-    <t>LE1</t>
-  </si>
-  <si>
-    <t>M256000</t>
-  </si>
-  <si>
-    <t>O2536J</t>
-  </si>
-  <si>
-    <t>2568POR</t>
-  </si>
-  <si>
-    <t>SE2369857</t>
-  </si>
-  <si>
-    <t>SO25697</t>
-  </si>
-  <si>
-    <t>12563</t>
-  </si>
-  <si>
-    <t>abc256</t>
-  </si>
-  <si>
-    <t>3687ab</t>
-  </si>
-  <si>
-    <t>LE25417P</t>
-  </si>
-  <si>
-    <t>E2569ABD</t>
-  </si>
-  <si>
-    <t>LE2500VE</t>
-  </si>
-  <si>
-    <t>M325417</t>
-  </si>
-  <si>
-    <t>R1234RET</t>
-  </si>
-  <si>
-    <t>M125VE</t>
-  </si>
-  <si>
-    <t>M125</t>
-  </si>
-  <si>
-    <t>C2364PLA</t>
-  </si>
-  <si>
-    <t>C123LJN</t>
-  </si>
-  <si>
-    <t>C2658ABC</t>
-  </si>
-  <si>
-    <t>2365ABG</t>
-  </si>
-  <si>
-    <t>C123AWDE</t>
-  </si>
-  <si>
-    <t>LE34</t>
-  </si>
-  <si>
-    <t>O3876PP</t>
-  </si>
-  <si>
-    <t>1458236</t>
-  </si>
-  <si>
-    <t>HRTGJFG</t>
-  </si>
-  <si>
-    <t>AB23RE</t>
-  </si>
-  <si>
-    <t>LE2323RE</t>
-  </si>
-  <si>
-    <t>E1234856</t>
-  </si>
-  <si>
-    <t>EJGKIOPE</t>
-  </si>
-  <si>
-    <t>BU125000VE</t>
-  </si>
-  <si>
-    <t>BU125000</t>
-  </si>
-  <si>
-    <t>E2563TRE</t>
-  </si>
-  <si>
-    <t>H2564LPI</t>
-  </si>
-  <si>
-    <t>H123PL</t>
-  </si>
-  <si>
-    <t>H1254785</t>
-  </si>
-  <si>
-    <t>HJUIK123</t>
-  </si>
-  <si>
-    <t>H1258B</t>
-  </si>
-  <si>
-    <t>H1485LPM</t>
-  </si>
-  <si>
-    <t>REP124Z</t>
-  </si>
-  <si>
-    <t>125C</t>
-  </si>
-  <si>
-    <t>09699481P</t>
-  </si>
-  <si>
-    <t>245619375215464975</t>
-  </si>
-  <si>
-    <t>365201256384510125RR</t>
-  </si>
-  <si>
-    <t>20960056133231500000</t>
-  </si>
-  <si>
-    <t>23658965274585223202</t>
-  </si>
-  <si>
-    <t>20012541150023365233</t>
-  </si>
-  <si>
-    <t>65645150865168448896</t>
-  </si>
-  <si>
-    <t>26551681807651415636</t>
-  </si>
-  <si>
-    <t>51556584221251000254</t>
-  </si>
-  <si>
-    <t>62541122421110105611</t>
-  </si>
-  <si>
-    <t>25894363435485700142</t>
-  </si>
-  <si>
-    <t>96431245148150005176</t>
-  </si>
-  <si>
-    <t>DK9032541112811220000588</t>
-  </si>
-  <si>
-    <t>LT9362541122421110105611</t>
-  </si>
-  <si>
-    <t>ES6855065688761051056105</t>
-  </si>
-  <si>
-    <t>ES7426221011628048788896</t>
-  </si>
-  <si>
-    <t>ES9712548521518742146695</t>
-  </si>
-  <si>
-    <t>ES9001826530120201560000</t>
-  </si>
-  <si>
-    <t>ES9021651651812511133551</t>
-  </si>
-  <si>
-    <t>ES6851651487910005118185</t>
-  </si>
-  <si>
-    <t>CZ9536250012804785523365</t>
-  </si>
-  <si>
-    <t>AT3122515651915640081000</t>
-  </si>
-  <si>
-    <t>215465</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2379,98 +2383,98 @@
   <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="85" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="23.7109375"/>
+    <col min="6" max="6" customWidth="true" style="5" width="7.85546875"/>
+    <col min="7" max="7" customWidth="true" width="85.0"/>
+    <col min="8" max="8" customWidth="true" width="16.140625"/>
+    <col min="10" max="10" customWidth="true" width="22.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>330</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="B2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>245</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="H2" t="s">
-        <v>550</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I2" t="s" s="0">
         <v>224</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="D3" t="s">
-        <v>579</v>
+      <c r="D3" t="s" s="0">
+        <v>578</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>246</v>
@@ -2478,16 +2482,16 @@
       <c r="F3" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H3" t="s">
-        <v>550</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I3" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2495,13 +2499,13 @@
       <c r="A4" s="8">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2510,16 +2514,16 @@
       <c r="F4" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H4" t="s">
-        <v>550</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I4" t="s" s="0">
         <v>226</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2527,13 +2531,13 @@
       <c r="A5" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -2542,16 +2546,16 @@
       <c r="F5" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H5" t="s">
-        <v>550</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I5" t="s" s="0">
         <v>227</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="L5">
+        <v>634</v>
+      </c>
+      <c r="L5" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2559,14 +2563,14 @@
       <c r="A6" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="D6" t="s">
-        <v>580</v>
+      <c r="D6" t="s" s="0">
+        <v>579</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>248</v>
@@ -2574,16 +2578,16 @@
       <c r="F6" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="H6" t="s">
-        <v>550</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I6" t="s" s="0">
         <v>228</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="L6">
+        <v>635</v>
+      </c>
+      <c r="L6" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2591,13 +2595,13 @@
       <c r="A7" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -2606,16 +2610,16 @@
       <c r="F7" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="H7" t="s">
-        <v>550</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I7" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="L7">
+        <v>655</v>
+      </c>
+      <c r="L7" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2623,13 +2627,13 @@
       <c r="A8" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -2638,16 +2642,16 @@
       <c r="F8" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="H8" t="s">
-        <v>550</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I8" t="s" s="0">
         <v>229</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2655,13 +2659,13 @@
       <c r="A9" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -2670,16 +2674,16 @@
       <c r="F9" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="H9" t="s">
-        <v>550</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I9" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2687,13 +2691,13 @@
       <c r="A10" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2702,16 +2706,16 @@
       <c r="F10" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="H10" t="s">
-        <v>550</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I10" t="s" s="0">
         <v>230</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2719,13 +2723,13 @@
       <c r="A11" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2734,31 +2738,31 @@
       <c r="F11" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="H11" t="s">
-        <v>550</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I11" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="B12" t="s">
+        <v>658</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="D12" t="s">
-        <v>581</v>
+      <c r="D12" t="s" s="0">
+        <v>580</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>252</v>
@@ -2766,28 +2770,28 @@
       <c r="F12" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="H12" t="s">
-        <v>550</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I12" t="s" s="0">
         <v>231</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2796,30 +2800,30 @@
       <c r="F13" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="H13" t="s">
-        <v>550</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I13" t="s" s="0">
         <v>232</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="B14" t="s">
-        <v>582</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="A14" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>17</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2828,16 +2832,16 @@
       <c r="F14" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="H14" t="s">
-        <v>550</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I14" t="s" s="0">
         <v>233</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2849,15 +2853,15 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="B16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -2866,30 +2870,30 @@
       <c r="F16" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="H16" t="s">
-        <v>550</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I16" t="s" s="0">
         <v>234</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="L16">
+        <v>643</v>
+      </c>
+      <c r="L16" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="B17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -2898,30 +2902,30 @@
       <c r="F17" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H17" t="s">
-        <v>550</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I17" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="L17">
+        <v>644</v>
+      </c>
+      <c r="L17" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B18" t="s">
+        <v>384</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>582</v>
       </c>
-      <c r="C18" t="s">
-        <v>583</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -2930,30 +2934,30 @@
       <c r="F18" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H18" t="s">
-        <v>550</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H18" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I18" t="s" s="0">
         <v>235</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B19" t="s">
-        <v>569</v>
-      </c>
-      <c r="C19" t="s">
-        <v>583</v>
-      </c>
-      <c r="D19" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>21</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -2962,30 +2966,30 @@
       <c r="F19" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="H19" t="s">
-        <v>550</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I19" t="s" s="0">
         <v>236</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B20" t="s">
-        <v>569</v>
-      </c>
-      <c r="C20" t="s">
+        <v>386</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>22</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2994,30 +2998,30 @@
       <c r="F20" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="H20" t="s">
-        <v>550</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I20" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="B21" t="s">
+        <v>387</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C21" t="s">
-        <v>570</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -3026,31 +3030,31 @@
       <c r="F21" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H21" t="s">
-        <v>550</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="H21" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I21" t="s" s="0">
         <v>224</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B22" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="D22" t="s">
-        <v>571</v>
+      <c r="D22" t="s" s="0">
+        <v>570</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>256</v>
@@ -3058,30 +3062,30 @@
       <c r="F22" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H22" t="s">
-        <v>550</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="H22" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I22" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="B23" t="s">
+        <v>389</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>24</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3090,30 +3094,30 @@
       <c r="F23" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="H23" t="s">
-        <v>550</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I23" t="s" s="0">
         <v>229</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B24" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="C24" t="s">
-        <v>583</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="D24" t="s" s="0">
         <v>25</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -3122,30 +3126,30 @@
       <c r="F24" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H24" t="s">
-        <v>550</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H24" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I24" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="B25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="C25" t="s">
-        <v>570</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="D25" t="s" s="0">
         <v>26</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -3154,16 +3158,16 @@
       <c r="F25" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="H25" t="s">
-        <v>550</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I25" t="s" s="0">
         <v>227</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3175,15 +3179,15 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>27</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -3192,30 +3196,30 @@
       <c r="F27" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H27" t="s">
-        <v>550</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="H27" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I27" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="B28" t="s">
-        <v>582</v>
-      </c>
-      <c r="C28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>28</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -3224,30 +3228,30 @@
       <c r="F28" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="H28" t="s">
-        <v>550</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H28" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I28" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B29" t="s">
+        <v>394</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>29</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -3256,30 +3260,30 @@
       <c r="F29" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="H29" t="s">
-        <v>550</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="H29" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I29" t="s" s="0">
         <v>237</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B30" t="s">
-        <v>570</v>
-      </c>
-      <c r="C30" t="s">
+        <v>395</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>30</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -3288,31 +3292,31 @@
       <c r="F30" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="H30" t="s">
-        <v>550</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I30" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B31" t="s">
-        <v>572</v>
-      </c>
-      <c r="C31" t="s">
+        <v>396</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="C31" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="D31" t="s">
-        <v>577</v>
+      <c r="D31" t="s" s="0">
+        <v>576</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>250</v>
@@ -3320,30 +3324,30 @@
       <c r="F31" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="H31" t="s">
-        <v>550</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="H31" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I31" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="B32" t="s">
+        <v>397</v>
+      </c>
+      <c r="B32" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>31</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -3352,16 +3356,16 @@
       <c r="F32" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="H32" t="s">
-        <v>550</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="H32" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I32" t="s" s="0">
         <v>238</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3385,16 +3389,16 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B36" t="s">
+        <v>398</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="D36" t="s">
-        <v>573</v>
+      <c r="D36" t="s" s="0">
+        <v>572</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>252</v>
@@ -3402,30 +3406,30 @@
       <c r="F36" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="H36" t="s">
-        <v>550</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="H36" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I36" t="s" s="0">
         <v>227</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B37" t="s">
+        <v>399</v>
+      </c>
+      <c r="B37" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>32</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -3434,30 +3438,30 @@
       <c r="F37" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H37" t="s">
-        <v>550</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H37" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I37" t="s" s="0">
         <v>227</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="B38" t="s">
+        <v>400</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>33</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -3466,30 +3470,30 @@
       <c r="F38" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H38" t="s">
-        <v>550</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="H38" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I38" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B39" t="s">
-        <v>588</v>
-      </c>
-      <c r="C39" t="s">
+        <v>401</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C39" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>34</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -3498,31 +3502,31 @@
       <c r="F39" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="H39" t="s">
-        <v>550</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="H39" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I39" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="B40" t="s">
+        <v>402</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D40" t="s" s="0">
         <v>589</v>
-      </c>
-      <c r="C40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" t="s">
-        <v>590</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>259</v>
@@ -3530,30 +3534,30 @@
       <c r="F40" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="H40" t="s">
-        <v>550</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="H40" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I40" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B41" t="s">
-        <v>589</v>
-      </c>
-      <c r="C41" t="s">
+        <v>403</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="C41" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>35</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -3562,30 +3566,30 @@
       <c r="F41" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="H41" t="s">
-        <v>550</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="H41" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I41" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B42" t="s">
+        <v>404</v>
+      </c>
+      <c r="B42" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>36</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -3594,30 +3598,30 @@
       <c r="F42" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="H42" t="s">
-        <v>550</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="H42" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I42" t="s" s="0">
         <v>230</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="B43" t="s">
+        <v>405</v>
+      </c>
+      <c r="B43" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="C43" t="s">
-        <v>583</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="D43" t="s" s="0">
         <v>37</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -3626,30 +3630,30 @@
       <c r="F43" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="H43" t="s">
-        <v>550</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="H43" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I43" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B44" t="s">
+        <v>406</v>
+      </c>
+      <c r="B44" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="C44" t="s">
-        <v>583</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="D44" t="s" s="0">
         <v>31</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -3658,30 +3662,30 @@
       <c r="F44" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="H44" t="s">
-        <v>550</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="H44" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I44" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="B45" t="s">
+        <v>407</v>
+      </c>
+      <c r="B45" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="0">
         <v>38</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -3690,30 +3694,30 @@
       <c r="F45" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="H45" t="s">
-        <v>550</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="H45" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I45" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="B46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B46" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C46" t="s">
-        <v>570</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="D46" t="s" s="0">
         <v>39</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -3722,30 +3726,30 @@
       <c r="F46" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="H46" t="s">
-        <v>550</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="H46" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I46" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B47" t="s">
+        <v>409</v>
+      </c>
+      <c r="B47" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C47" t="s">
-        <v>582</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="D47" t="s" s="0">
         <v>40</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -3754,31 +3758,31 @@
       <c r="F47" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="H47" t="s">
-        <v>550</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="H47" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I47" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B48" t="s">
+        <v>410</v>
+      </c>
+      <c r="B48" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="C48" t="s">
-        <v>582</v>
-      </c>
-      <c r="D48" t="s">
-        <v>574</v>
+      <c r="C48" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>573</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>250</v>
@@ -3786,30 +3790,30 @@
       <c r="F48" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="H48" t="s">
-        <v>550</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="H48" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I48" t="s" s="0">
         <v>239</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="B49" t="s">
-        <v>589</v>
-      </c>
-      <c r="C49" t="s">
+        <v>411</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="C49" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="s" s="0">
         <v>41</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -3818,30 +3822,30 @@
       <c r="F49" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="H49" t="s">
-        <v>550</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="H49" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I49" t="s" s="0">
         <v>227</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B50" t="s">
+        <v>412</v>
+      </c>
+      <c r="B50" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="0">
         <v>42</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -3850,30 +3854,30 @@
       <c r="F50" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="H50" t="s">
-        <v>550</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="H50" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I50" t="s" s="0">
         <v>227</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="B51" t="s">
+        <v>413</v>
+      </c>
+      <c r="B51" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C51" t="s">
-        <v>569</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="D51" t="s" s="0">
         <v>42</v>
       </c>
       <c r="E51" s="4" t="s">
@@ -3882,30 +3886,30 @@
       <c r="F51" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H51" t="s">
-        <v>550</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="H51" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I51" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B52" t="s">
+        <v>414</v>
+      </c>
+      <c r="B52" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="C52" t="s">
-        <v>569</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C52" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="D52" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -3914,31 +3918,31 @@
       <c r="F52" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="H52" t="s">
-        <v>550</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="H52" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I52" t="s" s="0">
         <v>234</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B53" t="s">
-        <v>582</v>
-      </c>
-      <c r="C53" t="s">
+        <v>415</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="C53" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D53" t="s">
-        <v>579</v>
+      <c r="D53" t="s" s="0">
+        <v>578</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>266</v>
@@ -3946,30 +3950,30 @@
       <c r="F53" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="H53" t="s">
-        <v>550</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="H53" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I53" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B54" t="s">
+        <v>416</v>
+      </c>
+      <c r="B54" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="s" s="0">
         <v>11</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -3978,30 +3982,30 @@
       <c r="F54" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H54" t="s">
-        <v>550</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="H54" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I54" t="s" s="0">
         <v>229</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B55" t="s">
+        <v>417</v>
+      </c>
+      <c r="B55" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="0">
         <v>11</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -4010,16 +4014,16 @@
       <c r="F55" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H55" t="s">
-        <v>550</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="H55" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I55" t="s" s="0">
         <v>239</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="0">
         <v>0</v>
       </c>
     </row>
@@ -4049,15 +4053,15 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="B60" t="s">
+        <v>418</v>
+      </c>
+      <c r="B60" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="C60" t="s">
-        <v>575</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C60" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="D60" t="s" s="0">
         <v>14</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -4066,30 +4070,30 @@
       <c r="F60" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H60" t="s">
-        <v>550</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="H60" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I60" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="B61" t="s">
-        <v>576</v>
-      </c>
-      <c r="C61" t="s">
+        <v>419</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="C61" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="s" s="0">
         <v>43</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -4098,31 +4102,31 @@
       <c r="F61" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="H61" t="s">
-        <v>550</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="H61" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I61" t="s" s="0">
         <v>239</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="B62" t="s">
-        <v>589</v>
-      </c>
-      <c r="C62" t="s">
+        <v>420</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="C62" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D62" t="s">
-        <v>581</v>
+      <c r="D62" t="s" s="0">
+        <v>580</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>265</v>
@@ -4130,30 +4134,30 @@
       <c r="F62" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H62" t="s">
-        <v>550</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="H62" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I62" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="B63" t="s">
+        <v>421</v>
+      </c>
+      <c r="B63" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="C63" t="s">
-        <v>591</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C63" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="D63" t="s" s="0">
         <v>16</v>
       </c>
       <c r="E63" s="4" t="s">
@@ -4162,30 +4166,30 @@
       <c r="F63" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="H63" t="s">
-        <v>550</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="H63" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I63" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B64" t="s">
+        <v>422</v>
+      </c>
+      <c r="B64" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="C64" t="s">
-        <v>582</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C64" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="D64" t="s" s="0">
         <v>17</v>
       </c>
       <c r="E64" s="4" t="s">
@@ -4194,30 +4198,30 @@
       <c r="F64" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H64" t="s">
-        <v>550</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="H64" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I64" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="B65" t="s">
+        <v>423</v>
+      </c>
+      <c r="B65" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" t="s" s="0">
         <v>44</v>
       </c>
       <c r="E65" s="4" t="s">
@@ -4226,30 +4230,30 @@
       <c r="F65" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="H65" t="s">
-        <v>550</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="H65" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I65" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="B66" t="s">
+        <v>424</v>
+      </c>
+      <c r="B66" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C66" t="s">
-        <v>569</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C66" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="D66" t="s" s="0">
         <v>18</v>
       </c>
       <c r="E66" s="4" t="s">
@@ -4258,30 +4262,30 @@
       <c r="F66" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H66" t="s">
-        <v>550</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="H66" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I66" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="B67" t="s">
+        <v>425</v>
+      </c>
+      <c r="B67" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C67" t="s">
-        <v>582</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C67" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="D67" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -4290,30 +4294,30 @@
       <c r="F67" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="H67" t="s">
-        <v>550</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="H67" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I67" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="B68" t="s">
+        <v>426</v>
+      </c>
+      <c r="B68" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C68" t="s">
-        <v>582</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C68" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="D68" t="s" s="0">
         <v>20</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -4322,30 +4326,30 @@
       <c r="F68" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="H68" t="s">
-        <v>550</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="H68" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I68" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="B69" t="s">
-        <v>582</v>
-      </c>
-      <c r="C69" t="s">
+        <v>427</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="C69" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" t="s" s="0">
         <v>21</v>
       </c>
       <c r="E69" s="4" t="s">
@@ -4354,31 +4358,31 @@
       <c r="F69" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="H69" t="s">
-        <v>550</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="H69" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I69" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B70" t="s">
+        <v>451</v>
+      </c>
+      <c r="B70" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="D70" t="s">
-        <v>580</v>
+      <c r="D70" t="s" s="0">
+        <v>579</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>271</v>
@@ -4386,30 +4390,30 @@
       <c r="F70" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H70" t="s">
-        <v>550</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="H70" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I70" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B71" t="s">
+        <v>428</v>
+      </c>
+      <c r="B71" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C71" t="s">
-        <v>569</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C71" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="D71" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E71" s="4" t="s">
@@ -4418,30 +4422,30 @@
       <c r="F71" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H71" t="s">
-        <v>550</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="H71" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I71" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="B72" t="s">
+        <v>429</v>
+      </c>
+      <c r="B72" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="C72" t="s">
-        <v>569</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C72" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="D72" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -4450,30 +4454,30 @@
       <c r="F72" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H72" t="s">
-        <v>550</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="H72" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I72" t="s" s="0">
         <v>237</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="B73" t="s">
-        <v>584</v>
-      </c>
-      <c r="C73" t="s">
+        <v>430</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="C73" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -4482,30 +4486,30 @@
       <c r="F73" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="H73" t="s">
-        <v>550</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="H73" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I73" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B74" t="s">
+        <v>431</v>
+      </c>
+      <c r="B74" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" t="s" s="0">
         <v>45</v>
       </c>
       <c r="E74" s="4" t="s">
@@ -4514,31 +4518,31 @@
       <c r="F74" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H74" t="s">
-        <v>550</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="H74" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I74" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="B75" t="s">
+        <v>432</v>
+      </c>
+      <c r="B75" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D75" t="s">
-        <v>592</v>
+      <c r="D75" t="s" s="0">
+        <v>591</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>267</v>
@@ -4546,31 +4550,31 @@
       <c r="F75" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H75" t="s">
-        <v>550</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="H75" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I75" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="B76" t="s">
+        <v>433</v>
+      </c>
+      <c r="B76" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="D76" t="s">
-        <v>585</v>
+      <c r="D76" t="s" s="0">
+        <v>584</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>270</v>
@@ -4578,30 +4582,30 @@
       <c r="F76" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H76" t="s">
-        <v>550</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="H76" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I76" t="s" s="0">
         <v>240</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B77" t="s">
+        <v>434</v>
+      </c>
+      <c r="B77" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="s" s="0">
         <v>46</v>
       </c>
       <c r="E77" s="4" t="s">
@@ -4610,16 +4614,16 @@
       <c r="F77" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H77" t="s">
-        <v>550</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="H77" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I77" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="L77">
+        <v>636</v>
+      </c>
+      <c r="L77" s="0">
         <v>0</v>
       </c>
     </row>
@@ -4631,16 +4635,16 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B79" t="s">
+        <v>435</v>
+      </c>
+      <c r="B79" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="D79" t="s">
-        <v>586</v>
+      <c r="D79" t="s" s="0">
+        <v>585</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>267</v>
@@ -4648,30 +4652,30 @@
       <c r="F79" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="H79" t="s">
-        <v>550</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="H79" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I79" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B80" t="s">
-        <v>582</v>
-      </c>
-      <c r="C80" t="s">
-        <v>575</v>
-      </c>
-      <c r="D80" t="s">
+        <v>436</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="D80" t="s" s="0">
         <v>47</v>
       </c>
       <c r="E80" s="4" t="s">
@@ -4680,30 +4684,30 @@
       <c r="F80" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="H80" t="s">
-        <v>550</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="H80" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I80" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="L80">
+        <v>637</v>
+      </c>
+      <c r="L80" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B81" t="s">
+        <v>437</v>
+      </c>
+      <c r="B81" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" t="s" s="0">
         <v>48</v>
       </c>
       <c r="E81" s="4" t="s">
@@ -4712,30 +4716,30 @@
       <c r="F81" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="H81" t="s">
-        <v>550</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="H81" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I81" t="s" s="0">
         <v>230</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B82" t="s">
+        <v>438</v>
+      </c>
+      <c r="B82" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" t="s" s="0">
         <v>49</v>
       </c>
       <c r="E82" s="4" t="s">
@@ -4744,30 +4748,30 @@
       <c r="F82" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="H82" t="s">
-        <v>550</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="H82" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I82" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="B83" t="s">
-        <v>587</v>
-      </c>
-      <c r="C83" t="s">
-        <v>591</v>
-      </c>
-      <c r="D83" t="s">
+        <v>439</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="D83" t="s" s="0">
         <v>50</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -4776,30 +4780,30 @@
       <c r="F83" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H83" t="s">
-        <v>550</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="H83" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I83" t="s" s="0">
         <v>238</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="L83">
+        <v>638</v>
+      </c>
+      <c r="L83" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B84" t="s">
-        <v>582</v>
-      </c>
-      <c r="C84" t="s">
+        <v>440</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="C84" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" t="s" s="0">
         <v>51</v>
       </c>
       <c r="E84" s="4" t="s">
@@ -4808,16 +4812,16 @@
       <c r="F84" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="H84" t="s">
-        <v>550</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="H84" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I84" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="0">
         <v>0</v>
       </c>
     </row>
@@ -4829,16 +4833,16 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="B86" t="s">
+        <v>441</v>
+      </c>
+      <c r="B86" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="D86" t="s">
-        <v>578</v>
+      <c r="D86" t="s" s="0">
+        <v>577</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>276</v>
@@ -4846,30 +4850,30 @@
       <c r="F86" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="H86" t="s">
-        <v>550</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="H86" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I86" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B87" t="s">
+        <v>442</v>
+      </c>
+      <c r="B87" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" t="s" s="0">
         <v>52</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -4878,30 +4882,30 @@
       <c r="F87" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="H87" t="s">
-        <v>550</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="H87" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I87" t="s" s="0">
         <v>231</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="B88" t="s">
-        <v>582</v>
-      </c>
-      <c r="C88" t="s">
+        <v>443</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="C88" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" t="s" s="0">
         <v>53</v>
       </c>
       <c r="E88" s="4" t="s">
@@ -4910,30 +4914,30 @@
       <c r="F88" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="H88" t="s">
-        <v>550</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="H88" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I88" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B89" t="s">
+        <v>444</v>
+      </c>
+      <c r="B89" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" t="s" s="0">
         <v>54</v>
       </c>
       <c r="E89" s="4" t="s">
@@ -4942,30 +4946,30 @@
       <c r="F89" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="H89" t="s">
-        <v>550</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="H89" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I89" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B90" t="s">
+        <v>445</v>
+      </c>
+      <c r="B90" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="C90" t="s">
-        <v>582</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C90" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="D90" t="s" s="0">
         <v>41</v>
       </c>
       <c r="E90" s="4" t="s">
@@ -4974,30 +4978,30 @@
       <c r="F90" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="H90" t="s">
-        <v>550</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="H90" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I90" t="s" s="0">
         <v>234</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="B91" t="s">
-        <v>589</v>
-      </c>
-      <c r="C91" t="s">
+        <v>446</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="C91" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" t="s" s="0">
         <v>55</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -5006,30 +5010,30 @@
       <c r="F91" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H91" t="s">
-        <v>550</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="H91" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I91" t="s" s="0">
         <v>241</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="B92" t="s">
+        <v>447</v>
+      </c>
+      <c r="B92" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" t="s" s="0">
         <v>56</v>
       </c>
       <c r="E92" s="4" t="s">
@@ -5038,30 +5042,30 @@
       <c r="F92" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="H92" t="s">
-        <v>550</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="H92" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I92" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="B93" t="s">
+        <v>448</v>
+      </c>
+      <c r="B93" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" t="s" s="0">
         <v>57</v>
       </c>
       <c r="E93" s="4" t="s">
@@ -5070,30 +5074,30 @@
       <c r="F93" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="H93" t="s">
-        <v>550</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="H93" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I93" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="B94" t="s">
-        <v>570</v>
-      </c>
-      <c r="C94" t="s">
+        <v>449</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="C94" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" t="s" s="0">
         <v>58</v>
       </c>
       <c r="E94" s="4" t="s">
@@ -5102,30 +5106,30 @@
       <c r="F94" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="H94" t="s">
-        <v>550</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="H94" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I94" t="s" s="0">
         <v>235</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="B95" t="s">
-        <v>570</v>
-      </c>
-      <c r="C95" t="s">
+        <v>450</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="C95" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" t="s" s="0">
         <v>59</v>
       </c>
       <c r="E95" s="4" t="s">
@@ -5134,16 +5138,16 @@
       <c r="F95" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="H95" t="s">
-        <v>550</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="H95" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I95" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="0">
         <v>0</v>
       </c>
     </row>
@@ -5184,15 +5188,15 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="B102" t="s">
+        <v>452</v>
+      </c>
+      <c r="B102" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" t="s" s="0">
         <v>45</v>
       </c>
       <c r="E102" s="4" t="s">
@@ -5201,31 +5205,31 @@
       <c r="F102" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="H102" t="s">
-        <v>550</v>
-      </c>
-      <c r="I102" t="s">
+      <c r="H102" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I102" t="s" s="0">
         <v>235</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="L102">
+        <v>639</v>
+      </c>
+      <c r="L102" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B103" t="s">
-        <v>589</v>
-      </c>
-      <c r="C103" t="s">
+        <v>453</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="C103" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="D103" t="s">
-        <v>592</v>
+      <c r="D103" t="s" s="0">
+        <v>591</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>282</v>
@@ -5233,31 +5237,31 @@
       <c r="F103" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="H103" t="s">
-        <v>550</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="H103" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I103" t="s" s="0">
         <v>236</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="L103">
+        <v>640</v>
+      </c>
+      <c r="L103" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="B104" t="s">
+        <v>454</v>
+      </c>
+      <c r="B104" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="D104" t="s">
-        <v>585</v>
+      <c r="D104" t="s" s="0">
+        <v>584</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>283</v>
@@ -5265,30 +5269,30 @@
       <c r="F104" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H104" t="s">
-        <v>550</v>
-      </c>
-      <c r="I104" t="s">
+      <c r="H104" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I104" t="s" s="0">
         <v>242</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B105" t="s">
+        <v>455</v>
+      </c>
+      <c r="B105" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" t="s" s="0">
         <v>46</v>
       </c>
       <c r="E105" s="4" t="s">
@@ -5297,30 +5301,30 @@
       <c r="F105" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H105" t="s">
-        <v>550</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="H105" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I105" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="L105">
+      <c r="L105" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="B106" t="s">
+        <v>456</v>
+      </c>
+      <c r="B106" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E106" s="4" t="s">
@@ -5329,16 +5333,16 @@
       <c r="F106" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H106" t="s">
-        <v>550</v>
-      </c>
-      <c r="I106" t="s">
+      <c r="H106" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I106" t="s" s="0">
         <v>243</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="L106">
+        <v>641</v>
+      </c>
+      <c r="L106" s="0">
         <v>0</v>
       </c>
     </row>
@@ -5444,15 +5448,15 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B127" t="s">
+        <v>457</v>
+      </c>
+      <c r="B127" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" t="s" s="0">
         <v>60</v>
       </c>
       <c r="E127" s="4" t="s">
@@ -5461,33 +5465,33 @@
       <c r="F127" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="H127" t="s">
-        <v>550</v>
-      </c>
-      <c r="I127" t="s">
+      <c r="H127" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I127" t="s" s="0">
         <v>224</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="K127" t="s">
-        <v>647</v>
-      </c>
-      <c r="L127">
+      <c r="K127" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="L127" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="B128" t="s">
-        <v>584</v>
-      </c>
-      <c r="C128" t="s">
+        <v>458</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="C128" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" t="s" s="0">
         <v>61</v>
       </c>
       <c r="E128" s="4" t="s">
@@ -5496,33 +5500,33 @@
       <c r="F128" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="H128" t="s">
-        <v>550</v>
-      </c>
-      <c r="I128" t="s">
+      <c r="H128" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I128" t="s" s="0">
         <v>231</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="K128" t="s">
-        <v>648</v>
-      </c>
-      <c r="L128">
+        <v>642</v>
+      </c>
+      <c r="K128" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="L128" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B129" t="s">
+        <v>465</v>
+      </c>
+      <c r="B129" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" t="s" s="0">
         <v>62</v>
       </c>
       <c r="E129" s="4" t="s">
@@ -5531,33 +5535,33 @@
       <c r="F129" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="H129" t="s">
-        <v>550</v>
-      </c>
-      <c r="I129" t="s">
+      <c r="H129" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I129" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="K129" t="s">
-        <v>649</v>
-      </c>
-      <c r="L129">
+      <c r="K129" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="L129" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="B130" t="s">
+        <v>459</v>
+      </c>
+      <c r="B130" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" t="s" s="0">
         <v>53</v>
       </c>
       <c r="E130" s="4" t="s">
@@ -5566,33 +5570,33 @@
       <c r="F130" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="H130" t="s">
-        <v>550</v>
-      </c>
-      <c r="I130" t="s">
+      <c r="H130" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I130" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J130" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="K130" t="s">
-        <v>650</v>
-      </c>
-      <c r="L130">
+      <c r="K130" t="s" s="0">
+        <v>648</v>
+      </c>
+      <c r="L130" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="B131" t="s">
+        <v>460</v>
+      </c>
+      <c r="B131" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" t="s" s="0">
         <v>54</v>
       </c>
       <c r="E131" s="4" t="s">
@@ -5601,33 +5605,33 @@
       <c r="F131" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="H131" t="s">
-        <v>550</v>
-      </c>
-      <c r="I131" t="s">
+      <c r="H131" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I131" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K131" t="s">
-        <v>651</v>
-      </c>
-      <c r="L131">
+      <c r="K131" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="L131" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B132" t="s">
+        <v>461</v>
+      </c>
+      <c r="B132" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" t="s" s="0">
         <v>41</v>
       </c>
       <c r="E132" s="4" t="s">
@@ -5636,33 +5640,33 @@
       <c r="F132" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="H132" t="s">
-        <v>550</v>
-      </c>
-      <c r="I132" t="s">
+      <c r="H132" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I132" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="K132" t="s">
-        <v>652</v>
-      </c>
-      <c r="L132">
+      <c r="K132" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="L132" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B133" t="s">
+        <v>466</v>
+      </c>
+      <c r="B133" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" t="s" s="0">
         <v>55</v>
       </c>
       <c r="E133" s="4" t="s">
@@ -5671,33 +5675,33 @@
       <c r="F133" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="H133" t="s">
-        <v>550</v>
-      </c>
-      <c r="I133" t="s">
+      <c r="H133" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I133" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K133" t="s">
-        <v>653</v>
-      </c>
-      <c r="L133">
+      <c r="K133" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="L133" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B134" t="s">
+        <v>462</v>
+      </c>
+      <c r="B134" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" t="s" s="0">
         <v>56</v>
       </c>
       <c r="E134" s="4" t="s">
@@ -5706,33 +5710,33 @@
       <c r="F134" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="H134" t="s">
-        <v>550</v>
-      </c>
-      <c r="I134" t="s">
+      <c r="H134" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I134" t="s" s="0">
         <v>225</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K134" t="s">
-        <v>654</v>
-      </c>
-      <c r="L134">
+      <c r="K134" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="L134" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="B135" t="s">
-        <v>582</v>
-      </c>
-      <c r="C135" t="s">
+        <v>463</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="C135" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" t="s" s="0">
         <v>57</v>
       </c>
       <c r="E135" s="4" t="s">
@@ -5741,33 +5745,33 @@
       <c r="F135" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="H135" t="s">
-        <v>550</v>
-      </c>
-      <c r="I135" t="s">
+      <c r="H135" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I135" t="s" s="0">
         <v>244</v>
       </c>
       <c r="J135" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K135" t="s">
-        <v>655</v>
-      </c>
-      <c r="L135">
+      <c r="K135" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="L135" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="B136" t="s">
+        <v>464</v>
+      </c>
+      <c r="B136" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" t="s" s="0">
         <v>58</v>
       </c>
       <c r="E136" s="4" t="s">
@@ -5776,19 +5780,19 @@
       <c r="F136" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="H136" t="s">
-        <v>550</v>
-      </c>
-      <c r="I136" t="s">
+      <c r="H136" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="I136" t="s" s="0">
         <v>235</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="K136" t="s">
-        <v>656</v>
-      </c>
-      <c r="L136">
+      <c r="K136" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="L136" s="0">
         <v>0</v>
       </c>
     </row>
@@ -5878,80 +5882,80 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.28515625"/>
+    <col min="3" max="4" style="1" width="11.42578125"/>
+    <col min="11" max="11" customWidth="true" width="20.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>551</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s" s="0">
         <v>554</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="J1" t="s" s="0">
         <v>555</v>
       </c>
-      <c r="F1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G1" t="s">
-        <v>547</v>
-      </c>
-      <c r="H1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I1" t="s">
-        <v>549</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s" s="0">
         <v>556</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s" s="0">
         <v>557</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s" s="0">
         <v>558</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s" s="0">
         <v>559</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s" s="0">
         <v>560</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="I2" s="0">
+        <v>900</v>
+      </c>
+      <c r="J2" t="s" s="0">
         <v>561</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>562</v>
       </c>
       <c r="K2" s="7">
         <v>45292</v>
@@ -5960,30 +5964,30 @@
         <v>44955</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>367</v>
       </c>
-      <c r="B3" t="s">
-        <v>482</v>
+      <c r="B3" t="s" s="0">
+        <v>481</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>341</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="H3">
+        <v>513</v>
+      </c>
+      <c r="H3" s="0">
         <v>1800</v>
       </c>
-      <c r="J3" t="s">
-        <v>562</v>
+      <c r="J3" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K3" s="7">
         <v>43852</v>
@@ -5992,30 +5996,30 @@
         <v>44927</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>366</v>
       </c>
-      <c r="B4" t="s">
-        <v>482</v>
+      <c r="B4" t="s" s="0">
+        <v>481</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="F4">
+        <v>510</v>
+      </c>
+      <c r="F4" s="0">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
-        <v>562</v>
+      <c r="J4" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K4" s="7">
         <v>43848</v>
@@ -6024,30 +6028,30 @@
         <v>44927</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>366</v>
       </c>
-      <c r="B5" t="s">
-        <v>482</v>
+      <c r="B5" t="s" s="0">
+        <v>481</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="F5">
+        <v>509</v>
+      </c>
+      <c r="F5" s="0">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
-        <v>562</v>
+      <c r="J5" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K5" s="7">
         <v>43831</v>
@@ -6056,11 +6060,11 @@
         <v>44927</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>369</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -6070,17 +6074,17 @@
         <v>361</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>900</v>
       </c>
-      <c r="J6" t="s">
-        <v>562</v>
+      <c r="J6" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K6" s="7">
         <v>43859</v>
@@ -6089,11 +6093,11 @@
         <v>44955</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>363</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -6103,16 +6107,16 @@
         <v>332</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F7" s="8">
         <v>11.64</v>
       </c>
-      <c r="J7" t="s">
-        <v>562</v>
+      <c r="J7" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K7" s="7">
         <v>43831</v>
@@ -6135,7 +6139,7 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>363</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -6145,16 +6149,16 @@
         <v>333</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F9" s="8">
         <v>13.29</v>
       </c>
-      <c r="J9" t="s">
-        <v>562</v>
+      <c r="J9" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K9" s="7">
         <v>43832</v>
@@ -6167,26 +6171,26 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>331</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>349</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="F10">
+        <v>499</v>
+      </c>
+      <c r="F10" s="0">
         <v>18</v>
       </c>
-      <c r="J10" t="s">
-        <v>562</v>
+      <c r="J10" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K10" s="7">
         <v>43833</v>
@@ -6199,26 +6203,26 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>350</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>351</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="F11">
+        <v>500</v>
+      </c>
+      <c r="F11" s="0">
         <v>21</v>
       </c>
-      <c r="J11" t="s">
-        <v>562</v>
+      <c r="J11" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K11" s="7">
         <v>43834</v>
@@ -6231,26 +6235,26 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>352</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>353</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="F12">
+        <v>501</v>
+      </c>
+      <c r="F12" s="0">
         <v>25</v>
       </c>
-      <c r="J12" t="s">
-        <v>562</v>
+      <c r="J12" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K12" s="7">
         <v>43835</v>
@@ -6270,26 +6274,26 @@
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>343</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="G14">
+        <v>502</v>
+      </c>
+      <c r="G14" s="0">
         <v>15</v>
       </c>
-      <c r="J14" t="s">
-        <v>562</v>
+      <c r="J14" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K14" s="7">
         <v>43838</v>
@@ -6302,26 +6306,26 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>344</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>347</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="G15">
+        <v>503</v>
+      </c>
+      <c r="G15" s="0">
         <v>35</v>
       </c>
-      <c r="J15" t="s">
-        <v>562</v>
+      <c r="J15" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K15" s="7">
         <v>43839</v>
@@ -6334,26 +6338,26 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>345</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="G16">
+        <v>504</v>
+      </c>
+      <c r="G16" s="0">
         <v>65</v>
       </c>
-      <c r="J16" t="s">
-        <v>562</v>
+      <c r="J16" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K16" s="7">
         <v>43840</v>
@@ -6373,26 +6377,26 @@
       <c r="O17" s="8"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>365</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>345</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="H18">
+        <v>505</v>
+      </c>
+      <c r="H18" s="0">
         <v>950</v>
       </c>
-      <c r="J18" t="s">
-        <v>562</v>
+      <c r="J18" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K18" s="7">
         <v>43842</v>
@@ -6401,30 +6405,30 @@
         <v>44938</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>365</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>343</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>355</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="H19">
+        <v>506</v>
+      </c>
+      <c r="H19" s="0">
         <v>2500</v>
       </c>
-      <c r="J19" t="s">
-        <v>562</v>
+      <c r="J19" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K19" s="7">
         <v>43843</v>
@@ -6433,30 +6437,30 @@
         <v>44939</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>365</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>344</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>356</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="H20">
+        <v>507</v>
+      </c>
+      <c r="H20" s="0">
         <v>6500</v>
       </c>
-      <c r="J20" t="s">
-        <v>562</v>
+      <c r="J20" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K20" s="7">
         <v>43844</v>
@@ -6465,30 +6469,30 @@
         <v>44940</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>365</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>345</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>357</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="H21">
+        <v>508</v>
+      </c>
+      <c r="H21" s="0">
         <v>12500</v>
       </c>
-      <c r="J21" t="s">
-        <v>562</v>
+      <c r="J21" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K21" s="7">
         <v>43845</v>
@@ -6497,7 +6501,7 @@
         <v>44941</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -6507,26 +6511,26 @@
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>366</v>
       </c>
-      <c r="B23" t="s">
-        <v>482</v>
+      <c r="B23" t="s" s="0">
+        <v>481</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="F23">
+        <v>511</v>
+      </c>
+      <c r="F23" s="0">
         <v>31</v>
       </c>
-      <c r="J23" t="s">
-        <v>562</v>
+      <c r="J23" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K23" s="7">
         <v>43849</v>
@@ -6535,7 +6539,7 @@
         <v>44945</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -6546,26 +6550,26 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>367</v>
       </c>
-      <c r="B25" t="s">
-        <v>482</v>
+      <c r="B25" t="s" s="0">
+        <v>481</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>340</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="H25">
+        <v>512</v>
+      </c>
+      <c r="H25" s="0">
         <v>850</v>
       </c>
-      <c r="J25" t="s">
-        <v>562</v>
+      <c r="J25" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K25" s="7">
         <v>43851</v>
@@ -6574,30 +6578,30 @@
         <v>44947</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>367</v>
       </c>
-      <c r="B26" t="s">
-        <v>482</v>
+      <c r="B26" t="s" s="0">
+        <v>481</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>342</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="H26">
+        <v>514</v>
+      </c>
+      <c r="H26" s="0">
         <v>3250</v>
       </c>
-      <c r="J26" t="s">
-        <v>562</v>
+      <c r="J26" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K26" s="7">
         <v>43853</v>
@@ -6606,7 +6610,7 @@
         <v>44949</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -6617,26 +6621,26 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>368</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>339</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="I28">
+        <v>515</v>
+      </c>
+      <c r="I28" s="0">
         <v>49</v>
       </c>
-      <c r="J28" t="s">
-        <v>562</v>
+      <c r="J28" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K28" s="7">
         <v>43855</v>
@@ -6645,7 +6649,7 @@
         <v>44951</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -6656,7 +6660,7 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>369</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -6666,16 +6670,16 @@
         <v>359</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="I30">
+        <v>516</v>
+      </c>
+      <c r="I30" s="0">
         <v>125</v>
       </c>
-      <c r="J30" t="s">
-        <v>562</v>
+      <c r="J30" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K30" s="7">
         <v>43856</v>
@@ -6684,11 +6688,11 @@
         <v>44952</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>369</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -6698,16 +6702,16 @@
         <v>362</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="I31">
+        <v>517</v>
+      </c>
+      <c r="I31" s="0">
         <v>300</v>
       </c>
-      <c r="J31" t="s">
-        <v>562</v>
+      <c r="J31" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K31" s="7">
         <v>43857</v>
@@ -6716,11 +6720,11 @@
         <v>44953</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>369</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -6730,16 +6734,16 @@
         <v>337</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="I32">
+        <v>518</v>
+      </c>
+      <c r="I32" s="0">
         <v>600</v>
       </c>
-      <c r="J32" t="s">
-        <v>562</v>
+      <c r="J32" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K32" s="7">
         <v>43858</v>
@@ -6748,11 +6752,11 @@
         <v>44954</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>369</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -6762,16 +6766,16 @@
         <v>360</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="I33">
+        <v>520</v>
+      </c>
+      <c r="I33" s="0">
         <v>1500</v>
       </c>
-      <c r="J33" t="s">
-        <v>562</v>
+      <c r="J33" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K33" s="7">
         <v>43860</v>
@@ -6780,7 +6784,7 @@
         <v>44956</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -6804,26 +6808,26 @@
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>363</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>331</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F39" s="8">
         <v>9.0500000000000007</v>
       </c>
-      <c r="J39" t="s">
-        <v>562</v>
+      <c r="J39" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K39" s="7">
         <v>43831</v>
@@ -6836,26 +6840,26 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>363</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F40" s="8">
         <v>13.58</v>
       </c>
-      <c r="J40" t="s">
-        <v>562</v>
+      <c r="J40" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K40" s="7">
         <v>43832</v>
@@ -6868,7 +6872,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>363</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -6878,16 +6882,16 @@
         <v>407</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="F41">
+        <v>523</v>
+      </c>
+      <c r="F41" s="0">
         <v>18.21</v>
       </c>
-      <c r="J41" t="s">
-        <v>562</v>
+      <c r="J41" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K41" s="7">
         <v>43833</v>
@@ -6900,7 +6904,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>363</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -6910,16 +6914,16 @@
         <v>332</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="F42">
+        <v>524</v>
+      </c>
+      <c r="F42" s="0">
         <v>21.05</v>
       </c>
-      <c r="J42" t="s">
-        <v>562</v>
+      <c r="J42" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K42" s="7">
         <v>43834</v>
@@ -6932,7 +6936,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>363</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -6942,16 +6946,16 @@
         <v>507</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="F43">
+        <v>525</v>
+      </c>
+      <c r="F43" s="0">
         <v>26.03</v>
       </c>
-      <c r="J43" t="s">
-        <v>562</v>
+      <c r="J43" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K43" s="7">
         <v>43835</v>
@@ -6980,26 +6984,26 @@
       <c r="O45" s="8"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>364</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>350</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="G46">
+        <v>526</v>
+      </c>
+      <c r="G46" s="0">
         <v>15</v>
       </c>
-      <c r="J46" t="s">
-        <v>562</v>
+      <c r="J46" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K46" s="7">
         <v>43838</v>
@@ -7012,26 +7016,26 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>364</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>344</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="G47">
+        <v>527</v>
+      </c>
+      <c r="G47" s="0">
         <v>35</v>
       </c>
-      <c r="J47" t="s">
-        <v>562</v>
+      <c r="J47" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K47" s="7">
         <v>43839</v>
@@ -7044,26 +7048,26 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>364</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="G48">
+        <v>528</v>
+      </c>
+      <c r="G48" s="0">
         <v>65</v>
       </c>
-      <c r="J48" t="s">
-        <v>562</v>
+      <c r="J48" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K48" s="7">
         <v>43840</v>
@@ -7084,26 +7088,26 @@
       <c r="O49" s="8"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>365</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>350</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="H50">
+        <v>529</v>
+      </c>
+      <c r="H50" s="0">
         <v>950</v>
       </c>
-      <c r="J50" t="s">
-        <v>562</v>
+      <c r="J50" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K50" s="7">
         <v>43842</v>
@@ -7112,30 +7116,30 @@
         <v>44938</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>365</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="H51">
+        <v>530</v>
+      </c>
+      <c r="H51" s="0">
         <v>2500</v>
       </c>
-      <c r="J51" t="s">
-        <v>562</v>
+      <c r="J51" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K51" s="7">
         <v>43843</v>
@@ -7144,30 +7148,30 @@
         <v>44939</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>365</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>350</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="H52">
+        <v>531</v>
+      </c>
+      <c r="H52" s="0">
         <v>6500</v>
       </c>
-      <c r="J52" t="s">
-        <v>562</v>
+      <c r="J52" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K52" s="7">
         <v>43844</v>
@@ -7176,30 +7180,30 @@
         <v>44940</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>365</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>350</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="H53">
+        <v>532</v>
+      </c>
+      <c r="H53" s="0">
         <v>12500</v>
       </c>
-      <c r="J53" t="s">
-        <v>562</v>
+      <c r="J53" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K53" s="7">
         <v>43845</v>
@@ -7208,7 +7212,7 @@
         <v>44941</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -7219,26 +7223,26 @@
       <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>366</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="F55">
+        <v>533</v>
+      </c>
+      <c r="F55" s="0">
         <v>14</v>
       </c>
-      <c r="J55" t="s">
-        <v>562</v>
+      <c r="J55" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K55" s="7">
         <v>43847</v>
@@ -7247,30 +7251,30 @@
         <v>44943</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>366</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="F56">
+        <v>534</v>
+      </c>
+      <c r="F56" s="0">
         <v>20</v>
       </c>
-      <c r="J56" t="s">
-        <v>562</v>
+      <c r="J56" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K56" s="7">
         <v>43848</v>
@@ -7279,30 +7283,30 @@
         <v>44944</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>366</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="F57">
+        <v>535</v>
+      </c>
+      <c r="F57" s="0">
         <v>31</v>
       </c>
-      <c r="J57" t="s">
-        <v>562</v>
+      <c r="J57" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K57" s="7">
         <v>43849</v>
@@ -7311,7 +7315,7 @@
         <v>44945</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -7323,26 +7327,26 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>367</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>344</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="H59">
+        <v>536</v>
+      </c>
+      <c r="H59" s="0">
         <v>850</v>
       </c>
-      <c r="J59" t="s">
-        <v>562</v>
+      <c r="J59" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K59" s="7">
         <v>43851</v>
@@ -7351,30 +7355,30 @@
         <v>44947</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>367</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>334</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="H60">
+        <v>537</v>
+      </c>
+      <c r="H60" s="0">
         <v>1800</v>
       </c>
-      <c r="J60" t="s">
-        <v>562</v>
+      <c r="J60" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K60" s="7">
         <v>43852</v>
@@ -7383,30 +7387,30 @@
         <v>44948</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>367</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>331</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="H61">
+        <v>538</v>
+      </c>
+      <c r="H61" s="0">
         <v>3250</v>
       </c>
-      <c r="J61" t="s">
-        <v>562</v>
+      <c r="J61" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K61" s="7">
         <v>43853</v>
@@ -7415,7 +7419,7 @@
         <v>44949</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -7427,26 +7431,26 @@
       <c r="O62" s="2"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>368</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>339</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="I63">
+        <v>539</v>
+      </c>
+      <c r="I63" s="0">
         <v>49</v>
       </c>
-      <c r="J63" t="s">
-        <v>562</v>
+      <c r="J63" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K63" s="7">
         <v>43855</v>
@@ -7455,7 +7459,7 @@
         <v>44951</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -7467,26 +7471,26 @@
       <c r="O64" s="2"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>369</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>336</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="I65">
+        <v>540</v>
+      </c>
+      <c r="I65" s="0">
         <v>125</v>
       </c>
-      <c r="J65" t="s">
-        <v>562</v>
+      <c r="J65" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K65" s="7">
         <v>43856</v>
@@ -7495,30 +7499,30 @@
         <v>44952</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>369</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="I66">
+        <v>541</v>
+      </c>
+      <c r="I66" s="0">
         <v>300</v>
       </c>
-      <c r="J66" t="s">
-        <v>562</v>
+      <c r="J66" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K66" s="7">
         <v>43857</v>
@@ -7527,30 +7531,30 @@
         <v>44953</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>369</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="I67">
+        <v>542</v>
+      </c>
+      <c r="I67" s="0">
         <v>600</v>
       </c>
-      <c r="J67" t="s">
-        <v>562</v>
+      <c r="J67" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K67" s="7">
         <v>43858</v>
@@ -7559,30 +7563,30 @@
         <v>44954</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>369</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>358</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="I68">
+        <v>544</v>
+      </c>
+      <c r="I68" s="0">
         <v>1500</v>
       </c>
-      <c r="J68" t="s">
-        <v>562</v>
+      <c r="J68" t="s" s="0">
+        <v>561</v>
       </c>
       <c r="K68" s="7">
         <v>43860</v>
@@ -7591,7 +7595,7 @@
         <v>44956</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">

--- a/AppVehiculos/resources/SistemasVehiculos.xlsx
+++ b/AppVehiculos/resources/SistemasVehiculos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChispyDev\Repositorios\Si2_2025\AppVehiculos\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\NetBeansProjects\vehiculos2025\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B30D775-1D2E-48A2-BD30-0EE8CC25C3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2801B8A4-53CB-4ABA-AB85-DA87C9E04F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-2292" windowWidth="30936" windowHeight="16776" xr2:uid="{FF8BD292-BC82-4648-93FB-5EF5760864FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF8BD292-BC82-4648-93FB-5EF5760864FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contribuyente" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="848">
   <si>
     <t>Nombre</t>
   </si>
@@ -520,6 +520,1590 @@
     <t>23185484465641685100</t>
   </si>
   <si>
+    <t>23164897642213030615</t>
+  </si>
+  <si>
+    <t>96536214865214585214</t>
+  </si>
+  <si>
+    <t>85461325251978750005</t>
+  </si>
+  <si>
+    <t>24587946032003165464</t>
+  </si>
+  <si>
+    <t>20960043073071400000</t>
+  </si>
+  <si>
+    <t>20960043042158800000</t>
+  </si>
+  <si>
+    <t>21654587985156484454</t>
+  </si>
+  <si>
+    <t>51651681961210656510</t>
+  </si>
+  <si>
+    <t>66552211148855332200</t>
+  </si>
+  <si>
+    <t>01821135910205540000</t>
+  </si>
+  <si>
+    <t>22631245526916432102</t>
+  </si>
+  <si>
+    <t>20960043033000100000</t>
+  </si>
+  <si>
+    <t>36585214290025478551</t>
+  </si>
+  <si>
+    <t>12548523465214585214</t>
+  </si>
+  <si>
+    <t>31624561042546920007</t>
+  </si>
+  <si>
+    <t>36154231712500312566</t>
+  </si>
+  <si>
+    <t>44875664127231645789</t>
+  </si>
+  <si>
+    <t>20960031442124800000</t>
+  </si>
+  <si>
+    <t>33620012937852100256</t>
+  </si>
+  <si>
+    <t>33218885441445121022</t>
+  </si>
+  <si>
+    <t>62581542713690044508</t>
+  </si>
+  <si>
+    <t>25165151118666365100</t>
+  </si>
+  <si>
+    <t>36952365020014425254</t>
+  </si>
+  <si>
+    <t>65168874641561561500</t>
+  </si>
+  <si>
+    <t>20960583831234500000</t>
+  </si>
+  <si>
+    <t>21416325811510005514</t>
+  </si>
+  <si>
+    <t>32628484504115151115</t>
+  </si>
+  <si>
+    <t>95485212315484010000</t>
+  </si>
+  <si>
+    <t>21856333126985542360</t>
+  </si>
+  <si>
+    <t>36245978133245679001</t>
+  </si>
+  <si>
+    <t>31245164156597845124</t>
+  </si>
+  <si>
+    <t>23221158252545471411</t>
+  </si>
+  <si>
+    <t>32574512085411002255</t>
+  </si>
+  <si>
+    <t>20960043013468900000</t>
+  </si>
+  <si>
+    <t>31215643855060225021</t>
+  </si>
+  <si>
+    <t>85550564726165145610</t>
+  </si>
+  <si>
+    <t>65165654918886005001</t>
+  </si>
+  <si>
+    <t>55065688761051056105</t>
+  </si>
+  <si>
+    <t>26221011628048788896</t>
+  </si>
+  <si>
+    <t>12548521518742146695</t>
+  </si>
+  <si>
+    <t>01826530120201560000</t>
+  </si>
+  <si>
+    <t>51651487910005118185</t>
+  </si>
+  <si>
+    <t>36250012804785523365</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>MOLINO (EL)</t>
+  </si>
+  <si>
+    <t>PRADERA (LA)</t>
+  </si>
+  <si>
+    <t>MADRID</t>
+  </si>
+  <si>
+    <t>CAMINO DE SANTIAGO</t>
+  </si>
+  <si>
+    <t>PEÑA UBIÑA</t>
+  </si>
+  <si>
+    <t>IGLESIA (LA)</t>
+  </si>
+  <si>
+    <t>ABAJO</t>
+  </si>
+  <si>
+    <t>MONTE (EL)</t>
+  </si>
+  <si>
+    <t>VALDEFRESNO</t>
+  </si>
+  <si>
+    <t>LEON-SANTANDER</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>MILGAS (LAS)</t>
+  </si>
+  <si>
+    <t>PENILLA</t>
+  </si>
+  <si>
+    <t>VALLEO (EL)</t>
+  </si>
+  <si>
+    <t>PINOS (LOS)</t>
+  </si>
+  <si>
+    <t>NAVAS (LAS)</t>
+  </si>
+  <si>
+    <t>RESIDENCIAL LAS FUENTES</t>
+  </si>
+  <si>
+    <t>TELENO</t>
+  </si>
+  <si>
+    <t>RIO PORMA</t>
+  </si>
+  <si>
+    <t>RIO ESLA</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>VALLE (EL)</t>
+  </si>
+  <si>
+    <t>CONFORCOS</t>
+  </si>
+  <si>
+    <t>LA ERA</t>
+  </si>
+  <si>
+    <t>CALLEJA (LA)</t>
+  </si>
+  <si>
+    <t>SIN SALIDA</t>
+  </si>
+  <si>
+    <t>SENDA (LA)</t>
+  </si>
+  <si>
+    <t>VIÑA (LA)</t>
+  </si>
+  <si>
+    <t>PEÑA SANTA</t>
+  </si>
+  <si>
+    <t>PLAZUELA (LA)</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS I</t>
+  </si>
+  <si>
+    <t>POZO (EL)</t>
+  </si>
+  <si>
+    <t>RIO TORIO</t>
+  </si>
+  <si>
+    <t>HUERTOS (LOS)</t>
+  </si>
+  <si>
+    <t>FUENTE (LA)</t>
+  </si>
+  <si>
+    <t>DOCTOR RODRIGUEZ GUISASOL</t>
+  </si>
+  <si>
+    <t>NUESTRA SEÑORA DEL CAMINO</t>
+  </si>
+  <si>
+    <t>ROSALES (LOS)</t>
+  </si>
+  <si>
+    <t>MANZANALES (LOS)</t>
+  </si>
+  <si>
+    <t>REGUERO (EL)</t>
+  </si>
+  <si>
+    <t>ERAS (LAS)</t>
+  </si>
+  <si>
+    <t>COTANO</t>
+  </si>
+  <si>
+    <t>ACEBOS (LOS)</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>0188</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0099</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0254</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0196</t>
+  </si>
+  <si>
+    <t>0136</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0046</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0187</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0097</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0294</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Ayuntamiento</t>
+  </si>
+  <si>
+    <t>RENAULT</t>
+  </si>
+  <si>
+    <t>MEGANE</t>
+  </si>
+  <si>
+    <t>ESPACE 2.0</t>
+  </si>
+  <si>
+    <t>NISSAN</t>
+  </si>
+  <si>
+    <t>HONDA</t>
+  </si>
+  <si>
+    <t>PEUGEOT</t>
+  </si>
+  <si>
+    <t>CBR600F</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>VESPINO</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F90</t>
+  </si>
+  <si>
+    <t>F120</t>
+  </si>
+  <si>
+    <t>VOLVO</t>
+  </si>
+  <si>
+    <t>MERCEDES</t>
+  </si>
+  <si>
+    <t>SCANIA</t>
+  </si>
+  <si>
+    <t>F320</t>
+  </si>
+  <si>
+    <t>X425</t>
+  </si>
+  <si>
+    <t>R4787</t>
+  </si>
+  <si>
+    <t>CAPTUR</t>
+  </si>
+  <si>
+    <t>OPEL</t>
+  </si>
+  <si>
+    <t>ASTRA</t>
+  </si>
+  <si>
+    <t>KIA</t>
+  </si>
+  <si>
+    <t>SORENTO</t>
+  </si>
+  <si>
+    <t>G567</t>
+  </si>
+  <si>
+    <t>X487</t>
+  </si>
+  <si>
+    <t>N364</t>
+  </si>
+  <si>
+    <t>L758</t>
+  </si>
+  <si>
+    <t>YAMAHA</t>
+  </si>
+  <si>
+    <t>MTN850-A</t>
+  </si>
+  <si>
+    <t>X1500</t>
+  </si>
+  <si>
+    <t>GR900</t>
+  </si>
+  <si>
+    <t>SCOOTER300</t>
+  </si>
+  <si>
+    <t>TURISMO</t>
+  </si>
+  <si>
+    <t>AUTOBUS</t>
+  </si>
+  <si>
+    <t>CAMION</t>
+  </si>
+  <si>
+    <t>TRACTOR</t>
+  </si>
+  <si>
+    <t>REMOLQUE</t>
+  </si>
+  <si>
+    <t>CICLOMOTOR</t>
+  </si>
+  <si>
+    <t>MOTOCICLETA</t>
+  </si>
+  <si>
+    <t>09677930J</t>
+  </si>
+  <si>
+    <t>09683488M</t>
+  </si>
+  <si>
+    <t>09685674Y</t>
+  </si>
+  <si>
+    <t>09685694A</t>
+  </si>
+  <si>
+    <t>09688492H</t>
+  </si>
+  <si>
+    <t>09693306W</t>
+  </si>
+  <si>
+    <t>09699481J</t>
+  </si>
+  <si>
+    <t>09701763H</t>
+  </si>
+  <si>
+    <t>09703447T</t>
+  </si>
+  <si>
+    <t>09706119G</t>
+  </si>
+  <si>
+    <t>09706476Q</t>
+  </si>
+  <si>
+    <t>09707275X</t>
+  </si>
+  <si>
+    <t>09710840X</t>
+  </si>
+  <si>
+    <t>09711691X</t>
+  </si>
+  <si>
+    <t>09713006Z</t>
+  </si>
+  <si>
+    <t>09713007S</t>
+  </si>
+  <si>
+    <t>09713528F</t>
+  </si>
+  <si>
+    <t>09715064W</t>
+  </si>
+  <si>
+    <t>09715167J</t>
+  </si>
+  <si>
+    <t>09715890T</t>
+  </si>
+  <si>
+    <t>09716184H</t>
+  </si>
+  <si>
+    <t>09717650N</t>
+  </si>
+  <si>
+    <t>09718644V</t>
+  </si>
+  <si>
+    <t>09720049L</t>
+  </si>
+  <si>
+    <t>09720969L</t>
+  </si>
+  <si>
+    <t>09722535K</t>
+  </si>
+  <si>
+    <t>09722591P</t>
+  </si>
+  <si>
+    <t>09722827Z</t>
+  </si>
+  <si>
+    <t>09723206W</t>
+  </si>
+  <si>
+    <t>09736219C</t>
+  </si>
+  <si>
+    <t>09737592J</t>
+  </si>
+  <si>
+    <t>09737631Y</t>
+  </si>
+  <si>
+    <t>09738099Z</t>
+  </si>
+  <si>
+    <t>09752292Q</t>
+  </si>
+  <si>
+    <t>09752293V</t>
+  </si>
+  <si>
+    <t>09753101C</t>
+  </si>
+  <si>
+    <t>09754339Q</t>
+  </si>
+  <si>
+    <t>09757444Q</t>
+  </si>
+  <si>
+    <t>09757564K</t>
+  </si>
+  <si>
+    <t>09762197P</t>
+  </si>
+  <si>
+    <t>09762293N</t>
+  </si>
+  <si>
+    <t>09778683A</t>
+  </si>
+  <si>
+    <t>09778772T</t>
+  </si>
+  <si>
+    <t>09779269Z</t>
+  </si>
+  <si>
+    <t>09780389F</t>
+  </si>
+  <si>
+    <t>09780996Q</t>
+  </si>
+  <si>
+    <t>09781067H</t>
+  </si>
+  <si>
+    <t>09781327W</t>
+  </si>
+  <si>
+    <t>09782302B</t>
+  </si>
+  <si>
+    <t>09782419J</t>
+  </si>
+  <si>
+    <t>09783952M</t>
+  </si>
+  <si>
+    <t>09786577P</t>
+  </si>
+  <si>
+    <t>09787319Z</t>
+  </si>
+  <si>
+    <t>09789574S</t>
+  </si>
+  <si>
+    <t>09789575Q</t>
+  </si>
+  <si>
+    <t>09790982C</t>
+  </si>
+  <si>
+    <t>09791120C</t>
+  </si>
+  <si>
+    <t>09791323Q</t>
+  </si>
+  <si>
+    <t>09802657B</t>
+  </si>
+  <si>
+    <t>09803456M</t>
+  </si>
+  <si>
+    <t>09804256T</t>
+  </si>
+  <si>
+    <t>09804568J</t>
+  </si>
+  <si>
+    <t>09806108N</t>
+  </si>
+  <si>
+    <t>09807895M</t>
+  </si>
+  <si>
+    <t>09807896Y</t>
+  </si>
+  <si>
+    <t>09808038X</t>
+  </si>
+  <si>
+    <t>09808051T</t>
+  </si>
+  <si>
+    <t>09808061X</t>
+  </si>
+  <si>
+    <t>09808127F</t>
+  </si>
+  <si>
+    <t>10160508M</t>
+  </si>
+  <si>
+    <t>10178996R</t>
+  </si>
+  <si>
+    <t>10193861P</t>
+  </si>
+  <si>
+    <t>10198570W</t>
+  </si>
+  <si>
+    <t>11398830F</t>
+  </si>
+  <si>
+    <t>CITROEN</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>RAZOL</t>
+  </si>
+  <si>
+    <t>CASE</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>XSARA PICASSO 40</t>
+  </si>
+  <si>
+    <t>CVH</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>307 5P XRCLIM</t>
+  </si>
+  <si>
+    <t>XANTIA 19 TD X</t>
+  </si>
+  <si>
+    <t>TIGUAN</t>
+  </si>
+  <si>
+    <t>ESCORT 5 PUERTAS</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>JOHN DEERE</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>N91</t>
+  </si>
+  <si>
+    <t>G86</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>BYD</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>H75</t>
+  </si>
+  <si>
+    <t>V455</t>
+  </si>
+  <si>
+    <t>KMJWVH7HP2U456263</t>
+  </si>
+  <si>
+    <t>W0L0AHM75A2100307</t>
+  </si>
+  <si>
+    <t>YV2J4DEC02B302081</t>
+  </si>
+  <si>
+    <t>W0L0TGF48Y6106268</t>
+  </si>
+  <si>
+    <t>WBAAM11090CA03927</t>
+  </si>
+  <si>
+    <t>VF1BA1U0524627776</t>
+  </si>
+  <si>
+    <t>VSSZZZ7MZ8V506376</t>
+  </si>
+  <si>
+    <t>JN1KESY61U0005997</t>
+  </si>
+  <si>
+    <t>WVWZZZ3BZ4E288011</t>
+  </si>
+  <si>
+    <t>VF32AKFWF44528938</t>
+  </si>
+  <si>
+    <t>WAUZZZ8E76A143187</t>
+  </si>
+  <si>
+    <t>WAUZZZ8E26A279615</t>
+  </si>
+  <si>
+    <t>W0L0TGF48X5100122</t>
+  </si>
+  <si>
+    <t>XTA21214031711893</t>
+  </si>
+  <si>
+    <t>VF1DA0B0527099849</t>
+  </si>
+  <si>
+    <t>WF0AXXWPDA1D05535</t>
+  </si>
+  <si>
+    <t>WAUZZZ8E64A046303</t>
+  </si>
+  <si>
+    <t>VSSZZZ1MZ4R067053</t>
+  </si>
+  <si>
+    <t>RFVBRUC5241002446</t>
+  </si>
+  <si>
+    <t>W0L0AHL4858136249</t>
+  </si>
+  <si>
+    <t>TMAD331UAEJ001412</t>
+  </si>
+  <si>
+    <t>VSSZZZ6JZER120663</t>
+  </si>
+  <si>
+    <t>WF0FXXWPDF3Y47888</t>
+  </si>
+  <si>
+    <t>W0L0TGF6915014070</t>
+  </si>
+  <si>
+    <t>WAUZZZ4F76N044649</t>
+  </si>
+  <si>
+    <t>VSSZZZ1PZ8R049713</t>
+  </si>
+  <si>
+    <t>VTHSC1C1A6H345070</t>
+  </si>
+  <si>
+    <t>VF1SB8M0537878580</t>
+  </si>
+  <si>
+    <t>WVWZZZ1JZ3W451498</t>
+  </si>
+  <si>
+    <t>VSSZZZ6KZ2R038977</t>
+  </si>
+  <si>
+    <t>UU15SDAG548391805</t>
+  </si>
+  <si>
+    <t>WVWZZZ1KZ7B024041</t>
+  </si>
+  <si>
+    <t>WF0UXXGAJU5M80705</t>
+  </si>
+  <si>
+    <t>VSSZZZ6LZ8R121527</t>
+  </si>
+  <si>
+    <t>VF7VDWT0005WT0209</t>
+  </si>
+  <si>
+    <t>WVWZZZ1JZ3B190985</t>
+  </si>
+  <si>
+    <t>VSKJ4EDA6UY585754</t>
+  </si>
+  <si>
+    <t>SAJAF52139BJ46823</t>
+  </si>
+  <si>
+    <t>VF1JMSE0638014920</t>
+  </si>
+  <si>
+    <t>VSSZZZ1MZ4R058682</t>
+  </si>
+  <si>
+    <t>YV1LS4502N2013205</t>
+  </si>
+  <si>
+    <t>YS3FF46WX51056758</t>
+  </si>
+  <si>
+    <t>VSSZZZ1MZ5R074196</t>
+  </si>
+  <si>
+    <t>VF33CRHYB83885473</t>
+  </si>
+  <si>
+    <t>VF1FW18M552505376</t>
+  </si>
+  <si>
+    <t>VTRCG3030F0947139</t>
+  </si>
+  <si>
+    <t>VF7MFWJYB65831272</t>
+  </si>
+  <si>
+    <t>VF7N0RHYB73531591</t>
+  </si>
+  <si>
+    <t>CABALLOS</t>
+  </si>
+  <si>
+    <t>PLAZAS</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>BENAVIDES</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>MARCA</t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
+    <t>MATRICULA</t>
+  </si>
+  <si>
+    <t>BASTIDOR</t>
+  </si>
+  <si>
+    <t>EXENCION</t>
+  </si>
+  <si>
+    <t>FECHAMATRICULACION</t>
+  </si>
+  <si>
+    <t>FECHAALTA</t>
+  </si>
+  <si>
+    <t>FECHABAJA</t>
+  </si>
+  <si>
+    <t>FECHABAJATEMPORAL</t>
+  </si>
+  <si>
+    <t>NIFPROPIETARIO</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>CLIO</t>
+  </si>
+  <si>
+    <t>1261ABC</t>
+  </si>
+  <si>
+    <t>1262ABC</t>
+  </si>
+  <si>
+    <t>1263ABC</t>
+  </si>
+  <si>
+    <t>1264ABC</t>
+  </si>
+  <si>
+    <t>1284ABC</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Miguel angel</t>
+  </si>
+  <si>
+    <t>Lombas</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Marquez</t>
+  </si>
+  <si>
+    <t>Moran</t>
+  </si>
+  <si>
+    <t>Ana Belen</t>
+  </si>
+  <si>
+    <t>Jose Antonio</t>
+  </si>
+  <si>
+    <t>Ruben Dario</t>
+  </si>
+  <si>
+    <t>Rocio</t>
+  </si>
+  <si>
+    <t>Agustin</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>Martines</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Serafin</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Florez</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Encarnacion</t>
+  </si>
+  <si>
+    <t>Melcon</t>
+  </si>
+  <si>
+    <t>Concepcion</t>
+  </si>
+  <si>
+    <t>LE0010L</t>
+  </si>
+  <si>
+    <t>REP123A</t>
+  </si>
+  <si>
+    <t>LE1</t>
+  </si>
+  <si>
+    <t>M256000</t>
+  </si>
+  <si>
+    <t>O2536J</t>
+  </si>
+  <si>
+    <t>2568POR</t>
+  </si>
+  <si>
+    <t>SE2369857</t>
+  </si>
+  <si>
+    <t>SO25697</t>
+  </si>
+  <si>
+    <t>12563</t>
+  </si>
+  <si>
+    <t>abc256</t>
+  </si>
+  <si>
+    <t>3687ab</t>
+  </si>
+  <si>
+    <t>LE25417P</t>
+  </si>
+  <si>
+    <t>E2569ABD</t>
+  </si>
+  <si>
+    <t>LE2500VE</t>
+  </si>
+  <si>
+    <t>M325417</t>
+  </si>
+  <si>
+    <t>R1234RET</t>
+  </si>
+  <si>
+    <t>M125VE</t>
+  </si>
+  <si>
+    <t>M125</t>
+  </si>
+  <si>
+    <t>C2364PLA</t>
+  </si>
+  <si>
+    <t>C123LJN</t>
+  </si>
+  <si>
+    <t>C2658ABC</t>
+  </si>
+  <si>
+    <t>2365ABG</t>
+  </si>
+  <si>
+    <t>C123AWDE</t>
+  </si>
+  <si>
+    <t>LE34</t>
+  </si>
+  <si>
+    <t>O3876PP</t>
+  </si>
+  <si>
+    <t>1458236</t>
+  </si>
+  <si>
+    <t>HRTGJFG</t>
+  </si>
+  <si>
+    <t>AB23RE</t>
+  </si>
+  <si>
+    <t>LE2323RE</t>
+  </si>
+  <si>
+    <t>E1234856</t>
+  </si>
+  <si>
+    <t>EJGKIOPE</t>
+  </si>
+  <si>
+    <t>BU125000VE</t>
+  </si>
+  <si>
+    <t>BU125000</t>
+  </si>
+  <si>
+    <t>E2563TRE</t>
+  </si>
+  <si>
+    <t>H2564LPI</t>
+  </si>
+  <si>
+    <t>H123PL</t>
+  </si>
+  <si>
+    <t>H1254785</t>
+  </si>
+  <si>
+    <t>HJUIK123</t>
+  </si>
+  <si>
+    <t>H1258B</t>
+  </si>
+  <si>
+    <t>H1485LPM</t>
+  </si>
+  <si>
+    <t>REP124Z</t>
+  </si>
+  <si>
+    <t>125C</t>
+  </si>
+  <si>
+    <t>09699481P</t>
+  </si>
+  <si>
+    <t>245619375215464975</t>
+  </si>
+  <si>
+    <t>365201256384510125RR</t>
+  </si>
+  <si>
+    <t>20960056133231500000</t>
+  </si>
+  <si>
+    <t>62541122421110105611</t>
+  </si>
+  <si>
+    <t>25894363435485700142</t>
+  </si>
+  <si>
+    <t>96431245148150005176</t>
+  </si>
+  <si>
+    <t>215465</t>
+  </si>
+  <si>
+    <t>22515651915640081011</t>
+  </si>
+  <si>
+    <t>32541112811220000577</t>
+  </si>
+  <si>
+    <t>21651651812511133547</t>
+  </si>
+  <si>
+    <t>00750184310702510011</t>
+  </si>
+  <si>
+    <t>11437269A</t>
+  </si>
+  <si>
+    <t>11637421A</t>
+  </si>
+  <si>
+    <t>11966672A</t>
+  </si>
+  <si>
+    <t>11662128A</t>
+  </si>
+  <si>
+    <t>11673213A</t>
+  </si>
+  <si>
+    <t>11942643A</t>
+  </si>
+  <si>
+    <t>11971207A</t>
+  </si>
+  <si>
+    <t>11957847A</t>
+  </si>
+  <si>
+    <t>11959249A</t>
+  </si>
+  <si>
+    <t>11959694A</t>
+  </si>
+  <si>
+    <t>65645150005168448896</t>
+  </si>
+  <si>
+    <t>26551681007651415636</t>
+  </si>
+  <si>
+    <t>99558741006555551120</t>
+  </si>
+  <si>
+    <t>52198484002100515144</t>
+  </si>
+  <si>
+    <t>51556584001251000254</t>
+  </si>
+  <si>
+    <t>09798076A</t>
+  </si>
+  <si>
+    <t>09798287A</t>
+  </si>
+  <si>
+    <t>09799247A</t>
+  </si>
+  <si>
+    <t>09800420A</t>
+  </si>
+  <si>
+    <t>09800921A</t>
+  </si>
+  <si>
+    <t>09801107A</t>
+  </si>
+  <si>
+    <t>63516541008944000984</t>
+  </si>
+  <si>
+    <t>23658965004585223202</t>
+  </si>
+  <si>
+    <t>32658012007712548745</t>
+  </si>
+  <si>
+    <t>23652365002254222000</t>
+  </si>
+  <si>
+    <t>20012541000023365233</t>
+  </si>
+  <si>
+    <t>32584216001684051000</t>
+  </si>
+  <si>
+    <t>09763856A</t>
+  </si>
+  <si>
+    <t>09768995A</t>
+  </si>
+  <si>
+    <t>09770039A</t>
+  </si>
+  <si>
+    <t>09774163A</t>
+  </si>
+  <si>
+    <t>09774199A</t>
+  </si>
+  <si>
+    <t>2096004304307570000</t>
+  </si>
+  <si>
+    <t>2563547832100254122</t>
+  </si>
+  <si>
+    <t>3215469719542312100</t>
+  </si>
+  <si>
+    <t>3652145273650065848</t>
+  </si>
+  <si>
+    <t>2000852152877511336</t>
+  </si>
+  <si>
+    <t>a9731953D</t>
+  </si>
+  <si>
+    <t>a9733795B</t>
+  </si>
+  <si>
+    <t>a9734839C</t>
+  </si>
+  <si>
+    <t>21508149005421346497</t>
+  </si>
+  <si>
+    <t>21346154003164978451</t>
+  </si>
+  <si>
+    <t>25187786001225455548</t>
+  </si>
+  <si>
+    <t>GR9420125003305201112544</t>
+  </si>
+  <si>
+    <t>VDO00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES2821651484690980008984</t>
+  </si>
+  <si>
+    <t>VBP00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>FI5620960043043554600000</t>
+  </si>
+  <si>
+    <t>ABP00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES7921564975243245467995</t>
+  </si>
+  <si>
+    <t>MAP00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>LT8032566221522587754554</t>
+  </si>
+  <si>
+    <t>ACP00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>00750184330702510011</t>
+  </si>
+  <si>
+    <t>SM5925894363435485700142</t>
+  </si>
+  <si>
+    <t>LBR00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES4896431245148150005176</t>
+  </si>
+  <si>
+    <t>SBR00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>AT6825030000114574745458</t>
+  </si>
+  <si>
+    <t>AGR00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>IT8915953684811254695203</t>
+  </si>
+  <si>
+    <t>DGR00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES9020960043023096200000</t>
+  </si>
+  <si>
+    <t>PGS00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>DK5800750184310702510000</t>
+  </si>
+  <si>
+    <t>CIS00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES5023455254943263234457</t>
+  </si>
+  <si>
+    <t>MQF00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>GR4920910936583000000000</t>
+  </si>
+  <si>
+    <t>BVM00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES3720960043032159000000</t>
+  </si>
+  <si>
+    <t>PPR00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>DE5512669681115112121210</t>
+  </si>
+  <si>
+    <t>PCS00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES2956187775315550000651</t>
+  </si>
+  <si>
+    <t>GMM00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES0425516848021156151054</t>
+  </si>
+  <si>
+    <t>CGM00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>PT5764578946740051516490</t>
+  </si>
+  <si>
+    <t>GMM01@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES4534698752714600549403</t>
+  </si>
+  <si>
+    <t>CSN00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES2766649444162310000255</t>
+  </si>
+  <si>
+    <t>ALO00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>FR5623185484465641685100</t>
+  </si>
+  <si>
+    <t>GMM02@vehiculos2025.com</t>
+  </si>
+  <si>
     <t>21508149175421346497</t>
   </si>
   <si>
@@ -529,1480 +2113,463 @@
     <t>25187786311225455548</t>
   </si>
   <si>
-    <t>23164897642213030615</t>
-  </si>
-  <si>
-    <t>96536214865214585214</t>
-  </si>
-  <si>
-    <t>85461325251978750005</t>
-  </si>
-  <si>
-    <t>24587946032003165464</t>
-  </si>
-  <si>
-    <t>20960043073071400000</t>
-  </si>
-  <si>
-    <t>20960043042158800000</t>
-  </si>
-  <si>
-    <t>21654587985156484454</t>
-  </si>
-  <si>
-    <t>51651681961210656510</t>
-  </si>
-  <si>
-    <t>66552211148855332200</t>
-  </si>
-  <si>
-    <t>01821135910205540000</t>
-  </si>
-  <si>
-    <t>22631245526916432102</t>
-  </si>
-  <si>
-    <t>20960043043075700000</t>
-  </si>
-  <si>
-    <t>25635478321002541225</t>
-  </si>
-  <si>
-    <t>32154697195423121000</t>
-  </si>
-  <si>
-    <t>36521452736500658485</t>
-  </si>
-  <si>
-    <t>20008521528775113366</t>
-  </si>
-  <si>
-    <t>20960043033000100000</t>
-  </si>
-  <si>
-    <t>36585214290025478551</t>
-  </si>
-  <si>
-    <t>12548523465214585214</t>
-  </si>
-  <si>
-    <t>31624561042546920007</t>
-  </si>
-  <si>
-    <t>36154231712500312566</t>
-  </si>
-  <si>
-    <t>44875664127231645789</t>
-  </si>
-  <si>
-    <t>20960031442124800000</t>
-  </si>
-  <si>
-    <t>33620012937852100256</t>
-  </si>
-  <si>
-    <t>33218885441445121022</t>
-  </si>
-  <si>
-    <t>62581542713690044508</t>
-  </si>
-  <si>
-    <t>25165151118666365100</t>
-  </si>
-  <si>
-    <t>36952365020014425254</t>
-  </si>
-  <si>
-    <t>65168874641561561500</t>
-  </si>
-  <si>
-    <t>20960583831234500000</t>
-  </si>
-  <si>
-    <t>21416325811510005514</t>
-  </si>
-  <si>
-    <t>32628484504115151115</t>
+    <t>ES4723164897642213030615</t>
+  </si>
+  <si>
+    <t>SFP00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES2396536214865214585214</t>
+  </si>
+  <si>
+    <t>ELR00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES6885461325251978750005</t>
+  </si>
+  <si>
+    <t>DLR00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>FI5024587946032003165464</t>
+  </si>
+  <si>
+    <t>HAR00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES5020960043073071400000</t>
+  </si>
+  <si>
+    <t>SPR00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES8220960043042158800000</t>
+  </si>
+  <si>
+    <t>GPR00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES7521654587985156484454</t>
+  </si>
+  <si>
+    <t>SAS00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES3251651681961210656510</t>
+  </si>
+  <si>
+    <t>BFS00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES5566552211148855332200</t>
+  </si>
+  <si>
+    <t>DFG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>GB9720910936583000000000</t>
+  </si>
+  <si>
+    <t>GMG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>DE9301821135910205540000</t>
+  </si>
+  <si>
+    <t>MLG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>DE7822631245526916432102</t>
+  </si>
+  <si>
+    <t>IAG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>09763856B</t>
+  </si>
+  <si>
+    <t>09768995K</t>
+  </si>
+  <si>
+    <t>09770039F</t>
+  </si>
+  <si>
+    <t>09774163Z</t>
+  </si>
+  <si>
+    <t>09774199G</t>
+  </si>
+  <si>
+    <t>ES8020960043033000100000</t>
+  </si>
+  <si>
+    <t>APM00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>GB0836585214290025478551</t>
+  </si>
+  <si>
+    <t>GMM03@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES9012548523465214585214</t>
+  </si>
+  <si>
+    <t>ALM00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES6931624561042546920007</t>
+  </si>
+  <si>
+    <t>LDM00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES1436154231712500312566</t>
+  </si>
+  <si>
+    <t>ADG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES8244875664127231645789</t>
+  </si>
+  <si>
+    <t>LRF00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES7920960031442124800000</t>
+  </si>
+  <si>
+    <t>LCG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES1633620012937852100256</t>
+  </si>
+  <si>
+    <t>SBG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES1933218885441445121022</t>
+  </si>
+  <si>
+    <t>AFG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES8462581542713690044508</t>
+  </si>
+  <si>
+    <t>DGG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES3925165151118666365100</t>
+  </si>
+  <si>
+    <t>ROG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>SOG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>PT3536952365020014425254</t>
+  </si>
+  <si>
+    <t>VVG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES9565168874641561561500</t>
+  </si>
+  <si>
+    <t>VMG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES3220960583831234500000</t>
+  </si>
+  <si>
+    <t>MBG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES7221416325811510005514</t>
+  </si>
+  <si>
+    <t>CBG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>LU0932628484504115151115</t>
+  </si>
+  <si>
+    <t>MSH00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES2220960056133231500000</t>
+  </si>
+  <si>
+    <t>FDL00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>09798076F</t>
   </si>
   <si>
     <t>63516541828944000984</t>
   </si>
   <si>
+    <t>ES8163516541828944000984</t>
+  </si>
+  <si>
+    <t>SDM00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>09798287B</t>
+  </si>
+  <si>
+    <t>23658965274585223202</t>
+  </si>
+  <si>
+    <t>ES6223658965274585223202</t>
+  </si>
+  <si>
+    <t>EGM00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>09799247M</t>
+  </si>
+  <si>
     <t>32658012367712548745</t>
   </si>
   <si>
+    <t>FI6132658012367712548745</t>
+  </si>
+  <si>
+    <t>GPM00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>09800420M</t>
+  </si>
+  <si>
     <t>23652365142254222000</t>
   </si>
   <si>
+    <t>ES7223652365142254222000</t>
+  </si>
+  <si>
+    <t>EAM00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>09800921T</t>
+  </si>
+  <si>
+    <t>20012541150023365233</t>
+  </si>
+  <si>
+    <t>FR3820012541150023365233</t>
+  </si>
+  <si>
+    <t>MMM00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>09801107W</t>
+  </si>
+  <si>
     <t>32584216971684051000</t>
   </si>
   <si>
-    <t>95485212315484010000</t>
-  </si>
-  <si>
-    <t>21856333126985542360</t>
-  </si>
-  <si>
-    <t>36245978133245679001</t>
-  </si>
-  <si>
-    <t>31245164156597845124</t>
-  </si>
-  <si>
-    <t>23221158252545471411</t>
-  </si>
-  <si>
-    <t>32574512085411002255</t>
-  </si>
-  <si>
-    <t>20960043013468900000</t>
-  </si>
-  <si>
-    <t>31215643855060225021</t>
-  </si>
-  <si>
-    <t>85550564726165145610</t>
-  </si>
-  <si>
-    <t>65165654918886005001</t>
+    <t>ES9232584216971684051000</t>
+  </si>
+  <si>
+    <t>MGF00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES7395485212315484010000</t>
+  </si>
+  <si>
+    <t>JAC00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>LT9321856333126985542360</t>
+  </si>
+  <si>
+    <t>BDC00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES5736245978133245679001</t>
+  </si>
+  <si>
+    <t>NGC00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES7631245164156597845124</t>
+  </si>
+  <si>
+    <t>MLC00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>SM4423221158252545471411</t>
+  </si>
+  <si>
+    <t>MHG00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>SE6832574512085411002255</t>
+  </si>
+  <si>
+    <t>MLC01@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES4420960043013468900000</t>
+  </si>
+  <si>
+    <t>CFC00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES5631215643855060225021</t>
+  </si>
+  <si>
+    <t>CGC00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>AT3285550564726165145610</t>
+  </si>
+  <si>
+    <t>HSC00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>ES1665165654918886005001</t>
+  </si>
+  <si>
+    <t>KSC00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>65645150865168448896</t>
+  </si>
+  <si>
+    <t>AT8365645150865168448896</t>
+  </si>
+  <si>
+    <t>MHC00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>26551681807651415636</t>
+  </si>
+  <si>
+    <t>IT3526551681807651415636</t>
+  </si>
+  <si>
+    <t>CLD00@vehiculos2025.com</t>
   </si>
   <si>
     <t>99558741836555551120</t>
   </si>
   <si>
+    <t>HU2399558741836555551120</t>
+  </si>
+  <si>
+    <t>MFD00@vehiculos2025.com</t>
+  </si>
+  <si>
     <t>52198484752100515144</t>
   </si>
   <si>
-    <t>32541112811220000588</t>
-  </si>
-  <si>
-    <t>55065688761051056105</t>
-  </si>
-  <si>
-    <t>26221011628048788896</t>
-  </si>
-  <si>
-    <t>12548521518742146695</t>
-  </si>
-  <si>
-    <t>01826530120201560000</t>
-  </si>
-  <si>
-    <t>21651651812511133551</t>
-  </si>
-  <si>
-    <t>51651487910005118185</t>
-  </si>
-  <si>
-    <t>36250012804785523365</t>
-  </si>
-  <si>
-    <t>22515651915640081000</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>GR</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>MOLINO (EL)</t>
-  </si>
-  <si>
-    <t>PRADERA (LA)</t>
-  </si>
-  <si>
-    <t>MADRID</t>
-  </si>
-  <si>
-    <t>CAMINO DE SANTIAGO</t>
-  </si>
-  <si>
-    <t>PEÑA UBIÑA</t>
-  </si>
-  <si>
-    <t>IGLESIA (LA)</t>
-  </si>
-  <si>
-    <t>ABAJO</t>
-  </si>
-  <si>
-    <t>MONTE (EL)</t>
-  </si>
-  <si>
-    <t>VALDEFRESNO</t>
-  </si>
-  <si>
-    <t>LEON-SANTANDER</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>MILGAS (LAS)</t>
-  </si>
-  <si>
-    <t>PENILLA</t>
-  </si>
-  <si>
-    <t>VALLEO (EL)</t>
-  </si>
-  <si>
-    <t>PINOS (LOS)</t>
-  </si>
-  <si>
-    <t>NAVAS (LAS)</t>
-  </si>
-  <si>
-    <t>RESIDENCIAL LAS FUENTES</t>
-  </si>
-  <si>
-    <t>TELENO</t>
-  </si>
-  <si>
-    <t>RIO PORMA</t>
-  </si>
-  <si>
-    <t>RIO ESLA</t>
-  </si>
-  <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
-    <t>VALLE (EL)</t>
-  </si>
-  <si>
-    <t>CONFORCOS</t>
-  </si>
-  <si>
-    <t>LA ERA</t>
-  </si>
-  <si>
-    <t>CALLEJA (LA)</t>
-  </si>
-  <si>
-    <t>SIN SALIDA</t>
-  </si>
-  <si>
-    <t>SENDA (LA)</t>
-  </si>
-  <si>
-    <t>VIÑA (LA)</t>
-  </si>
-  <si>
-    <t>PEÑA SANTA</t>
-  </si>
-  <si>
-    <t>PLAZUELA (LA)</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS I</t>
-  </si>
-  <si>
-    <t>POZO (EL)</t>
-  </si>
-  <si>
-    <t>RIO TORIO</t>
-  </si>
-  <si>
-    <t>HUERTOS (LOS)</t>
-  </si>
-  <si>
-    <t>FUENTE (LA)</t>
-  </si>
-  <si>
-    <t>DOCTOR RODRIGUEZ GUISASOL</t>
-  </si>
-  <si>
-    <t>NUESTRA SEÑORA DEL CAMINO</t>
-  </si>
-  <si>
-    <t>ROSALES (LOS)</t>
-  </si>
-  <si>
-    <t>MANZANALES (LOS)</t>
-  </si>
-  <si>
-    <t>REGUERO (EL)</t>
-  </si>
-  <si>
-    <t>ERAS (LAS)</t>
-  </si>
-  <si>
-    <t>COTANO</t>
-  </si>
-  <si>
-    <t>ACEBOS (LOS)</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>0013</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>0011</t>
-  </si>
-  <si>
-    <t>0028</t>
-  </si>
-  <si>
-    <t>0188</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>0043</t>
-  </si>
-  <si>
-    <t>0050</t>
-  </si>
-  <si>
-    <t>0007</t>
-  </si>
-  <si>
-    <t>0099</t>
-  </si>
-  <si>
-    <t>0027</t>
-  </si>
-  <si>
-    <t>0017</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>0041</t>
-  </si>
-  <si>
-    <t>0016</t>
-  </si>
-  <si>
-    <t>0006</t>
-  </si>
-  <si>
-    <t>0009</t>
-  </si>
-  <si>
-    <t>0034</t>
-  </si>
-  <si>
-    <t>0254</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>0018</t>
-  </si>
-  <si>
-    <t>0196</t>
-  </si>
-  <si>
-    <t>0136</t>
-  </si>
-  <si>
-    <t>0115</t>
-  </si>
-  <si>
-    <t>0070</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>0005</t>
-  </si>
-  <si>
-    <t>0024</t>
-  </si>
-  <si>
-    <t>0046</t>
-  </si>
-  <si>
-    <t>0012</t>
-  </si>
-  <si>
-    <t>0015</t>
-  </si>
-  <si>
-    <t>0187</t>
-  </si>
-  <si>
-    <t>0060</t>
-  </si>
-  <si>
-    <t>0008</t>
-  </si>
-  <si>
-    <t>0022</t>
-  </si>
-  <si>
-    <t>0026</t>
-  </si>
-  <si>
-    <t>0097</t>
-  </si>
-  <si>
-    <t>0014</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>0294</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Ayuntamiento</t>
-  </si>
-  <si>
-    <t>RENAULT</t>
-  </si>
-  <si>
-    <t>MEGANE</t>
-  </si>
-  <si>
-    <t>ESPACE 2.0</t>
-  </si>
-  <si>
-    <t>NISSAN</t>
-  </si>
-  <si>
-    <t>HONDA</t>
-  </si>
-  <si>
-    <t>PEUGEOT</t>
-  </si>
-  <si>
-    <t>CBR600F</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>VESPINO</t>
-  </si>
-  <si>
-    <t>F70</t>
-  </si>
-  <si>
-    <t>F90</t>
-  </si>
-  <si>
-    <t>F120</t>
-  </si>
-  <si>
-    <t>VOLVO</t>
-  </si>
-  <si>
-    <t>MERCEDES</t>
-  </si>
-  <si>
-    <t>SCANIA</t>
-  </si>
-  <si>
-    <t>F320</t>
-  </si>
-  <si>
-    <t>X425</t>
-  </si>
-  <si>
-    <t>R4787</t>
-  </si>
-  <si>
-    <t>CAPTUR</t>
-  </si>
-  <si>
-    <t>OPEL</t>
-  </si>
-  <si>
-    <t>ASTRA</t>
-  </si>
-  <si>
-    <t>KIA</t>
-  </si>
-  <si>
-    <t>SORENTO</t>
-  </si>
-  <si>
-    <t>G567</t>
-  </si>
-  <si>
-    <t>X487</t>
-  </si>
-  <si>
-    <t>N364</t>
-  </si>
-  <si>
-    <t>L758</t>
-  </si>
-  <si>
-    <t>YAMAHA</t>
-  </si>
-  <si>
-    <t>MTN850-A</t>
-  </si>
-  <si>
-    <t>X1500</t>
-  </si>
-  <si>
-    <t>GR900</t>
-  </si>
-  <si>
-    <t>SCOOTER300</t>
-  </si>
-  <si>
-    <t>TURISMO</t>
-  </si>
-  <si>
-    <t>AUTOBUS</t>
-  </si>
-  <si>
-    <t>CAMION</t>
-  </si>
-  <si>
-    <t>TRACTOR</t>
-  </si>
-  <si>
-    <t>REMOLQUE</t>
-  </si>
-  <si>
-    <t>CICLOMOTOR</t>
-  </si>
-  <si>
-    <t>MOTOCICLETA</t>
-  </si>
-  <si>
-    <t>09677930J</t>
-  </si>
-  <si>
-    <t>09683488M</t>
-  </si>
-  <si>
-    <t>09685674Y</t>
-  </si>
-  <si>
-    <t>09685694A</t>
-  </si>
-  <si>
-    <t>09688492H</t>
-  </si>
-  <si>
-    <t>09693306W</t>
-  </si>
-  <si>
-    <t>09699481J</t>
-  </si>
-  <si>
-    <t>09701763H</t>
-  </si>
-  <si>
-    <t>09703447T</t>
-  </si>
-  <si>
-    <t>09706119G</t>
-  </si>
-  <si>
-    <t>09707275X</t>
-  </si>
-  <si>
-    <t>09710840X</t>
-  </si>
-  <si>
-    <t>09711691X</t>
-  </si>
-  <si>
-    <t>09713006Z</t>
-  </si>
-  <si>
-    <t>09713007S</t>
-  </si>
-  <si>
-    <t>09713528F</t>
-  </si>
-  <si>
-    <t>09715064W</t>
-  </si>
-  <si>
-    <t>09715167J</t>
-  </si>
-  <si>
-    <t>09715890T</t>
-  </si>
-  <si>
-    <t>09716184H</t>
-  </si>
-  <si>
-    <t>09717650N</t>
-  </si>
-  <si>
-    <t>09718644V</t>
-  </si>
-  <si>
-    <t>09720049L</t>
-  </si>
-  <si>
-    <t>09720969L</t>
-  </si>
-  <si>
-    <t>09722535K</t>
-  </si>
-  <si>
-    <t>09722591P</t>
-  </si>
-  <si>
-    <t>09722827Z</t>
-  </si>
-  <si>
-    <t>09723206W</t>
-  </si>
-  <si>
-    <t>09731953D</t>
-  </si>
-  <si>
-    <t>09733795B</t>
-  </si>
-  <si>
-    <t>09734839C</t>
-  </si>
-  <si>
-    <t>09736219C</t>
-  </si>
-  <si>
-    <t>09737592J</t>
-  </si>
-  <si>
-    <t>09737631Y</t>
-  </si>
-  <si>
-    <t>09738099Z</t>
-  </si>
-  <si>
-    <t>09752292Q</t>
-  </si>
-  <si>
-    <t>09752293V</t>
-  </si>
-  <si>
-    <t>09753101C</t>
-  </si>
-  <si>
-    <t>09754339Q</t>
-  </si>
-  <si>
-    <t>09757444Q</t>
-  </si>
-  <si>
-    <t>09757564K</t>
-  </si>
-  <si>
-    <t>09762197P</t>
-  </si>
-  <si>
-    <t>09762293N</t>
-  </si>
-  <si>
-    <t>09763856B</t>
-  </si>
-  <si>
-    <t>09768995K</t>
-  </si>
-  <si>
-    <t>09770039F</t>
-  </si>
-  <si>
-    <t>09774163Z</t>
-  </si>
-  <si>
-    <t>09774199G</t>
-  </si>
-  <si>
-    <t>09778683A</t>
-  </si>
-  <si>
-    <t>09778772T</t>
-  </si>
-  <si>
-    <t>09779269Z</t>
-  </si>
-  <si>
-    <t>09780389F</t>
-  </si>
-  <si>
-    <t>09780996Q</t>
-  </si>
-  <si>
-    <t>09781067H</t>
-  </si>
-  <si>
-    <t>09781327W</t>
-  </si>
-  <si>
-    <t>09782302B</t>
-  </si>
-  <si>
-    <t>09782419J</t>
-  </si>
-  <si>
-    <t>09783952M</t>
-  </si>
-  <si>
-    <t>09786577P</t>
-  </si>
-  <si>
-    <t>09787319Z</t>
-  </si>
-  <si>
-    <t>09789574S</t>
-  </si>
-  <si>
-    <t>09789575Q</t>
-  </si>
-  <si>
-    <t>09790982C</t>
-  </si>
-  <si>
-    <t>09791120C</t>
-  </si>
-  <si>
-    <t>09791323Q</t>
-  </si>
-  <si>
-    <t>09798076F</t>
-  </si>
-  <si>
-    <t>09798287B</t>
-  </si>
-  <si>
-    <t>09799247M</t>
-  </si>
-  <si>
-    <t>09800420M</t>
-  </si>
-  <si>
-    <t>09800921T</t>
-  </si>
-  <si>
-    <t>09801107W</t>
-  </si>
-  <si>
-    <t>09802657B</t>
-  </si>
-  <si>
-    <t>09803456M</t>
-  </si>
-  <si>
-    <t>09804256T</t>
-  </si>
-  <si>
-    <t>09804568J</t>
-  </si>
-  <si>
-    <t>09806108N</t>
-  </si>
-  <si>
-    <t>09807895M</t>
-  </si>
-  <si>
-    <t>09807896Y</t>
-  </si>
-  <si>
-    <t>09808038X</t>
-  </si>
-  <si>
-    <t>09808051T</t>
-  </si>
-  <si>
-    <t>09808061X</t>
-  </si>
-  <si>
-    <t>09808127F</t>
-  </si>
-  <si>
-    <t>10160508M</t>
-  </si>
-  <si>
-    <t>10178996R</t>
-  </si>
-  <si>
-    <t>10193861P</t>
-  </si>
-  <si>
-    <t>10198570W</t>
-  </si>
-  <si>
-    <t>11398830F</t>
+    <t>ES4352198484752100515144</t>
+  </si>
+  <si>
+    <t>FGD00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>51556584221251000254</t>
+  </si>
+  <si>
+    <t>IE6851556584221251000254</t>
+  </si>
+  <si>
+    <t>GMM04@vehiculos2025.com</t>
   </si>
   <si>
     <t>11437269J</t>
   </si>
   <si>
+    <t>DK9632541112811220000577</t>
+  </si>
+  <si>
+    <t>IVC00@vehiculos2025.com</t>
+  </si>
+  <si>
     <t>11637421L</t>
   </si>
   <si>
+    <t>LT9362541122421110105611</t>
+  </si>
+  <si>
+    <t>DMC00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>11966672W</t>
+  </si>
+  <si>
+    <t>ES6855065688761051056105</t>
+  </si>
+  <si>
+    <t>EBC00@vehiculos2025.com</t>
+  </si>
+  <si>
     <t>11662128R</t>
   </si>
   <si>
+    <t>ES7426221011628048788896</t>
+  </si>
+  <si>
+    <t>NBC00@vehiculos2025.com</t>
+  </si>
+  <si>
     <t>11673213T</t>
   </si>
   <si>
+    <t>ES9712548521518742146695</t>
+  </si>
+  <si>
+    <t>MSC00@vehiculos2025.com</t>
+  </si>
+  <si>
     <t>11942643P</t>
   </si>
   <si>
+    <t>ES9001826530120201560000</t>
+  </si>
+  <si>
+    <t>MDC00@vehiculos2025.com</t>
+  </si>
+  <si>
+    <t>11971207Y</t>
+  </si>
+  <si>
+    <t>ES0421651651812511133547</t>
+  </si>
+  <si>
+    <t>MFC00@vehiculos2025.com</t>
+  </si>
+  <si>
     <t>11957847D</t>
   </si>
   <si>
+    <t>ES6851651487910005118185</t>
+  </si>
+  <si>
+    <t>CDD00@vehiculos2025.com</t>
+  </si>
+  <si>
     <t>11959249P</t>
   </si>
   <si>
+    <t>CZ9536250012804785523365</t>
+  </si>
+  <si>
+    <t>CGD00@vehiculos2025.com</t>
+  </si>
+  <si>
     <t>11959694Q</t>
   </si>
   <si>
-    <t>11966672W</t>
-  </si>
-  <si>
-    <t>11971207Y</t>
-  </si>
-  <si>
-    <t>CITROEN</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>RAZOL</t>
-  </si>
-  <si>
-    <t>CASE</t>
-  </si>
-  <si>
-    <t>FORD</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>XSARA PICASSO 40</t>
-  </si>
-  <si>
-    <t>CVH</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>307 5P XRCLIM</t>
-  </si>
-  <si>
-    <t>XANTIA 19 TD X</t>
-  </si>
-  <si>
-    <t>TIGUAN</t>
-  </si>
-  <si>
-    <t>ESCORT 5 PUERTAS</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>JOHN DEERE</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>C37</t>
-  </si>
-  <si>
-    <t>N91</t>
-  </si>
-  <si>
-    <t>G86</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>BYD</t>
-  </si>
-  <si>
-    <t>G23</t>
-  </si>
-  <si>
-    <t>H75</t>
-  </si>
-  <si>
-    <t>V455</t>
-  </si>
-  <si>
-    <t>KMJWVH7HP2U456263</t>
-  </si>
-  <si>
-    <t>W0L0AHM75A2100307</t>
-  </si>
-  <si>
-    <t>YV2J4DEC02B302081</t>
-  </si>
-  <si>
-    <t>W0L0TGF48Y6106268</t>
-  </si>
-  <si>
-    <t>WBAAM11090CA03927</t>
-  </si>
-  <si>
-    <t>VF1BA1U0524627776</t>
-  </si>
-  <si>
-    <t>VSSZZZ7MZ8V506376</t>
-  </si>
-  <si>
-    <t>JN1KESY61U0005997</t>
-  </si>
-  <si>
-    <t>WVWZZZ3BZ4E288011</t>
-  </si>
-  <si>
-    <t>VF32AKFWF44528938</t>
-  </si>
-  <si>
-    <t>WAUZZZ8E76A143187</t>
-  </si>
-  <si>
-    <t>WAUZZZ8E26A279615</t>
-  </si>
-  <si>
-    <t>W0L0TGF48X5100122</t>
-  </si>
-  <si>
-    <t>XTA21214031711893</t>
-  </si>
-  <si>
-    <t>VF1DA0B0527099849</t>
-  </si>
-  <si>
-    <t>WF0AXXWPDA1D05535</t>
-  </si>
-  <si>
-    <t>WAUZZZ8E64A046303</t>
-  </si>
-  <si>
-    <t>VSSZZZ1MZ4R067053</t>
-  </si>
-  <si>
-    <t>RFVBRUC5241002446</t>
-  </si>
-  <si>
-    <t>W0L0AHL4858136249</t>
-  </si>
-  <si>
-    <t>TMAD331UAEJ001412</t>
-  </si>
-  <si>
-    <t>VSSZZZ6JZER120663</t>
-  </si>
-  <si>
-    <t>WF0FXXWPDF3Y47888</t>
-  </si>
-  <si>
-    <t>W0L0TGF6915014070</t>
-  </si>
-  <si>
-    <t>WAUZZZ4F76N044649</t>
-  </si>
-  <si>
-    <t>VSSZZZ1PZ8R049713</t>
-  </si>
-  <si>
-    <t>VTHSC1C1A6H345070</t>
-  </si>
-  <si>
-    <t>VF1SB8M0537878580</t>
-  </si>
-  <si>
-    <t>WVWZZZ1JZ3W451498</t>
-  </si>
-  <si>
-    <t>VSSZZZ6KZ2R038977</t>
-  </si>
-  <si>
-    <t>UU15SDAG548391805</t>
-  </si>
-  <si>
-    <t>WVWZZZ1KZ7B024041</t>
-  </si>
-  <si>
-    <t>WF0UXXGAJU5M80705</t>
-  </si>
-  <si>
-    <t>VSSZZZ6LZ8R121527</t>
-  </si>
-  <si>
-    <t>VF7VDWT0005WT0209</t>
-  </si>
-  <si>
-    <t>WVWZZZ1JZ3B190985</t>
-  </si>
-  <si>
-    <t>VSKJ4EDA6UY585754</t>
-  </si>
-  <si>
-    <t>SAJAF52139BJ46823</t>
-  </si>
-  <si>
-    <t>VF1JMSE0638014920</t>
-  </si>
-  <si>
-    <t>VSSZZZ1MZ4R058682</t>
-  </si>
-  <si>
-    <t>YV1LS4502N2013205</t>
-  </si>
-  <si>
-    <t>YS3FF46WX51056758</t>
-  </si>
-  <si>
-    <t>VSSZZZ1MZ5R074196</t>
-  </si>
-  <si>
-    <t>VF33CRHYB83885473</t>
-  </si>
-  <si>
-    <t>VF1FW18M552505376</t>
-  </si>
-  <si>
-    <t>VTRCG3030F0947139</t>
-  </si>
-  <si>
-    <t>VF7MFWJYB65831272</t>
-  </si>
-  <si>
-    <t>VF7N0RHYB73531591</t>
-  </si>
-  <si>
-    <t>CABALLOS</t>
-  </si>
-  <si>
-    <t>PLAZAS</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>BENAVIDES</t>
-  </si>
-  <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>MARCA</t>
-  </si>
-  <si>
-    <t>MODELO</t>
-  </si>
-  <si>
-    <t>MATRICULA</t>
-  </si>
-  <si>
-    <t>BASTIDOR</t>
-  </si>
-  <si>
-    <t>EXENCION</t>
-  </si>
-  <si>
-    <t>FECHAMATRICULACION</t>
-  </si>
-  <si>
-    <t>FECHAALTA</t>
-  </si>
-  <si>
-    <t>FECHABAJA</t>
-  </si>
-  <si>
-    <t>FECHABAJATEMPORAL</t>
-  </si>
-  <si>
-    <t>NIFPROPIETARIO</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>CLIO</t>
-  </si>
-  <si>
-    <t>1261ABC</t>
-  </si>
-  <si>
-    <t>1262ABC</t>
-  </si>
-  <si>
-    <t>1263ABC</t>
-  </si>
-  <si>
-    <t>1264ABC</t>
-  </si>
-  <si>
-    <t>1284ABC</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>Sanchez</t>
-  </si>
-  <si>
-    <t>Miguel angel</t>
-  </si>
-  <si>
-    <t>Lombas</t>
-  </si>
-  <si>
-    <t>Tomas</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>Marquez</t>
-  </si>
-  <si>
-    <t>Moran</t>
-  </si>
-  <si>
-    <t>Ana Belen</t>
-  </si>
-  <si>
-    <t>Jose Antonio</t>
-  </si>
-  <si>
-    <t>Ruben Dario</t>
-  </si>
-  <si>
-    <t>Rocio</t>
-  </si>
-  <si>
-    <t>Agustin</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
-    <t>Martines</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Serafin</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Florez</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>Encarnacion</t>
-  </si>
-  <si>
-    <t>Melcon</t>
-  </si>
-  <si>
-    <t>Concepcion</t>
-  </si>
-  <si>
-    <t>LE0010L</t>
-  </si>
-  <si>
-    <t>REP123A</t>
-  </si>
-  <si>
-    <t>LE1</t>
-  </si>
-  <si>
-    <t>M256000</t>
-  </si>
-  <si>
-    <t>O2536J</t>
-  </si>
-  <si>
-    <t>2568POR</t>
-  </si>
-  <si>
-    <t>SE2369857</t>
-  </si>
-  <si>
-    <t>SO25697</t>
-  </si>
-  <si>
-    <t>12563</t>
-  </si>
-  <si>
-    <t>abc256</t>
-  </si>
-  <si>
-    <t>3687ab</t>
-  </si>
-  <si>
-    <t>LE25417P</t>
-  </si>
-  <si>
-    <t>E2569ABD</t>
-  </si>
-  <si>
-    <t>LE2500VE</t>
-  </si>
-  <si>
-    <t>M325417</t>
-  </si>
-  <si>
-    <t>R1234RET</t>
-  </si>
-  <si>
-    <t>M125VE</t>
-  </si>
-  <si>
-    <t>M125</t>
-  </si>
-  <si>
-    <t>C2364PLA</t>
-  </si>
-  <si>
-    <t>C123LJN</t>
-  </si>
-  <si>
-    <t>C2658ABC</t>
-  </si>
-  <si>
-    <t>2365ABG</t>
-  </si>
-  <si>
-    <t>C123AWDE</t>
-  </si>
-  <si>
-    <t>LE34</t>
-  </si>
-  <si>
-    <t>O3876PP</t>
-  </si>
-  <si>
-    <t>1458236</t>
-  </si>
-  <si>
-    <t>HRTGJFG</t>
-  </si>
-  <si>
-    <t>AB23RE</t>
-  </si>
-  <si>
-    <t>LE2323RE</t>
-  </si>
-  <si>
-    <t>E1234856</t>
-  </si>
-  <si>
-    <t>EJGKIOPE</t>
-  </si>
-  <si>
-    <t>BU125000VE</t>
-  </si>
-  <si>
-    <t>BU125000</t>
-  </si>
-  <si>
-    <t>E2563TRE</t>
-  </si>
-  <si>
-    <t>H2564LPI</t>
-  </si>
-  <si>
-    <t>H123PL</t>
-  </si>
-  <si>
-    <t>H1254785</t>
-  </si>
-  <si>
-    <t>HJUIK123</t>
-  </si>
-  <si>
-    <t>H1258B</t>
-  </si>
-  <si>
-    <t>H1485LPM</t>
-  </si>
-  <si>
-    <t>REP124Z</t>
-  </si>
-  <si>
-    <t>125C</t>
-  </si>
-  <si>
-    <t>245619375215464975</t>
-  </si>
-  <si>
-    <t>365201256384510125RR</t>
-  </si>
-  <si>
-    <t>20960056133231500000</t>
-  </si>
-  <si>
-    <t>23658965274585223202</t>
-  </si>
-  <si>
-    <t>20012541150023365233</t>
-  </si>
-  <si>
-    <t>65645150865168448896</t>
-  </si>
-  <si>
-    <t>26551681807651415636</t>
-  </si>
-  <si>
-    <t>51556584221251000254</t>
-  </si>
-  <si>
-    <t>62541122421110105611</t>
-  </si>
-  <si>
-    <t>25894363435485700142</t>
-  </si>
-  <si>
-    <t>96431245148150005176</t>
-  </si>
-  <si>
-    <t>DK9032541112811220000588</t>
-  </si>
-  <si>
-    <t>LT9362541122421110105611</t>
-  </si>
-  <si>
-    <t>ES6855065688761051056105</t>
-  </si>
-  <si>
-    <t>ES7426221011628048788896</t>
-  </si>
-  <si>
-    <t>ES9712548521518742146695</t>
-  </si>
-  <si>
-    <t>ES9001826530120201560000</t>
-  </si>
-  <si>
-    <t>ES9021651651812511133551</t>
-  </si>
-  <si>
-    <t>ES6851651487910005118185</t>
-  </si>
-  <si>
-    <t>CZ9536250012804785523365</t>
-  </si>
-  <si>
-    <t>AT3122515651915640081000</t>
-  </si>
-  <si>
-    <t>215465</t>
-  </si>
-  <si>
-    <t>09706476A</t>
-  </si>
-  <si>
-    <t>09699481</t>
-  </si>
-  <si>
-    <t>09706476Q</t>
+    <t>AT2522515651915640081011</t>
+  </si>
+  <si>
+    <t>HPD00@vehiculos2025.com</t>
   </si>
 </sst>
 </file>
@@ -2382,8 +2949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C6ACB8-7F34-425E-9257-91AD8B97F35F}">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,13 +2979,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="G1" t="s" s="0">
         <v>8</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="I1" t="s" s="0">
         <v>5</v>
@@ -2435,7 +3002,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>633</v>
+        <v>593</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>78</v>
@@ -2444,19 +3011,19 @@
         <v>101</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>141</v>
@@ -2474,19 +3041,19 @@
         <v>106</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>142</v>
@@ -2509,16 +3076,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>143</v>
@@ -2529,7 +3096,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>64</v>
@@ -2541,19 +3108,19 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>634</v>
+        <v>595</v>
       </c>
       <c r="L5" s="0">
         <v>0</v>
@@ -2561,7 +3128,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>65</v>
@@ -2570,22 +3137,22 @@
         <v>109</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>635</v>
+        <v>596</v>
       </c>
       <c r="L6" s="0">
         <v>0</v>
@@ -2593,7 +3160,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>66</v>
@@ -2605,19 +3172,19 @@
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>655</v>
+        <v>601</v>
       </c>
       <c r="L7" s="0">
         <v>0</v>
@@ -2625,7 +3192,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>66</v>
@@ -2637,27 +3204,33 @@
         <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>650</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="K8" t="s" s="0">
+        <v>649</v>
+      </c>
       <c r="L8" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>67</v>
@@ -2669,27 +3242,33 @@
         <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>652</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="K9" t="s" s="0">
+        <v>651</v>
+      </c>
       <c r="L9" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>68</v>
@@ -2701,27 +3280,33 @@
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>295</v>
+        <v>278</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>654</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>146</v>
       </c>
+      <c r="K10" t="s" s="0">
+        <v>653</v>
+      </c>
       <c r="L10" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>69</v>
@@ -2733,27 +3318,33 @@
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>296</v>
+        <v>279</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>656</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>147</v>
       </c>
+      <c r="K11" t="s" s="0">
+        <v>655</v>
+      </c>
       <c r="L11" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>658</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>70</v>
@@ -2762,22 +3353,28 @@
         <v>113</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>296</v>
+        <v>279</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>658</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>148</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>657</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2795,16 +3392,16 @@
         <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>149</v>
@@ -2814,11 +3411,11 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>376</v>
+      <c r="A14" s="8" t="s">
+        <v>594</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>88</v>
@@ -2827,19 +3424,19 @@
         <v>17</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>150</v>
+        <v>659</v>
       </c>
       <c r="L14" s="0">
         <v>0</v>
@@ -2853,7 +3450,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>72</v>
@@ -2865,19 +3462,25 @@
         <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>299</v>
+        <v>282</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>661</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>643</v>
+        <v>599</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>660</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -2885,7 +3488,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>72</v>
@@ -2897,19 +3500,25 @@
         <v>19</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>300</v>
+        <v>283</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>663</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>644</v>
+        <v>600</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>662</v>
       </c>
       <c r="L17" s="0">
         <v>0</v>
@@ -2917,74 +3526,86 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>300</v>
+        <v>283</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>665</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>151</v>
       </c>
+      <c r="K18" t="s" s="0">
+        <v>664</v>
+      </c>
       <c r="L18" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="D19" t="s" s="0">
         <v>21</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>299</v>
+        <v>282</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>667</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>152</v>
       </c>
+      <c r="K19" t="s" s="0">
+        <v>666</v>
+      </c>
       <c r="L19" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>115</v>
@@ -2993,59 +3614,71 @@
         <v>22</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>299</v>
+        <v>282</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>669</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="K20" t="s" s="0">
+        <v>668</v>
+      </c>
       <c r="L20" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>73</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="D21" t="s" s="0">
         <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>300</v>
+        <v>283</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>671</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>150</v>
       </c>
+      <c r="K21" t="s" s="0">
+        <v>670</v>
+      </c>
       <c r="L21" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>74</v>
@@ -3054,30 +3687,36 @@
         <v>94</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>301</v>
+        <v>284</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>673</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>154</v>
       </c>
+      <c r="K22" t="s" s="0">
+        <v>672</v>
+      </c>
       <c r="L22" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>75</v>
@@ -3089,83 +3728,101 @@
         <v>24</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>302</v>
+        <v>285</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>675</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="K23" t="s" s="0">
+        <v>674</v>
+      </c>
       <c r="L23" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>76</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="D24" t="s" s="0">
         <v>25</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>300</v>
+        <v>283</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>677</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>156</v>
       </c>
+      <c r="K24" t="s" s="0">
+        <v>676</v>
+      </c>
       <c r="L24" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>77</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="D25" t="s" s="0">
         <v>26</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>303</v>
+        <v>286</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>679</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>157</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>678</v>
       </c>
       <c r="L25" s="0">
         <v>0</v>
@@ -3179,7 +3836,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>78</v>
@@ -3191,30 +3848,36 @@
         <v>27</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>300</v>
+        <v>283</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>681</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>158</v>
       </c>
+      <c r="K27" t="s" s="0">
+        <v>680</v>
+      </c>
       <c r="L27" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>106</v>
@@ -3223,27 +3886,33 @@
         <v>28</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>293</v>
+        <v>276</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>683</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I28" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>159</v>
       </c>
+      <c r="K28" t="s" s="0">
+        <v>682</v>
+      </c>
       <c r="L28" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>79</v>
@@ -3255,30 +3924,36 @@
         <v>29</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>685</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>160</v>
       </c>
+      <c r="K29" t="s" s="0">
+        <v>684</v>
+      </c>
       <c r="L29" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>108</v>
@@ -3287,59 +3962,71 @@
         <v>30</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>687</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="K30" t="s" s="0">
+        <v>686</v>
+      </c>
       <c r="L30" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>109</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>689</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="K31" t="s" s="0">
+        <v>688</v>
+      </c>
       <c r="L31" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>80</v>
@@ -3351,19 +4038,25 @@
         <v>31</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>691</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>163</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>690</v>
       </c>
       <c r="L32" s="0">
         <v>0</v>
@@ -3389,7 +4082,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>398</v>
+        <v>643</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>81</v>
@@ -3398,22 +4091,22 @@
         <v>112</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>164</v>
+        <v>692</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
@@ -3421,7 +4114,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>399</v>
+        <v>644</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>70</v>
@@ -3433,19 +4126,19 @@
         <v>32</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I37" t="s" s="0">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>165</v>
+        <v>693</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
@@ -3453,7 +4146,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>400</v>
+        <v>645</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>82</v>
@@ -3465,19 +4158,19 @@
         <v>33</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>166</v>
+        <v>694</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -3485,10 +4178,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>587</v>
+        <v>547</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>88</v>
@@ -3497,19 +4190,25 @@
         <v>34</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>306</v>
+        <v>289</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>696</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I39" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="K39" t="s" s="0">
+        <v>695</v>
       </c>
       <c r="L39" s="0">
         <v>0</v>
@@ -3517,31 +4216,37 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>116</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>307</v>
+        <v>290</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>698</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I40" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
+      </c>
+      <c r="K40" t="s" s="0">
+        <v>697</v>
       </c>
       <c r="L40" s="0">
         <v>0</v>
@@ -3549,10 +4254,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>114</v>
@@ -3561,19 +4266,25 @@
         <v>35</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>307</v>
+        <v>290</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>700</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I41" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="K41" t="s" s="0">
+        <v>699</v>
       </c>
       <c r="L41" s="0">
         <v>0</v>
@@ -3581,7 +4292,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="B42" t="s" s="0">
         <v>83</v>
@@ -3593,19 +4304,25 @@
         <v>36</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>307</v>
+        <v>290</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>702</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="K42" t="s" s="0">
+        <v>701</v>
       </c>
       <c r="L42" s="0">
         <v>0</v>
@@ -3613,31 +4330,37 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s" s="0">
         <v>84</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="D43" t="s" s="0">
         <v>37</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>308</v>
+        <v>291</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>704</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K43" t="s" s="0">
+        <v>703</v>
       </c>
       <c r="L43" s="0">
         <v>0</v>
@@ -3645,31 +4368,37 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>84</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="D44" t="s" s="0">
         <v>31</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>309</v>
+        <v>292</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>706</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I44" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="K44" t="s" s="0">
+        <v>705</v>
       </c>
       <c r="L44" s="0">
         <v>0</v>
@@ -3677,7 +4406,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="B45" t="s" s="0">
         <v>85</v>
@@ -3689,19 +4418,25 @@
         <v>38</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>310</v>
+        <v>293</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>708</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="K45" t="s" s="0">
+        <v>707</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -3709,31 +4444,37 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>86</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="D46" t="s" s="0">
         <v>39</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>311</v>
+        <v>294</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>710</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="K46" t="s" s="0">
+        <v>709</v>
       </c>
       <c r="L46" s="0">
         <v>0</v>
@@ -3741,31 +4482,37 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="B47" t="s" s="0">
         <v>94</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="D47" t="s" s="0">
         <v>40</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>312</v>
+        <v>295</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>712</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="K47" t="s" s="0">
+        <v>711</v>
       </c>
       <c r="L47" s="0">
         <v>0</v>
@@ -3773,42 +4520,48 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>78</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>714</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I48" t="s" s="0">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="K48" t="s" s="0">
+        <v>713</v>
+      </c>
       <c r="L48" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>117</v>
@@ -3817,19 +4570,25 @@
         <v>41</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>313</v>
+        <v>296</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>716</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I49" t="s" s="0">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="K49" t="s" s="0">
+        <v>715</v>
       </c>
       <c r="L49" s="0">
         <v>0</v>
@@ -3837,7 +4596,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>87</v>
@@ -3849,19 +4608,25 @@
         <v>42</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>718</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="K50" t="s" s="0">
+        <v>717</v>
       </c>
       <c r="L50" s="0">
         <v>0</v>
@@ -3869,31 +4634,31 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>413</v>
+        <v>719</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>87</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="D51" t="s" s="0">
         <v>42</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I51" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>178</v>
+        <v>638</v>
       </c>
       <c r="L51" s="0">
         <v>0</v>
@@ -3901,31 +4666,31 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>414</v>
+        <v>720</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>88</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="D52" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I52" t="s" s="0">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>179</v>
+        <v>639</v>
       </c>
       <c r="L52" s="0">
         <v>0</v>
@@ -3933,31 +4698,31 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>415</v>
+        <v>721</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="H53" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I53" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>180</v>
+        <v>640</v>
       </c>
       <c r="L53" s="0">
         <v>0</v>
@@ -3965,7 +4730,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>416</v>
+        <v>722</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>89</v>
@@ -3977,19 +4742,19 @@
         <v>11</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I54" t="s" s="0">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>181</v>
+        <v>641</v>
       </c>
       <c r="L54" s="0">
         <v>0</v>
@@ -3997,7 +4762,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>417</v>
+        <v>723</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>86</v>
@@ -4009,19 +4774,19 @@
         <v>11</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="H55" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I55" t="s" s="0">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>182</v>
+        <v>642</v>
       </c>
       <c r="L55" s="0">
         <v>0</v>
@@ -4053,31 +4818,37 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>90</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="D60" t="s" s="0">
         <v>14</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>301</v>
+        <v>284</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>725</v>
       </c>
       <c r="H60" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I60" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
+      </c>
+      <c r="K60" t="s" s="0">
+        <v>724</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -4085,10 +4856,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>78</v>
@@ -4097,19 +4868,25 @@
         <v>43</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>316</v>
+        <v>299</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>727</v>
       </c>
       <c r="H61" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I61" t="s" s="0">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
+      </c>
+      <c r="K61" t="s" s="0">
+        <v>726</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -4117,31 +4894,37 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>78</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>301</v>
+        <v>284</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>729</v>
       </c>
       <c r="H62" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I62" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
+      </c>
+      <c r="K62" t="s" s="0">
+        <v>728</v>
       </c>
       <c r="L62" s="0">
         <v>0</v>
@@ -4149,31 +4932,37 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>91</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="D63" t="s" s="0">
         <v>16</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>731</v>
       </c>
       <c r="H63" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I63" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
+      </c>
+      <c r="K63" t="s" s="0">
+        <v>730</v>
       </c>
       <c r="L63" s="0">
         <v>0</v>
@@ -4181,31 +4970,37 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>101</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="D64" t="s" s="0">
         <v>17</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>314</v>
+        <v>297</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>733</v>
       </c>
       <c r="H64" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I64" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
+      </c>
+      <c r="K64" t="s" s="0">
+        <v>732</v>
       </c>
       <c r="L64" s="0">
         <v>0</v>
@@ -4213,7 +5008,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="B65" t="s" s="0">
         <v>92</v>
@@ -4225,19 +5020,25 @@
         <v>44</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>303</v>
+        <v>286</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>735</v>
       </c>
       <c r="H65" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I65" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
+      </c>
+      <c r="K65" t="s" s="0">
+        <v>734</v>
       </c>
       <c r="L65" s="0">
         <v>0</v>
@@ -4245,31 +5046,37 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="B66" t="s" s="0">
         <v>93</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="D66" t="s" s="0">
         <v>18</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>301</v>
+        <v>284</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>737</v>
       </c>
       <c r="H66" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I66" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
+      </c>
+      <c r="K66" t="s" s="0">
+        <v>736</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -4277,31 +5084,37 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="B67" t="s" s="0">
         <v>68</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="D67" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>739</v>
       </c>
       <c r="H67" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I67" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
+      </c>
+      <c r="K67" t="s" s="0">
+        <v>738</v>
       </c>
       <c r="L67" s="0">
         <v>0</v>
@@ -4309,31 +5122,37 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>94</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="D68" t="s" s="0">
         <v>20</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>741</v>
       </c>
       <c r="H68" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I68" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="K68" t="s" s="0">
+        <v>740</v>
       </c>
       <c r="L68" s="0">
         <v>0</v>
@@ -4341,10 +5160,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>117</v>
@@ -4353,19 +5172,25 @@
         <v>21</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>317</v>
+        <v>300</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>743</v>
       </c>
       <c r="H69" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I69" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
+      </c>
+      <c r="K69" t="s" s="0">
+        <v>742</v>
       </c>
       <c r="L69" s="0">
         <v>0</v>
@@ -4373,7 +5198,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>95</v>
@@ -4382,22 +5207,28 @@
         <v>118</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>314</v>
+        <v>297</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>745</v>
       </c>
       <c r="H70" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I70" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
+      </c>
+      <c r="K70" t="s" s="0">
+        <v>744</v>
       </c>
       <c r="L70" s="0">
         <v>0</v>
@@ -4405,31 +5236,37 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="B71" t="s" s="0">
         <v>95</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="D71" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>301</v>
+        <v>284</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>746</v>
       </c>
       <c r="H71" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I71" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
+      </c>
+      <c r="K71" t="s" s="0">
+        <v>724</v>
       </c>
       <c r="L71" s="0">
         <v>0</v>
@@ -4437,31 +5274,37 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="B72" t="s" s="0">
         <v>96</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="D72" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>314</v>
+        <v>297</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>748</v>
       </c>
       <c r="H72" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I72" t="s" s="0">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
+      </c>
+      <c r="K72" t="s" s="0">
+        <v>747</v>
       </c>
       <c r="L72" s="0">
         <v>0</v>
@@ -4469,10 +5312,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>583</v>
+        <v>543</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>119</v>
@@ -4481,19 +5324,25 @@
         <v>13</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>750</v>
       </c>
       <c r="H73" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I73" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
+      </c>
+      <c r="K73" t="s" s="0">
+        <v>749</v>
       </c>
       <c r="L73" s="0">
         <v>0</v>
@@ -4501,7 +5350,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>97</v>
@@ -4513,19 +5362,25 @@
         <v>45</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>300</v>
+        <v>283</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>752</v>
       </c>
       <c r="H74" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I74" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
+      </c>
+      <c r="K74" t="s" s="0">
+        <v>751</v>
       </c>
       <c r="L74" s="0">
         <v>0</v>
@@ -4533,7 +5388,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>68</v>
@@ -4542,22 +5397,28 @@
         <v>121</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>591</v>
+        <v>551</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>291</v>
+        <v>274</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>754</v>
       </c>
       <c r="H75" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I75" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
+      </c>
+      <c r="K75" t="s" s="0">
+        <v>753</v>
       </c>
       <c r="L75" s="0">
         <v>0</v>
@@ -4565,7 +5426,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>98</v>
@@ -4574,22 +5435,28 @@
         <v>122</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>584</v>
+        <v>544</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>301</v>
+        <v>284</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>756</v>
       </c>
       <c r="H76" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I76" t="s" s="0">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
+      </c>
+      <c r="K76" t="s" s="0">
+        <v>755</v>
       </c>
       <c r="L76" s="0">
         <v>0</v>
@@ -4597,7 +5464,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>66</v>
@@ -4609,19 +5476,25 @@
         <v>46</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>301</v>
+        <v>284</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>758</v>
       </c>
       <c r="H77" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I77" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>636</v>
+        <v>597</v>
+      </c>
+      <c r="K77" t="s" s="0">
+        <v>757</v>
       </c>
       <c r="L77" s="0">
         <v>0</v>
@@ -4635,7 +5508,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>435</v>
+        <v>759</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>99</v>
@@ -4644,22 +5517,28 @@
         <v>124</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>762</v>
       </c>
       <c r="H79" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I79" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>199</v>
+        <v>760</v>
+      </c>
+      <c r="K79" t="s" s="0">
+        <v>761</v>
       </c>
       <c r="L79" s="0">
         <v>0</v>
@@ -4667,31 +5546,37 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>436</v>
+        <v>763</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="D80" t="s" s="0">
         <v>47</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>319</v>
+        <v>302</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>766</v>
       </c>
       <c r="H80" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I80" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>637</v>
+        <v>764</v>
+      </c>
+      <c r="K80" t="s" s="0">
+        <v>765</v>
       </c>
       <c r="L80" s="0">
         <v>0</v>
@@ -4699,7 +5584,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>437</v>
+        <v>767</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>112</v>
@@ -4711,19 +5596,25 @@
         <v>48</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>770</v>
       </c>
       <c r="H81" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I81" t="s" s="0">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>200</v>
+        <v>768</v>
+      </c>
+      <c r="K81" t="s" s="0">
+        <v>769</v>
       </c>
       <c r="L81" s="0">
         <v>0</v>
@@ -4731,7 +5622,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>438</v>
+        <v>771</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>100</v>
@@ -4743,19 +5634,25 @@
         <v>49</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>320</v>
+        <v>303</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>774</v>
       </c>
       <c r="H82" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I82" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>201</v>
+        <v>772</v>
+      </c>
+      <c r="K82" t="s" s="0">
+        <v>773</v>
       </c>
       <c r="L82" s="0">
         <v>0</v>
@@ -4763,31 +5660,37 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>439</v>
+        <v>775</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="D83" t="s" s="0">
         <v>50</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>314</v>
+        <v>297</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>778</v>
       </c>
       <c r="H83" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I83" t="s" s="0">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>638</v>
+        <v>776</v>
+      </c>
+      <c r="K83" t="s" s="0">
+        <v>777</v>
       </c>
       <c r="L83" s="0">
         <v>0</v>
@@ -4795,10 +5698,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>440</v>
+        <v>779</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>94</v>
@@ -4807,19 +5710,25 @@
         <v>51</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>315</v>
+        <v>298</v>
+      </c>
+      <c r="G84" t="s" s="0">
+        <v>782</v>
       </c>
       <c r="H84" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I84" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>202</v>
+        <v>780</v>
+      </c>
+      <c r="K84" t="s" s="0">
+        <v>781</v>
       </c>
       <c r="L84" s="0">
         <v>0</v>
@@ -4833,7 +5742,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B86" t="s" s="0">
         <v>82</v>
@@ -4842,22 +5751,28 @@
         <v>125</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="G86" t="s" s="0">
+        <v>784</v>
       </c>
       <c r="H86" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I86" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
+      </c>
+      <c r="K86" t="s" s="0">
+        <v>783</v>
       </c>
       <c r="L86" s="0">
         <v>0</v>
@@ -4865,7 +5780,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="B87" t="s" s="0">
         <v>101</v>
@@ -4877,19 +5792,25 @@
         <v>52</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="G87" t="s" s="0">
+        <v>786</v>
       </c>
       <c r="H87" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I87" t="s" s="0">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
+      </c>
+      <c r="K87" t="s" s="0">
+        <v>785</v>
       </c>
       <c r="L87" s="0">
         <v>0</v>
@@ -4897,10 +5818,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>127</v>
@@ -4909,19 +5830,25 @@
         <v>53</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>295</v>
+        <v>278</v>
+      </c>
+      <c r="G88" t="s" s="0">
+        <v>788</v>
       </c>
       <c r="H88" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I88" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
+      </c>
+      <c r="K88" t="s" s="0">
+        <v>787</v>
       </c>
       <c r="L88" s="0">
         <v>0</v>
@@ -4929,7 +5856,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="B89" t="s" s="0">
         <v>102</v>
@@ -4941,19 +5868,25 @@
         <v>54</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>295</v>
+        <v>278</v>
+      </c>
+      <c r="G89" t="s" s="0">
+        <v>790</v>
       </c>
       <c r="H89" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I89" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
+      </c>
+      <c r="K89" t="s" s="0">
+        <v>789</v>
       </c>
       <c r="L89" s="0">
         <v>0</v>
@@ -4961,31 +5894,37 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B90" t="s" s="0">
         <v>103</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="D90" t="s" s="0">
         <v>41</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>321</v>
+        <v>304</v>
+      </c>
+      <c r="G90" t="s" s="0">
+        <v>792</v>
       </c>
       <c r="H90" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I90" t="s" s="0">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
+      </c>
+      <c r="K90" t="s" s="0">
+        <v>791</v>
       </c>
       <c r="L90" s="0">
         <v>0</v>
@@ -4993,10 +5932,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>129</v>
@@ -5005,19 +5944,25 @@
         <v>55</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>301</v>
+        <v>284</v>
+      </c>
+      <c r="G91" t="s" s="0">
+        <v>794</v>
       </c>
       <c r="H91" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I91" t="s" s="0">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
+      </c>
+      <c r="K91" t="s" s="0">
+        <v>793</v>
       </c>
       <c r="L91" s="0">
         <v>0</v>
@@ -5025,7 +5970,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="B92" t="s" s="0">
         <v>94</v>
@@ -5037,19 +5982,25 @@
         <v>56</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>322</v>
+        <v>305</v>
+      </c>
+      <c r="G92" t="s" s="0">
+        <v>796</v>
       </c>
       <c r="H92" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I92" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
+      </c>
+      <c r="K92" t="s" s="0">
+        <v>795</v>
       </c>
       <c r="L92" s="0">
         <v>0</v>
@@ -5057,7 +6008,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="B93" t="s" s="0">
         <v>104</v>
@@ -5069,19 +6020,25 @@
         <v>57</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>305</v>
+        <v>288</v>
+      </c>
+      <c r="G93" t="s" s="0">
+        <v>798</v>
       </c>
       <c r="H93" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I93" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
+      </c>
+      <c r="K93" t="s" s="0">
+        <v>797</v>
       </c>
       <c r="L93" s="0">
         <v>0</v>
@@ -5089,10 +6046,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>70</v>
@@ -5101,19 +6058,25 @@
         <v>58</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>323</v>
+        <v>306</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>800</v>
       </c>
       <c r="H94" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I94" t="s" s="0">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
+      </c>
+      <c r="K94" t="s" s="0">
+        <v>799</v>
       </c>
       <c r="L94" s="0">
         <v>0</v>
@@ -5121,10 +6084,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>70</v>
@@ -5133,19 +6096,25 @@
         <v>59</v>
       </c>
       <c r="E95" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F95" s="6" t="s">
-        <v>298</v>
+      <c r="G95" t="s" s="0">
+        <v>802</v>
       </c>
       <c r="H95" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I95" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
+      </c>
+      <c r="K95" t="s" s="0">
+        <v>801</v>
       </c>
       <c r="L95" s="0">
         <v>0</v>
@@ -5188,7 +6157,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="B102" t="s" s="0">
         <v>103</v>
@@ -5200,19 +6169,25 @@
         <v>45</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>325</v>
+        <v>308</v>
+      </c>
+      <c r="G102" t="s" s="0">
+        <v>805</v>
       </c>
       <c r="H102" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I102" t="s" s="0">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>639</v>
+        <v>803</v>
+      </c>
+      <c r="K102" t="s" s="0">
+        <v>804</v>
       </c>
       <c r="L102" s="0">
         <v>0</v>
@@ -5220,31 +6195,37 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>133</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>591</v>
+        <v>551</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>292</v>
+        <v>275</v>
+      </c>
+      <c r="G103" t="s" s="0">
+        <v>808</v>
       </c>
       <c r="H103" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I103" t="s" s="0">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>640</v>
+        <v>806</v>
+      </c>
+      <c r="K103" t="s" s="0">
+        <v>807</v>
       </c>
       <c r="L103" s="0">
         <v>0</v>
@@ -5252,7 +6233,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="B104" t="s" s="0">
         <v>94</v>
@@ -5261,22 +6242,28 @@
         <v>134</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>584</v>
+        <v>544</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>290</v>
+        <v>273</v>
+      </c>
+      <c r="G104" t="s" s="0">
+        <v>811</v>
       </c>
       <c r="H104" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I104" t="s" s="0">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>213</v>
+        <v>809</v>
+      </c>
+      <c r="K104" t="s" s="0">
+        <v>810</v>
       </c>
       <c r="L104" s="0">
         <v>0</v>
@@ -5284,7 +6271,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="B105" t="s" s="0">
         <v>104</v>
@@ -5296,19 +6283,25 @@
         <v>46</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>314</v>
+        <v>297</v>
+      </c>
+      <c r="G105" t="s" s="0">
+        <v>814</v>
       </c>
       <c r="H105" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I105" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>214</v>
+        <v>812</v>
+      </c>
+      <c r="K105" t="s" s="0">
+        <v>813</v>
       </c>
       <c r="L105" s="0">
         <v>0</v>
@@ -5316,7 +6309,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="B106" t="s" s="0">
         <v>79</v>
@@ -5328,19 +6321,25 @@
         <v>10</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>314</v>
+        <v>297</v>
+      </c>
+      <c r="G106" t="s" s="0">
+        <v>817</v>
       </c>
       <c r="H106" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I106" t="s" s="0">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>641</v>
+        <v>815</v>
+      </c>
+      <c r="K106" t="s" s="0">
+        <v>816</v>
       </c>
       <c r="L106" s="0">
         <v>0</v>
@@ -5448,7 +6447,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>457</v>
+        <v>818</v>
       </c>
       <c r="B127" t="s" s="0">
         <v>96</v>
@@ -5460,22 +6459,25 @@
         <v>60</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>326</v>
+        <v>309</v>
+      </c>
+      <c r="G127" t="s" s="0">
+        <v>820</v>
       </c>
       <c r="H127" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I127" t="s" s="0">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>215</v>
+        <v>603</v>
       </c>
       <c r="K127" t="s" s="0">
-        <v>645</v>
+        <v>819</v>
       </c>
       <c r="L127" s="0">
         <v>0</v>
@@ -5483,10 +6485,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>458</v>
+        <v>821</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>583</v>
+        <v>543</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>136</v>
@@ -5495,22 +6497,25 @@
         <v>61</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>327</v>
+        <v>310</v>
+      </c>
+      <c r="G128" t="s" s="0">
+        <v>823</v>
       </c>
       <c r="H128" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I128" t="s" s="0">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>642</v>
+        <v>598</v>
       </c>
       <c r="K128" t="s" s="0">
-        <v>646</v>
+        <v>822</v>
       </c>
       <c r="L128" s="0">
         <v>0</v>
@@ -5518,7 +6523,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>465</v>
+        <v>824</v>
       </c>
       <c r="B129" t="s" s="0">
         <v>97</v>
@@ -5530,22 +6535,25 @@
         <v>62</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>318</v>
+        <v>301</v>
+      </c>
+      <c r="G129" t="s" s="0">
+        <v>826</v>
       </c>
       <c r="H129" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I129" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="K129" t="s" s="0">
-        <v>647</v>
+        <v>825</v>
       </c>
       <c r="L129" s="0">
         <v>0</v>
@@ -5553,7 +6561,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>459</v>
+        <v>827</v>
       </c>
       <c r="B130" t="s" s="0">
         <v>68</v>
@@ -5565,22 +6573,25 @@
         <v>53</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
+      </c>
+      <c r="G130" t="s" s="0">
+        <v>829</v>
       </c>
       <c r="H130" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I130" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="K130" t="s" s="0">
-        <v>648</v>
+        <v>828</v>
       </c>
       <c r="L130" s="0">
         <v>0</v>
@@ -5588,7 +6599,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>460</v>
+        <v>830</v>
       </c>
       <c r="B131" t="s" s="0">
         <v>98</v>
@@ -5600,22 +6611,25 @@
         <v>54</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>324</v>
+        <v>307</v>
+      </c>
+      <c r="G131" t="s" s="0">
+        <v>832</v>
       </c>
       <c r="H131" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I131" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="K131" t="s" s="0">
-        <v>649</v>
+        <v>831</v>
       </c>
       <c r="L131" s="0">
         <v>0</v>
@@ -5623,7 +6637,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>461</v>
+        <v>833</v>
       </c>
       <c r="B132" t="s" s="0">
         <v>66</v>
@@ -5635,22 +6649,25 @@
         <v>41</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>324</v>
+        <v>307</v>
+      </c>
+      <c r="G132" t="s" s="0">
+        <v>835</v>
       </c>
       <c r="H132" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I132" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="K132" t="s" s="0">
-        <v>650</v>
+        <v>834</v>
       </c>
       <c r="L132" s="0">
         <v>0</v>
@@ -5658,7 +6675,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>466</v>
+        <v>836</v>
       </c>
       <c r="B133" t="s" s="0">
         <v>94</v>
@@ -5670,22 +6687,25 @@
         <v>55</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>322</v>
+        <v>305</v>
+      </c>
+      <c r="G133" t="s" s="0">
+        <v>838</v>
       </c>
       <c r="H133" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I133" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>220</v>
+        <v>604</v>
       </c>
       <c r="K133" t="s" s="0">
-        <v>651</v>
+        <v>837</v>
       </c>
       <c r="L133" s="0">
         <v>0</v>
@@ -5693,7 +6713,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>462</v>
+        <v>839</v>
       </c>
       <c r="B134" t="s" s="0">
         <v>99</v>
@@ -5705,22 +6725,25 @@
         <v>56</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>328</v>
+        <v>311</v>
+      </c>
+      <c r="G134" t="s" s="0">
+        <v>841</v>
       </c>
       <c r="H134" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I134" t="s" s="0">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="K134" t="s" s="0">
-        <v>652</v>
+        <v>840</v>
       </c>
       <c r="L134" s="0">
         <v>0</v>
@@ -5728,10 +6751,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>463</v>
+        <v>842</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>134</v>
@@ -5740,22 +6763,25 @@
         <v>57</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>318</v>
+        <v>301</v>
+      </c>
+      <c r="G135" t="s" s="0">
+        <v>844</v>
       </c>
       <c r="H135" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I135" t="s" s="0">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="K135" t="s" s="0">
-        <v>653</v>
+        <v>843</v>
       </c>
       <c r="L135" s="0">
         <v>0</v>
@@ -5763,7 +6789,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>464</v>
+        <v>845</v>
       </c>
       <c r="B136" t="s" s="0">
         <v>112</v>
@@ -5775,22 +6801,25 @@
         <v>58</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+      <c r="G136" t="s" s="0">
+        <v>847</v>
       </c>
       <c r="H136" t="s" s="0">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="I136" t="s" s="0">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>223</v>
+        <v>602</v>
       </c>
       <c r="K136" t="s" s="0">
-        <v>654</v>
+        <v>846</v>
       </c>
       <c r="L136" s="0">
         <v>0</v>
@@ -5889,73 +6918,73 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>551</v>
+        <v>511</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>552</v>
+        <v>512</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>553</v>
+        <v>513</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>554</v>
+        <v>514</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="K1" t="s" s="0">
-        <v>556</v>
+        <v>516</v>
       </c>
       <c r="L1" t="s" s="0">
-        <v>557</v>
+        <v>517</v>
       </c>
       <c r="M1" t="s" s="0">
-        <v>558</v>
+        <v>518</v>
       </c>
       <c r="N1" t="s" s="0">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="O1" t="s" s="0">
-        <v>560</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="F2" s="8"/>
       <c r="I2" s="0">
         <v>900</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K2" s="7">
         <v>45292</v>
@@ -5964,30 +6993,30 @@
         <v>44955</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="H3" s="0">
         <v>1800</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K3" s="7">
         <v>43852</v>
@@ -5996,30 +7025,30 @@
         <v>44927</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>605</v>
+        <v>565</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="F4" s="0">
         <v>20</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K4" s="7">
         <v>43848</v>
@@ -6028,30 +7057,30 @@
         <v>44927</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>604</v>
+        <v>564</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="F5" s="0">
         <v>14</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K5" s="7">
         <v>43831</v>
@@ -6060,31 +7089,31 @@
         <v>44927</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>632</v>
+        <v>592</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="F6" s="8"/>
       <c r="I6" s="0">
         <v>900</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K6" s="7">
         <v>43859</v>
@@ -6093,30 +7122,30 @@
         <v>44955</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="F7" s="8">
         <v>11.64</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K7" s="7">
         <v>43831</v>
@@ -6125,7 +7154,7 @@
         <v>44927</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -6140,25 +7169,25 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="F9" s="8">
         <v>13.29</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K9" s="7">
         <v>43832</v>
@@ -6167,30 +7196,30 @@
         <v>44928</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="F10" s="0">
         <v>18</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K10" s="7">
         <v>43833</v>
@@ -6199,30 +7228,30 @@
         <v>44929</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="F11" s="0">
         <v>21</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K11" s="7">
         <v>43834</v>
@@ -6231,30 +7260,30 @@
         <v>44930</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="0">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="F12" s="0">
         <v>25</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K12" s="7">
         <v>43835</v>
@@ -6263,7 +7292,7 @@
         <v>44931</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -6275,25 +7304,25 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s" s="0">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>597</v>
+        <v>557</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="G14" s="0">
         <v>15</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K14" s="7">
         <v>43838</v>
@@ -6302,30 +7331,30 @@
         <v>44934</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s" s="0">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="G15" s="0">
         <v>35</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K15" s="7">
         <v>43839</v>
@@ -6334,30 +7363,30 @@
         <v>44935</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s" s="0">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>599</v>
+        <v>559</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="G16" s="0">
         <v>65</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K16" s="7">
         <v>43840</v>
@@ -6366,7 +7395,7 @@
         <v>44936</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -6378,25 +7407,25 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s" s="0">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="H18" s="0">
         <v>950</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K18" s="7">
         <v>43842</v>
@@ -6405,30 +7434,30 @@
         <v>44938</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s" s="0">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>601</v>
+        <v>561</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="H19" s="0">
         <v>2500</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K19" s="7">
         <v>43843</v>
@@ -6437,30 +7466,30 @@
         <v>44939</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="0">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>602</v>
+        <v>562</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="H20" s="0">
         <v>6500</v>
       </c>
       <c r="J20" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K20" s="7">
         <v>43844</v>
@@ -6469,30 +7498,30 @@
         <v>44940</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s" s="0">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="H21" s="0">
         <v>12500</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K21" s="7">
         <v>43845</v>
@@ -6501,7 +7530,7 @@
         <v>44941</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -6512,25 +7541,25 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s" s="0">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>606</v>
+        <v>566</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="F23" s="0">
         <v>31</v>
       </c>
       <c r="J23" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K23" s="7">
         <v>43849</v>
@@ -6539,7 +7568,7 @@
         <v>44945</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -6551,25 +7580,25 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s" s="0">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>607</v>
+        <v>567</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="H25" s="0">
         <v>850</v>
       </c>
       <c r="J25" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K25" s="7">
         <v>43851</v>
@@ -6578,30 +7607,30 @@
         <v>44947</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s" s="0">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>609</v>
+        <v>569</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="H26" s="0">
         <v>3250</v>
       </c>
       <c r="J26" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K26" s="7">
         <v>43853</v>
@@ -6610,7 +7639,7 @@
         <v>44949</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -6622,25 +7651,25 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s" s="0">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="I28" s="0">
         <v>49</v>
       </c>
       <c r="J28" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K28" s="7">
         <v>43855</v>
@@ -6649,7 +7678,7 @@
         <v>44951</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -6661,25 +7690,25 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s" s="0">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="I30" s="0">
         <v>125</v>
       </c>
       <c r="J30" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K30" s="7">
         <v>43856</v>
@@ -6688,30 +7717,30 @@
         <v>44952</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s" s="0">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>564</v>
+        <v>524</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="I31" s="0">
         <v>300</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K31" s="7">
         <v>43857</v>
@@ -6720,30 +7749,30 @@
         <v>44953</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s" s="0">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
       <c r="I32" s="0">
         <v>600</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K32" s="7">
         <v>43858</v>
@@ -6752,30 +7781,30 @@
         <v>44954</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s" s="0">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="I33" s="0">
         <v>1500</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K33" s="7">
         <v>43860</v>
@@ -6784,7 +7813,7 @@
         <v>44956</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -6809,25 +7838,25 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s" s="0">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>612</v>
+        <v>572</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="F39" s="8">
         <v>9.0500000000000007</v>
       </c>
       <c r="J39" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K39" s="7">
         <v>43831</v>
@@ -6836,30 +7865,30 @@
         <v>44927</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s" s="0">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>613</v>
+        <v>573</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="F40" s="8">
         <v>13.58</v>
       </c>
       <c r="J40" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K40" s="7">
         <v>43832</v>
@@ -6868,30 +7897,30 @@
         <v>44928</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s" s="0">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C41" s="1">
         <v>407</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="F41" s="0">
         <v>18.21</v>
       </c>
       <c r="J41" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K41" s="7">
         <v>43833</v>
@@ -6900,30 +7929,30 @@
         <v>44929</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s" s="0">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>615</v>
+        <v>575</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
       <c r="F42" s="0">
         <v>21.05</v>
       </c>
       <c r="J42" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K42" s="7">
         <v>43834</v>
@@ -6932,30 +7961,30 @@
         <v>44930</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s" s="0">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C43" s="1">
         <v>507</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="F43" s="0">
         <v>26.03</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K43" s="7">
         <v>43835</v>
@@ -6964,7 +7993,7 @@
         <v>44931</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -6985,25 +8014,25 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s" s="0">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="G46" s="0">
         <v>15</v>
       </c>
       <c r="J46" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K46" s="7">
         <v>43838</v>
@@ -7012,30 +8041,30 @@
         <v>45658</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s" s="0">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="G47" s="0">
         <v>35</v>
       </c>
       <c r="J47" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K47" s="7">
         <v>43839</v>
@@ -7044,30 +8073,30 @@
         <v>44935</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s" s="0">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="G48" s="0">
         <v>65</v>
       </c>
       <c r="J48" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K48" s="7">
         <v>43840</v>
@@ -7076,7 +8105,7 @@
         <v>44936</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -7089,25 +8118,25 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s" s="0">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>617</v>
+        <v>577</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="H50" s="0">
         <v>950</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K50" s="7">
         <v>43842</v>
@@ -7116,30 +8145,30 @@
         <v>44938</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s" s="0">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>619</v>
+        <v>579</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="H51" s="0">
         <v>2500</v>
       </c>
       <c r="J51" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K51" s="7">
         <v>43843</v>
@@ -7148,30 +8177,30 @@
         <v>44939</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s" s="0">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="H52" s="0">
         <v>6500</v>
       </c>
       <c r="J52" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K52" s="7">
         <v>43844</v>
@@ -7180,30 +8209,30 @@
         <v>44940</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s" s="0">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>567</v>
+        <v>527</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="H53" s="0">
         <v>12500</v>
       </c>
       <c r="J53" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K53" s="7">
         <v>43845</v>
@@ -7212,7 +8241,7 @@
         <v>44941</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -7224,25 +8253,25 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s" s="0">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>621</v>
+        <v>581</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="F55" s="0">
         <v>14</v>
       </c>
       <c r="J55" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K55" s="7">
         <v>43847</v>
@@ -7251,30 +8280,30 @@
         <v>44943</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s" s="0">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>622</v>
+        <v>582</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="F56" s="0">
         <v>20</v>
       </c>
       <c r="J56" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K56" s="7">
         <v>43848</v>
@@ -7283,30 +8312,30 @@
         <v>44944</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s" s="0">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>623</v>
+        <v>583</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="F57" s="0">
         <v>31</v>
       </c>
       <c r="J57" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K57" s="7">
         <v>43849</v>
@@ -7315,7 +8344,7 @@
         <v>44945</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -7328,25 +8357,25 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s" s="0">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>624</v>
+        <v>584</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="H59" s="0">
         <v>850</v>
       </c>
       <c r="J59" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K59" s="7">
         <v>43851</v>
@@ -7355,30 +8384,30 @@
         <v>44947</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s" s="0">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="H60" s="0">
         <v>1800</v>
       </c>
       <c r="J60" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K60" s="7">
         <v>43852</v>
@@ -7387,30 +8416,30 @@
         <v>44948</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s" s="0">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="H61" s="0">
         <v>3250</v>
       </c>
       <c r="J61" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K61" s="7">
         <v>43853</v>
@@ -7419,7 +8448,7 @@
         <v>44949</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -7432,25 +8461,25 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s" s="0">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>611</v>
+        <v>571</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="I63" s="0">
         <v>49</v>
       </c>
       <c r="J63" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K63" s="7">
         <v>43855</v>
@@ -7459,7 +8488,7 @@
         <v>44951</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -7472,25 +8501,25 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s" s="0">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="I65" s="0">
         <v>125</v>
       </c>
       <c r="J65" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K65" s="7">
         <v>43856</v>
@@ -7499,30 +8528,30 @@
         <v>44952</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s" s="0">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
       <c r="I66" s="0">
         <v>300</v>
       </c>
       <c r="J66" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K66" s="7">
         <v>43857</v>
@@ -7531,30 +8560,30 @@
         <v>44953</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s" s="0">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>629</v>
+        <v>589</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>542</v>
+        <v>502</v>
       </c>
       <c r="I67" s="0">
         <v>600</v>
       </c>
       <c r="J67" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K67" s="7">
         <v>43858</v>
@@ -7563,30 +8592,30 @@
         <v>44954</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s" s="0">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>631</v>
+        <v>591</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="I68" s="0">
         <v>1500</v>
       </c>
       <c r="J68" t="s" s="0">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K68" s="7">
         <v>43860</v>
@@ -7595,7 +8624,7 @@
         <v>44956</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">

--- a/AppVehiculos/resources/SistemasVehiculos.xlsx
+++ b/AppVehiculos/resources/SistemasVehiculos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="848">
   <si>
     <t>Nombre</t>
   </si>
@@ -1975,6 +1975,114 @@
     <t>25187786001225455548</t>
   </si>
   <si>
+    <t>09763856B</t>
+  </si>
+  <si>
+    <t>09768995K</t>
+  </si>
+  <si>
+    <t>09770039F</t>
+  </si>
+  <si>
+    <t>09774163Z</t>
+  </si>
+  <si>
+    <t>09774199G</t>
+  </si>
+  <si>
+    <t>09798076F</t>
+  </si>
+  <si>
+    <t>09798287B</t>
+  </si>
+  <si>
+    <t>09799247M</t>
+  </si>
+  <si>
+    <t>09800420M</t>
+  </si>
+  <si>
+    <t>09800921T</t>
+  </si>
+  <si>
+    <t>09801107W</t>
+  </si>
+  <si>
+    <t>11437269J</t>
+  </si>
+  <si>
+    <t>11637421L</t>
+  </si>
+  <si>
+    <t>11966672W</t>
+  </si>
+  <si>
+    <t>11662128R</t>
+  </si>
+  <si>
+    <t>11673213T</t>
+  </si>
+  <si>
+    <t>11942643P</t>
+  </si>
+  <si>
+    <t>11971207Y</t>
+  </si>
+  <si>
+    <t>11957847D</t>
+  </si>
+  <si>
+    <t>11959249P</t>
+  </si>
+  <si>
+    <t>11959694Q</t>
+  </si>
+  <si>
+    <t>00750184330702510011</t>
+  </si>
+  <si>
+    <t>21508149175421346497</t>
+  </si>
+  <si>
+    <t>21346154503164978451</t>
+  </si>
+  <si>
+    <t>25187786311225455548</t>
+  </si>
+  <si>
+    <t>63516541828944000984</t>
+  </si>
+  <si>
+    <t>23658965274585223202</t>
+  </si>
+  <si>
+    <t>32658012367712548745</t>
+  </si>
+  <si>
+    <t>23652365142254222000</t>
+  </si>
+  <si>
+    <t>20012541150023365233</t>
+  </si>
+  <si>
+    <t>32584216971684051000</t>
+  </si>
+  <si>
+    <t>65645150865168448896</t>
+  </si>
+  <si>
+    <t>26551681807651415636</t>
+  </si>
+  <si>
+    <t>99558741836555551120</t>
+  </si>
+  <si>
+    <t>52198484752100515144</t>
+  </si>
+  <si>
+    <t>51556584221251000254</t>
+  </si>
+  <si>
     <t>GR9420125003305201112544</t>
   </si>
   <si>
@@ -2005,9 +2113,6 @@
     <t>ACP00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>00750184330702510011</t>
-  </si>
-  <si>
     <t>SM5925894363435485700142</t>
   </si>
   <si>
@@ -2104,15 +2209,6 @@
     <t>GMM02@vehiculos2025.com</t>
   </si>
   <si>
-    <t>21508149175421346497</t>
-  </si>
-  <si>
-    <t>21346154503164978451</t>
-  </si>
-  <si>
-    <t>25187786311225455548</t>
-  </si>
-  <si>
     <t>ES4723164897642213030615</t>
   </si>
   <si>
@@ -2185,21 +2281,6 @@
     <t>IAG00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>09763856B</t>
-  </si>
-  <si>
-    <t>09768995K</t>
-  </si>
-  <si>
-    <t>09770039F</t>
-  </si>
-  <si>
-    <t>09774163Z</t>
-  </si>
-  <si>
-    <t>09774199G</t>
-  </si>
-  <si>
     <t>ES8020960043033000100000</t>
   </si>
   <si>
@@ -2305,72 +2386,36 @@
     <t>FDL00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>09798076F</t>
-  </si>
-  <si>
-    <t>63516541828944000984</t>
-  </si>
-  <si>
     <t>ES8163516541828944000984</t>
   </si>
   <si>
     <t>SDM00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>09798287B</t>
-  </si>
-  <si>
-    <t>23658965274585223202</t>
-  </si>
-  <si>
     <t>ES6223658965274585223202</t>
   </si>
   <si>
     <t>EGM00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>09799247M</t>
-  </si>
-  <si>
-    <t>32658012367712548745</t>
-  </si>
-  <si>
     <t>FI6132658012367712548745</t>
   </si>
   <si>
     <t>GPM00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>09800420M</t>
-  </si>
-  <si>
-    <t>23652365142254222000</t>
-  </si>
-  <si>
     <t>ES7223652365142254222000</t>
   </si>
   <si>
     <t>EAM00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>09800921T</t>
-  </si>
-  <si>
-    <t>20012541150023365233</t>
-  </si>
-  <si>
     <t>FR3820012541150023365233</t>
   </si>
   <si>
     <t>MMM00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>09801107W</t>
-  </si>
-  <si>
-    <t>32584216971684051000</t>
-  </si>
-  <si>
     <t>ES9232584216971684051000</t>
   </si>
   <si>
@@ -2437,133 +2482,88 @@
     <t>KSC00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>65645150865168448896</t>
-  </si>
-  <si>
     <t>AT8365645150865168448896</t>
   </si>
   <si>
     <t>MHC00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>26551681807651415636</t>
-  </si>
-  <si>
     <t>IT3526551681807651415636</t>
   </si>
   <si>
     <t>CLD00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>99558741836555551120</t>
-  </si>
-  <si>
     <t>HU2399558741836555551120</t>
   </si>
   <si>
     <t>MFD00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>52198484752100515144</t>
-  </si>
-  <si>
     <t>ES4352198484752100515144</t>
   </si>
   <si>
     <t>FGD00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>51556584221251000254</t>
-  </si>
-  <si>
     <t>IE6851556584221251000254</t>
   </si>
   <si>
     <t>GMM04@vehiculos2025.com</t>
   </si>
   <si>
-    <t>11437269J</t>
-  </si>
-  <si>
     <t>DK9632541112811220000577</t>
   </si>
   <si>
     <t>IVC00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>11637421L</t>
-  </si>
-  <si>
     <t>LT9362541122421110105611</t>
   </si>
   <si>
     <t>DMC00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>11966672W</t>
-  </si>
-  <si>
     <t>ES6855065688761051056105</t>
   </si>
   <si>
     <t>EBC00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>11662128R</t>
-  </si>
-  <si>
     <t>ES7426221011628048788896</t>
   </si>
   <si>
     <t>NBC00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>11673213T</t>
-  </si>
-  <si>
     <t>ES9712548521518742146695</t>
   </si>
   <si>
     <t>MSC00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>11942643P</t>
-  </si>
-  <si>
     <t>ES9001826530120201560000</t>
   </si>
   <si>
     <t>MDC00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>11971207Y</t>
-  </si>
-  <si>
     <t>ES0421651651812511133547</t>
   </si>
   <si>
     <t>MFC00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>11957847D</t>
-  </si>
-  <si>
     <t>ES6851651487910005118185</t>
   </si>
   <si>
     <t>CDD00@vehiculos2025.com</t>
   </si>
   <si>
-    <t>11959249P</t>
-  </si>
-  <si>
     <t>CZ9536250012804785523365</t>
   </si>
   <si>
     <t>CGD00@vehiculos2025.com</t>
-  </si>
-  <si>
-    <t>11959694Q</t>
   </si>
   <si>
     <t>AT2522515651915640081011</t>
@@ -3210,7 +3210,7 @@
         <v>277</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>650</v>
+        <v>686</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>509</v>
@@ -3222,7 +3222,7 @@
         <v>144</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="L8" s="0">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>277</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="H9" t="s" s="0">
         <v>509</v>
@@ -3260,7 +3260,7 @@
         <v>145</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>651</v>
+        <v>687</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>278</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>654</v>
+        <v>690</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>509</v>
@@ -3298,7 +3298,7 @@
         <v>146</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>653</v>
+        <v>689</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -3324,7 +3324,7 @@
         <v>279</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>656</v>
+        <v>692</v>
       </c>
       <c r="H11" t="s" s="0">
         <v>509</v>
@@ -3336,7 +3336,7 @@
         <v>147</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>655</v>
+        <v>691</v>
       </c>
       <c r="L11" s="0">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>279</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>658</v>
+        <v>694</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>509</v>
@@ -3374,7 +3374,7 @@
         <v>148</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>657</v>
+        <v>693</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>216</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="L14" s="0">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>282</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>661</v>
+        <v>696</v>
       </c>
       <c r="H16" t="s" s="0">
         <v>509</v>
@@ -3480,7 +3480,7 @@
         <v>599</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>660</v>
+        <v>695</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>283</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>663</v>
+        <v>698</v>
       </c>
       <c r="H17" t="s" s="0">
         <v>509</v>
@@ -3518,7 +3518,7 @@
         <v>600</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>662</v>
+        <v>697</v>
       </c>
       <c r="L17" s="0">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>283</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>665</v>
+        <v>700</v>
       </c>
       <c r="H18" t="s" s="0">
         <v>509</v>
@@ -3556,7 +3556,7 @@
         <v>151</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>664</v>
+        <v>699</v>
       </c>
       <c r="L18" s="0">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>282</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>667</v>
+        <v>702</v>
       </c>
       <c r="H19" t="s" s="0">
         <v>509</v>
@@ -3594,7 +3594,7 @@
         <v>152</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>666</v>
+        <v>701</v>
       </c>
       <c r="L19" s="0">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         <v>282</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>669</v>
+        <v>704</v>
       </c>
       <c r="H20" t="s" s="0">
         <v>509</v>
@@ -3632,7 +3632,7 @@
         <v>153</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>668</v>
+        <v>703</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>283</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>671</v>
+        <v>706</v>
       </c>
       <c r="H21" t="s" s="0">
         <v>509</v>
@@ -3670,7 +3670,7 @@
         <v>150</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>670</v>
+        <v>705</v>
       </c>
       <c r="L21" s="0">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>284</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="H22" t="s" s="0">
         <v>509</v>
@@ -3708,7 +3708,7 @@
         <v>154</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>672</v>
+        <v>707</v>
       </c>
       <c r="L22" s="0">
         <v>0</v>
@@ -3734,7 +3734,7 @@
         <v>285</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="H23" t="s" s="0">
         <v>509</v>
@@ -3746,7 +3746,7 @@
         <v>155</v>
       </c>
       <c r="K23" t="s" s="0">
-        <v>674</v>
+        <v>709</v>
       </c>
       <c r="L23" s="0">
         <v>0</v>
@@ -3772,7 +3772,7 @@
         <v>283</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>677</v>
+        <v>712</v>
       </c>
       <c r="H24" t="s" s="0">
         <v>509</v>
@@ -3784,7 +3784,7 @@
         <v>156</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>676</v>
+        <v>711</v>
       </c>
       <c r="L24" s="0">
         <v>0</v>
@@ -3810,7 +3810,7 @@
         <v>286</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>679</v>
+        <v>714</v>
       </c>
       <c r="H25" t="s" s="0">
         <v>509</v>
@@ -3822,7 +3822,7 @@
         <v>157</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="L25" s="0">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>283</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>681</v>
+        <v>716</v>
       </c>
       <c r="H27" t="s" s="0">
         <v>509</v>
@@ -3866,7 +3866,7 @@
         <v>158</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -3892,7 +3892,7 @@
         <v>276</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>683</v>
+        <v>718</v>
       </c>
       <c r="H28" t="s" s="0">
         <v>509</v>
@@ -3904,7 +3904,7 @@
         <v>159</v>
       </c>
       <c r="K28" t="s" s="0">
-        <v>682</v>
+        <v>717</v>
       </c>
       <c r="L28" s="0">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>280</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>685</v>
+        <v>720</v>
       </c>
       <c r="H29" t="s" s="0">
         <v>509</v>
@@ -3942,7 +3942,7 @@
         <v>160</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>684</v>
+        <v>719</v>
       </c>
       <c r="L29" s="0">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>280</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>687</v>
+        <v>722</v>
       </c>
       <c r="H30" t="s" s="0">
         <v>509</v>
@@ -3980,7 +3980,7 @@
         <v>161</v>
       </c>
       <c r="K30" t="s" s="0">
-        <v>686</v>
+        <v>721</v>
       </c>
       <c r="L30" s="0">
         <v>0</v>
@@ -4006,7 +4006,7 @@
         <v>280</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>689</v>
+        <v>724</v>
       </c>
       <c r="H31" t="s" s="0">
         <v>509</v>
@@ -4018,7 +4018,7 @@
         <v>162</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>688</v>
+        <v>723</v>
       </c>
       <c r="L31" s="0">
         <v>0</v>
@@ -4044,7 +4044,7 @@
         <v>287</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>691</v>
+        <v>726</v>
       </c>
       <c r="H32" t="s" s="0">
         <v>509</v>
@@ -4056,7 +4056,7 @@
         <v>163</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>690</v>
+        <v>725</v>
       </c>
       <c r="L32" s="0">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>210</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>210</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>208</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>289</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="H39" t="s" s="0">
         <v>509</v>
@@ -4208,7 +4208,7 @@
         <v>164</v>
       </c>
       <c r="K39" t="s" s="0">
-        <v>695</v>
+        <v>727</v>
       </c>
       <c r="L39" s="0">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>290</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="H40" t="s" s="0">
         <v>509</v>
@@ -4246,7 +4246,7 @@
         <v>165</v>
       </c>
       <c r="K40" t="s" s="0">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="L40" s="0">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>290</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>700</v>
+        <v>732</v>
       </c>
       <c r="H41" t="s" s="0">
         <v>509</v>
@@ -4284,7 +4284,7 @@
         <v>166</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>699</v>
+        <v>731</v>
       </c>
       <c r="L41" s="0">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>290</v>
       </c>
       <c r="G42" t="s" s="0">
-        <v>702</v>
+        <v>734</v>
       </c>
       <c r="H42" t="s" s="0">
         <v>509</v>
@@ -4322,7 +4322,7 @@
         <v>167</v>
       </c>
       <c r="K42" t="s" s="0">
-        <v>701</v>
+        <v>733</v>
       </c>
       <c r="L42" s="0">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>291</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>704</v>
+        <v>736</v>
       </c>
       <c r="H43" t="s" s="0">
         <v>509</v>
@@ -4360,7 +4360,7 @@
         <v>168</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>703</v>
+        <v>735</v>
       </c>
       <c r="L43" s="0">
         <v>0</v>
@@ -4386,7 +4386,7 @@
         <v>292</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>706</v>
+        <v>738</v>
       </c>
       <c r="H44" t="s" s="0">
         <v>509</v>
@@ -4398,7 +4398,7 @@
         <v>169</v>
       </c>
       <c r="K44" t="s" s="0">
-        <v>705</v>
+        <v>737</v>
       </c>
       <c r="L44" s="0">
         <v>0</v>
@@ -4424,7 +4424,7 @@
         <v>293</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>708</v>
+        <v>740</v>
       </c>
       <c r="H45" t="s" s="0">
         <v>509</v>
@@ -4436,7 +4436,7 @@
         <v>170</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>707</v>
+        <v>739</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -4462,7 +4462,7 @@
         <v>294</v>
       </c>
       <c r="G46" t="s" s="0">
-        <v>710</v>
+        <v>742</v>
       </c>
       <c r="H46" t="s" s="0">
         <v>509</v>
@@ -4474,7 +4474,7 @@
         <v>171</v>
       </c>
       <c r="K46" t="s" s="0">
-        <v>709</v>
+        <v>741</v>
       </c>
       <c r="L46" s="0">
         <v>0</v>
@@ -4500,7 +4500,7 @@
         <v>295</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>712</v>
+        <v>744</v>
       </c>
       <c r="H47" t="s" s="0">
         <v>509</v>
@@ -4512,7 +4512,7 @@
         <v>172</v>
       </c>
       <c r="K47" t="s" s="0">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="L47" s="0">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>280</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>714</v>
+        <v>746</v>
       </c>
       <c r="H48" t="s" s="0">
         <v>509</v>
@@ -4550,7 +4550,7 @@
         <v>155</v>
       </c>
       <c r="K48" t="s" s="0">
-        <v>713</v>
+        <v>745</v>
       </c>
       <c r="L48" s="0">
         <v>0</v>
@@ -4576,7 +4576,7 @@
         <v>296</v>
       </c>
       <c r="G49" t="s" s="0">
-        <v>716</v>
+        <v>748</v>
       </c>
       <c r="H49" t="s" s="0">
         <v>509</v>
@@ -4588,7 +4588,7 @@
         <v>173</v>
       </c>
       <c r="K49" t="s" s="0">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="L49" s="0">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>287</v>
       </c>
       <c r="G50" t="s" s="0">
-        <v>718</v>
+        <v>750</v>
       </c>
       <c r="H50" t="s" s="0">
         <v>509</v>
@@ -4626,7 +4626,7 @@
         <v>174</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="L50" s="0">
         <v>0</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>719</v>
+        <v>649</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>87</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>88</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>721</v>
+        <v>651</v>
       </c>
       <c r="B53" t="s" s="0">
         <v>541</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>722</v>
+        <v>652</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>89</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>723</v>
+        <v>653</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>86</v>
@@ -4836,7 +4836,7 @@
         <v>284</v>
       </c>
       <c r="G60" t="s" s="0">
-        <v>725</v>
+        <v>752</v>
       </c>
       <c r="H60" t="s" s="0">
         <v>509</v>
@@ -4848,7 +4848,7 @@
         <v>175</v>
       </c>
       <c r="K60" t="s" s="0">
-        <v>724</v>
+        <v>751</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>299</v>
       </c>
       <c r="G61" t="s" s="0">
-        <v>727</v>
+        <v>754</v>
       </c>
       <c r="H61" t="s" s="0">
         <v>509</v>
@@ -4886,7 +4886,7 @@
         <v>176</v>
       </c>
       <c r="K61" t="s" s="0">
-        <v>726</v>
+        <v>753</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>284</v>
       </c>
       <c r="G62" t="s" s="0">
-        <v>729</v>
+        <v>756</v>
       </c>
       <c r="H62" t="s" s="0">
         <v>509</v>
@@ -4924,7 +4924,7 @@
         <v>177</v>
       </c>
       <c r="K62" t="s" s="0">
-        <v>728</v>
+        <v>755</v>
       </c>
       <c r="L62" s="0">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>277</v>
       </c>
       <c r="G63" t="s" s="0">
-        <v>731</v>
+        <v>758</v>
       </c>
       <c r="H63" t="s" s="0">
         <v>509</v>
@@ -4962,7 +4962,7 @@
         <v>178</v>
       </c>
       <c r="K63" t="s" s="0">
-        <v>730</v>
+        <v>757</v>
       </c>
       <c r="L63" s="0">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>297</v>
       </c>
       <c r="G64" t="s" s="0">
-        <v>733</v>
+        <v>760</v>
       </c>
       <c r="H64" t="s" s="0">
         <v>509</v>
@@ -5000,7 +5000,7 @@
         <v>179</v>
       </c>
       <c r="K64" t="s" s="0">
-        <v>732</v>
+        <v>759</v>
       </c>
       <c r="L64" s="0">
         <v>0</v>
@@ -5026,7 +5026,7 @@
         <v>286</v>
       </c>
       <c r="G65" t="s" s="0">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="H65" t="s" s="0">
         <v>509</v>
@@ -5038,7 +5038,7 @@
         <v>180</v>
       </c>
       <c r="K65" t="s" s="0">
-        <v>734</v>
+        <v>761</v>
       </c>
       <c r="L65" s="0">
         <v>0</v>
@@ -5064,7 +5064,7 @@
         <v>284</v>
       </c>
       <c r="G66" t="s" s="0">
-        <v>737</v>
+        <v>764</v>
       </c>
       <c r="H66" t="s" s="0">
         <v>509</v>
@@ -5076,7 +5076,7 @@
         <v>181</v>
       </c>
       <c r="K66" t="s" s="0">
-        <v>736</v>
+        <v>763</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>280</v>
       </c>
       <c r="G67" t="s" s="0">
-        <v>739</v>
+        <v>766</v>
       </c>
       <c r="H67" t="s" s="0">
         <v>509</v>
@@ -5114,7 +5114,7 @@
         <v>182</v>
       </c>
       <c r="K67" t="s" s="0">
-        <v>738</v>
+        <v>765</v>
       </c>
       <c r="L67" s="0">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>277</v>
       </c>
       <c r="G68" t="s" s="0">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="H68" t="s" s="0">
         <v>509</v>
@@ -5152,7 +5152,7 @@
         <v>183</v>
       </c>
       <c r="K68" t="s" s="0">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="L68" s="0">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>300</v>
       </c>
       <c r="G69" t="s" s="0">
-        <v>743</v>
+        <v>770</v>
       </c>
       <c r="H69" t="s" s="0">
         <v>509</v>
@@ -5190,7 +5190,7 @@
         <v>184</v>
       </c>
       <c r="K69" t="s" s="0">
-        <v>742</v>
+        <v>769</v>
       </c>
       <c r="L69" s="0">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>297</v>
       </c>
       <c r="G70" t="s" s="0">
-        <v>745</v>
+        <v>772</v>
       </c>
       <c r="H70" t="s" s="0">
         <v>509</v>
@@ -5228,7 +5228,7 @@
         <v>185</v>
       </c>
       <c r="K70" t="s" s="0">
-        <v>744</v>
+        <v>771</v>
       </c>
       <c r="L70" s="0">
         <v>0</v>
@@ -5254,7 +5254,7 @@
         <v>284</v>
       </c>
       <c r="G71" t="s" s="0">
-        <v>746</v>
+        <v>773</v>
       </c>
       <c r="H71" t="s" s="0">
         <v>509</v>
@@ -5266,7 +5266,7 @@
         <v>175</v>
       </c>
       <c r="K71" t="s" s="0">
-        <v>724</v>
+        <v>751</v>
       </c>
       <c r="L71" s="0">
         <v>0</v>
@@ -5292,7 +5292,7 @@
         <v>297</v>
       </c>
       <c r="G72" t="s" s="0">
-        <v>748</v>
+        <v>775</v>
       </c>
       <c r="H72" t="s" s="0">
         <v>509</v>
@@ -5304,7 +5304,7 @@
         <v>186</v>
       </c>
       <c r="K72" t="s" s="0">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="L72" s="0">
         <v>0</v>
@@ -5330,7 +5330,7 @@
         <v>277</v>
       </c>
       <c r="G73" t="s" s="0">
-        <v>750</v>
+        <v>777</v>
       </c>
       <c r="H73" t="s" s="0">
         <v>509</v>
@@ -5342,7 +5342,7 @@
         <v>187</v>
       </c>
       <c r="K73" t="s" s="0">
-        <v>749</v>
+        <v>776</v>
       </c>
       <c r="L73" s="0">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>283</v>
       </c>
       <c r="G74" t="s" s="0">
-        <v>752</v>
+        <v>779</v>
       </c>
       <c r="H74" t="s" s="0">
         <v>509</v>
@@ -5380,7 +5380,7 @@
         <v>188</v>
       </c>
       <c r="K74" t="s" s="0">
-        <v>751</v>
+        <v>778</v>
       </c>
       <c r="L74" s="0">
         <v>0</v>
@@ -5406,7 +5406,7 @@
         <v>274</v>
       </c>
       <c r="G75" t="s" s="0">
-        <v>754</v>
+        <v>781</v>
       </c>
       <c r="H75" t="s" s="0">
         <v>509</v>
@@ -5418,7 +5418,7 @@
         <v>189</v>
       </c>
       <c r="K75" t="s" s="0">
-        <v>753</v>
+        <v>780</v>
       </c>
       <c r="L75" s="0">
         <v>0</v>
@@ -5444,7 +5444,7 @@
         <v>284</v>
       </c>
       <c r="G76" t="s" s="0">
-        <v>756</v>
+        <v>783</v>
       </c>
       <c r="H76" t="s" s="0">
         <v>509</v>
@@ -5456,7 +5456,7 @@
         <v>190</v>
       </c>
       <c r="K76" t="s" s="0">
-        <v>755</v>
+        <v>782</v>
       </c>
       <c r="L76" s="0">
         <v>0</v>
@@ -5482,7 +5482,7 @@
         <v>284</v>
       </c>
       <c r="G77" t="s" s="0">
-        <v>758</v>
+        <v>785</v>
       </c>
       <c r="H77" t="s" s="0">
         <v>509</v>
@@ -5494,7 +5494,7 @@
         <v>597</v>
       </c>
       <c r="K77" t="s" s="0">
-        <v>757</v>
+        <v>784</v>
       </c>
       <c r="L77" s="0">
         <v>0</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>759</v>
+        <v>654</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>99</v>
@@ -5526,7 +5526,7 @@
         <v>280</v>
       </c>
       <c r="G79" t="s" s="0">
-        <v>762</v>
+        <v>787</v>
       </c>
       <c r="H79" t="s" s="0">
         <v>509</v>
@@ -5535,10 +5535,10 @@
         <v>208</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>760</v>
+        <v>674</v>
       </c>
       <c r="K79" t="s" s="0">
-        <v>761</v>
+        <v>786</v>
       </c>
       <c r="L79" s="0">
         <v>0</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>763</v>
+        <v>655</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>541</v>
@@ -5564,7 +5564,7 @@
         <v>302</v>
       </c>
       <c r="G80" t="s" s="0">
-        <v>766</v>
+        <v>789</v>
       </c>
       <c r="H80" t="s" s="0">
         <v>509</v>
@@ -5573,10 +5573,10 @@
         <v>208</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>764</v>
+        <v>675</v>
       </c>
       <c r="K80" t="s" s="0">
-        <v>765</v>
+        <v>788</v>
       </c>
       <c r="L80" s="0">
         <v>0</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>767</v>
+        <v>656</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>112</v>
@@ -5602,7 +5602,7 @@
         <v>280</v>
       </c>
       <c r="G81" t="s" s="0">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="H81" t="s" s="0">
         <v>509</v>
@@ -5611,10 +5611,10 @@
         <v>213</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>768</v>
+        <v>676</v>
       </c>
       <c r="K81" t="s" s="0">
-        <v>769</v>
+        <v>790</v>
       </c>
       <c r="L81" s="0">
         <v>0</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>771</v>
+        <v>657</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>100</v>
@@ -5640,7 +5640,7 @@
         <v>303</v>
       </c>
       <c r="G82" t="s" s="0">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="H82" t="s" s="0">
         <v>509</v>
@@ -5649,10 +5649,10 @@
         <v>208</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>772</v>
+        <v>677</v>
       </c>
       <c r="K82" t="s" s="0">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="L82" s="0">
         <v>0</v>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>775</v>
+        <v>658</v>
       </c>
       <c r="B83" t="s" s="0">
         <v>546</v>
@@ -5678,7 +5678,7 @@
         <v>297</v>
       </c>
       <c r="G83" t="s" s="0">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="H83" t="s" s="0">
         <v>509</v>
@@ -5687,10 +5687,10 @@
         <v>221</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>776</v>
+        <v>678</v>
       </c>
       <c r="K83" t="s" s="0">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="L83" s="0">
         <v>0</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>779</v>
+        <v>659</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>541</v>
@@ -5716,7 +5716,7 @@
         <v>298</v>
       </c>
       <c r="G84" t="s" s="0">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="H84" t="s" s="0">
         <v>509</v>
@@ -5725,10 +5725,10 @@
         <v>208</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>780</v>
+        <v>679</v>
       </c>
       <c r="K84" t="s" s="0">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="L84" s="0">
         <v>0</v>
@@ -5760,7 +5760,7 @@
         <v>287</v>
       </c>
       <c r="G86" t="s" s="0">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="H86" t="s" s="0">
         <v>509</v>
@@ -5772,7 +5772,7 @@
         <v>191</v>
       </c>
       <c r="K86" t="s" s="0">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="L86" s="0">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>287</v>
       </c>
       <c r="G87" t="s" s="0">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="H87" t="s" s="0">
         <v>509</v>
@@ -5810,7 +5810,7 @@
         <v>192</v>
       </c>
       <c r="K87" t="s" s="0">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="L87" s="0">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>278</v>
       </c>
       <c r="G88" t="s" s="0">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="H88" t="s" s="0">
         <v>509</v>
@@ -5848,7 +5848,7 @@
         <v>193</v>
       </c>
       <c r="K88" t="s" s="0">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="L88" s="0">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>278</v>
       </c>
       <c r="G89" t="s" s="0">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="H89" t="s" s="0">
         <v>509</v>
@@ -5886,7 +5886,7 @@
         <v>194</v>
       </c>
       <c r="K89" t="s" s="0">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="L89" s="0">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>304</v>
       </c>
       <c r="G90" t="s" s="0">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="H90" t="s" s="0">
         <v>509</v>
@@ -5924,7 +5924,7 @@
         <v>195</v>
       </c>
       <c r="K90" t="s" s="0">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="L90" s="0">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>284</v>
       </c>
       <c r="G91" t="s" s="0">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="H91" t="s" s="0">
         <v>509</v>
@@ -5962,7 +5962,7 @@
         <v>196</v>
       </c>
       <c r="K91" t="s" s="0">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="L91" s="0">
         <v>0</v>
@@ -5988,7 +5988,7 @@
         <v>305</v>
       </c>
       <c r="G92" t="s" s="0">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="H92" t="s" s="0">
         <v>509</v>
@@ -6000,7 +6000,7 @@
         <v>197</v>
       </c>
       <c r="K92" t="s" s="0">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="L92" s="0">
         <v>0</v>
@@ -6026,7 +6026,7 @@
         <v>288</v>
       </c>
       <c r="G93" t="s" s="0">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="H93" t="s" s="0">
         <v>509</v>
@@ -6038,7 +6038,7 @@
         <v>198</v>
       </c>
       <c r="K93" t="s" s="0">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="L93" s="0">
         <v>0</v>
@@ -6064,7 +6064,7 @@
         <v>306</v>
       </c>
       <c r="G94" t="s" s="0">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="H94" t="s" s="0">
         <v>509</v>
@@ -6076,7 +6076,7 @@
         <v>199</v>
       </c>
       <c r="K94" t="s" s="0">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="L94" s="0">
         <v>0</v>
@@ -6102,7 +6102,7 @@
         <v>281</v>
       </c>
       <c r="G95" t="s" s="0">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="H95" t="s" s="0">
         <v>509</v>
@@ -6114,7 +6114,7 @@
         <v>200</v>
       </c>
       <c r="K95" t="s" s="0">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="L95" s="0">
         <v>0</v>
@@ -6175,7 +6175,7 @@
         <v>308</v>
       </c>
       <c r="G102" t="s" s="0">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="H102" t="s" s="0">
         <v>509</v>
@@ -6184,10 +6184,10 @@
         <v>218</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>803</v>
+        <v>680</v>
       </c>
       <c r="K102" t="s" s="0">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="L102" s="0">
         <v>0</v>
@@ -6213,7 +6213,7 @@
         <v>275</v>
       </c>
       <c r="G103" t="s" s="0">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="H103" t="s" s="0">
         <v>509</v>
@@ -6222,10 +6222,10 @@
         <v>219</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>806</v>
+        <v>681</v>
       </c>
       <c r="K103" t="s" s="0">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="L103" s="0">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>273</v>
       </c>
       <c r="G104" t="s" s="0">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="H104" t="s" s="0">
         <v>509</v>
@@ -6260,10 +6260,10 @@
         <v>225</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>809</v>
+        <v>682</v>
       </c>
       <c r="K104" t="s" s="0">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="L104" s="0">
         <v>0</v>
@@ -6289,7 +6289,7 @@
         <v>297</v>
       </c>
       <c r="G105" t="s" s="0">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="H105" t="s" s="0">
         <v>509</v>
@@ -6298,10 +6298,10 @@
         <v>208</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>812</v>
+        <v>683</v>
       </c>
       <c r="K105" t="s" s="0">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="L105" s="0">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>297</v>
       </c>
       <c r="G106" t="s" s="0">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="H106" t="s" s="0">
         <v>509</v>
@@ -6336,10 +6336,10 @@
         <v>226</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>815</v>
+        <v>684</v>
       </c>
       <c r="K106" t="s" s="0">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="L106" s="0">
         <v>0</v>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>818</v>
+        <v>660</v>
       </c>
       <c r="B127" t="s" s="0">
         <v>96</v>
@@ -6465,7 +6465,7 @@
         <v>309</v>
       </c>
       <c r="G127" t="s" s="0">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="H127" t="s" s="0">
         <v>509</v>
@@ -6477,7 +6477,7 @@
         <v>603</v>
       </c>
       <c r="K127" t="s" s="0">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="L127" s="0">
         <v>0</v>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>821</v>
+        <v>661</v>
       </c>
       <c r="B128" t="s" s="0">
         <v>543</v>
@@ -6503,7 +6503,7 @@
         <v>310</v>
       </c>
       <c r="G128" t="s" s="0">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="H128" t="s" s="0">
         <v>509</v>
@@ -6515,7 +6515,7 @@
         <v>598</v>
       </c>
       <c r="K128" t="s" s="0">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="L128" s="0">
         <v>0</v>
@@ -6523,7 +6523,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>824</v>
+        <v>662</v>
       </c>
       <c r="B129" t="s" s="0">
         <v>97</v>
@@ -6541,7 +6541,7 @@
         <v>301</v>
       </c>
       <c r="G129" t="s" s="0">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="H129" t="s" s="0">
         <v>509</v>
@@ -6553,7 +6553,7 @@
         <v>201</v>
       </c>
       <c r="K129" t="s" s="0">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="L129" s="0">
         <v>0</v>
@@ -6561,7 +6561,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>827</v>
+        <v>663</v>
       </c>
       <c r="B130" t="s" s="0">
         <v>68</v>
@@ -6579,7 +6579,7 @@
         <v>277</v>
       </c>
       <c r="G130" t="s" s="0">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="H130" t="s" s="0">
         <v>509</v>
@@ -6591,7 +6591,7 @@
         <v>202</v>
       </c>
       <c r="K130" t="s" s="0">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="L130" s="0">
         <v>0</v>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>830</v>
+        <v>664</v>
       </c>
       <c r="B131" t="s" s="0">
         <v>98</v>
@@ -6617,7 +6617,7 @@
         <v>307</v>
       </c>
       <c r="G131" t="s" s="0">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="H131" t="s" s="0">
         <v>509</v>
@@ -6629,7 +6629,7 @@
         <v>203</v>
       </c>
       <c r="K131" t="s" s="0">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="L131" s="0">
         <v>0</v>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>833</v>
+        <v>665</v>
       </c>
       <c r="B132" t="s" s="0">
         <v>66</v>
@@ -6655,7 +6655,7 @@
         <v>307</v>
       </c>
       <c r="G132" t="s" s="0">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="H132" t="s" s="0">
         <v>509</v>
@@ -6667,7 +6667,7 @@
         <v>204</v>
       </c>
       <c r="K132" t="s" s="0">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="L132" s="0">
         <v>0</v>
@@ -6675,7 +6675,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>836</v>
+        <v>666</v>
       </c>
       <c r="B133" t="s" s="0">
         <v>94</v>
@@ -6693,7 +6693,7 @@
         <v>305</v>
       </c>
       <c r="G133" t="s" s="0">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="H133" t="s" s="0">
         <v>509</v>
@@ -6705,7 +6705,7 @@
         <v>604</v>
       </c>
       <c r="K133" t="s" s="0">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="L133" s="0">
         <v>0</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>839</v>
+        <v>667</v>
       </c>
       <c r="B134" t="s" s="0">
         <v>99</v>
@@ -6731,7 +6731,7 @@
         <v>311</v>
       </c>
       <c r="G134" t="s" s="0">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H134" t="s" s="0">
         <v>509</v>
@@ -6743,7 +6743,7 @@
         <v>205</v>
       </c>
       <c r="K134" t="s" s="0">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="L134" s="0">
         <v>0</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>842</v>
+        <v>668</v>
       </c>
       <c r="B135" t="s" s="0">
         <v>541</v>
@@ -6769,7 +6769,7 @@
         <v>301</v>
       </c>
       <c r="G135" t="s" s="0">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H135" t="s" s="0">
         <v>509</v>
@@ -6781,7 +6781,7 @@
         <v>206</v>
       </c>
       <c r="K135" t="s" s="0">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="L135" s="0">
         <v>0</v>
@@ -6789,7 +6789,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>845</v>
+        <v>669</v>
       </c>
       <c r="B136" t="s" s="0">
         <v>112</v>
